--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE54B4C-4A05-4D7F-B913-67DC1D2C4946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F13766-9810-4DD2-AD9B-F56162DD69A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="5" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,15 @@
     <sheet name="Filmpjesmakers" sheetId="2" r:id="rId5"/>
     <sheet name="Oude Youtubers zonder reactie" sheetId="3" r:id="rId6"/>
     <sheet name="Nieuwe Youtubers" sheetId="4" r:id="rId7"/>
-    <sheet name="Outshouters" sheetId="9" r:id="rId8"/>
+    <sheet name="Outshouters crosspromotors" sheetId="9" r:id="rId8"/>
     <sheet name="Gaming subreddits" sheetId="10" r:id="rId9"/>
     <sheet name="Niche subreddits" sheetId="11" r:id="rId10"/>
     <sheet name="Eco subreddits" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="357">
   <si>
     <t>Week</t>
   </si>
@@ -63,9 +67,6 @@
     <t>Mail nieuwe Youtubers</t>
   </si>
   <si>
-    <t>Bibites</t>
-  </si>
-  <si>
     <t>Species ALRE</t>
   </si>
   <si>
@@ -304,6 +305,819 @@
   </si>
   <si>
     <t>Blog met persbericht en data die komen</t>
+  </si>
+  <si>
+    <t>Nookrium</t>
+  </si>
+  <si>
+    <t>K visitors</t>
+  </si>
+  <si>
+    <t>Lady Shelab</t>
+  </si>
+  <si>
+    <t>The Geek Cupboard</t>
+  </si>
+  <si>
+    <t>Blitz</t>
+  </si>
+  <si>
+    <t>Spike Viper</t>
+  </si>
+  <si>
+    <t>Sampstra</t>
+  </si>
+  <si>
+    <t>shirlierox</t>
+  </si>
+  <si>
+    <t>Heuster heu</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Throneful</t>
+  </si>
+  <si>
+    <t>dead202</t>
+  </si>
+  <si>
+    <t>MSTDemon</t>
+  </si>
+  <si>
+    <t>Chocola's reviews</t>
+  </si>
+  <si>
+    <t>Kingly Valence</t>
+  </si>
+  <si>
+    <t>Dad's Gaming Addiction</t>
+  </si>
+  <si>
+    <t>Opmerking</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>2 lainz</t>
+  </si>
+  <si>
+    <t>Daily variety</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Markiplier</t>
+  </si>
+  <si>
+    <t>Nathan's sandbox</t>
+  </si>
+  <si>
+    <t>Game Gabster</t>
+  </si>
+  <si>
+    <t>DarkEdgeTV</t>
+  </si>
+  <si>
+    <t>VineSauce</t>
+  </si>
+  <si>
+    <t>Stankiem</t>
+  </si>
+  <si>
+    <t>Cheru</t>
+  </si>
+  <si>
+    <t>orenong</t>
+  </si>
+  <si>
+    <t>LoverFella</t>
+  </si>
+  <si>
+    <t>sonofmowgef</t>
+  </si>
+  <si>
+    <t>sheep games</t>
+  </si>
+  <si>
+    <t>КРИСТАЛЛ</t>
+  </si>
+  <si>
+    <t>Hypo0008</t>
+  </si>
+  <si>
+    <t>Dan Field</t>
+  </si>
+  <si>
+    <t>Anton Petrov</t>
+  </si>
+  <si>
+    <t>SibbisLP</t>
+  </si>
+  <si>
+    <t>Etalyx</t>
+  </si>
+  <si>
+    <t>Argyrian</t>
+  </si>
+  <si>
+    <t>Caramida9</t>
+  </si>
+  <si>
+    <t>Palm fronds</t>
+  </si>
+  <si>
+    <t>morimr</t>
+  </si>
+  <si>
+    <t>Satiric snake</t>
+  </si>
+  <si>
+    <t>Smash gaming - frazz</t>
+  </si>
+  <si>
+    <t>Email?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>RockLeeSmile</t>
+  </si>
+  <si>
+    <t>BeyondDrewTV</t>
+  </si>
+  <si>
+    <t>Megneous</t>
+  </si>
+  <si>
+    <t>Raptor</t>
+  </si>
+  <si>
+    <t>Stanburdman</t>
+  </si>
+  <si>
+    <t>Antik</t>
+  </si>
+  <si>
+    <t>Sheepdog gaming</t>
+  </si>
+  <si>
+    <t>Eat create sleep</t>
+  </si>
+  <si>
+    <t>HallowsWright95</t>
+  </si>
+  <si>
+    <t>Tenik</t>
+  </si>
+  <si>
+    <t>Orbital potato</t>
+  </si>
+  <si>
+    <t>Swordfish plays</t>
+  </si>
+  <si>
+    <t>AveBatTV</t>
+  </si>
+  <si>
+    <t>DieselDesigns Gaming</t>
+  </si>
+  <si>
+    <t>Voodygames</t>
+  </si>
+  <si>
+    <t>Chrizz play</t>
+  </si>
+  <si>
+    <t>Ham's gaming</t>
+  </si>
+  <si>
+    <t>Swrve</t>
+  </si>
+  <si>
+    <t>LightFusionLord</t>
+  </si>
+  <si>
+    <t>TheKazvon</t>
+  </si>
+  <si>
+    <t>Waluigi58</t>
+  </si>
+  <si>
+    <t>Los Jugadores FT</t>
+  </si>
+  <si>
+    <t>LKNim</t>
+  </si>
+  <si>
+    <t>Bellsproutarmy</t>
+  </si>
+  <si>
+    <t>Azzertyran</t>
+  </si>
+  <si>
+    <t>TheOutsiders360</t>
+  </si>
+  <si>
+    <t>DigitalDigging</t>
+  </si>
+  <si>
+    <t>CoqueroGamer</t>
+  </si>
+  <si>
+    <t>Natural Instincts</t>
+  </si>
+  <si>
+    <t>Equilinox</t>
+  </si>
+  <si>
+    <t>Empires of the Undergrowth</t>
+  </si>
+  <si>
+    <t>The Universim</t>
+  </si>
+  <si>
+    <t>Drunk on nectar</t>
+  </si>
+  <si>
+    <t>Beetle uprising</t>
+  </si>
+  <si>
+    <t>Intelligent design</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Youtuber name</t>
+  </si>
+  <si>
+    <t>Gamezine</t>
+  </si>
+  <si>
+    <t>BeastGamingHD</t>
+  </si>
+  <si>
+    <t>FallenShogun gaming</t>
+  </si>
+  <si>
+    <t>FSXNoob - Games &amp; more</t>
+  </si>
+  <si>
+    <t>TurboGamingUK</t>
+  </si>
+  <si>
+    <t>LegitGamingGR</t>
+  </si>
+  <si>
+    <t>Bluebarry</t>
+  </si>
+  <si>
+    <t>Grind this game</t>
+  </si>
+  <si>
+    <t>Call me Kevin</t>
+  </si>
+  <si>
+    <t>Sir Spid</t>
+  </si>
+  <si>
+    <t>Jacksepticeye</t>
+  </si>
+  <si>
+    <t>Geekism</t>
+  </si>
+  <si>
+    <t>More Teo</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>DangerouslyFunny</t>
+  </si>
+  <si>
+    <t>Hirnsturz</t>
+  </si>
+  <si>
+    <t>SplatterCatGaming</t>
+  </si>
+  <si>
+    <t>Bazar du Grenier</t>
+  </si>
+  <si>
+    <t>Wanderbots</t>
+  </si>
+  <si>
+    <t>Canal do Void</t>
+  </si>
+  <si>
+    <t>Pingvinharcos Streamek</t>
+  </si>
+  <si>
+    <t>Zwerg Tube</t>
+  </si>
+  <si>
+    <t>Psiko 9000</t>
+  </si>
+  <si>
+    <t>Many a true Nerd</t>
+  </si>
+  <si>
+    <t>SpyCakes</t>
+  </si>
+  <si>
+    <t>Mathas</t>
+  </si>
+  <si>
+    <t>Koinsky</t>
+  </si>
+  <si>
+    <t>shaiQuera</t>
+  </si>
+  <si>
+    <t>Menos trece</t>
+  </si>
+  <si>
+    <t>DemoStorm</t>
+  </si>
+  <si>
+    <t>Play at home</t>
+  </si>
+  <si>
+    <t>Drew Durnil</t>
+  </si>
+  <si>
+    <t>MinGamer.tv</t>
+  </si>
+  <si>
+    <t>MetalBear</t>
+  </si>
+  <si>
+    <t>Zisis</t>
+  </si>
+  <si>
+    <t>Generic Gaming</t>
+  </si>
+  <si>
+    <t>SergiuHellDragoonHQ</t>
+  </si>
+  <si>
+    <t>Sou Shibo Live!</t>
+  </si>
+  <si>
+    <t>Ventazel</t>
+  </si>
+  <si>
+    <t>GamesWelt</t>
+  </si>
+  <si>
+    <t>Z1 gaming</t>
+  </si>
+  <si>
+    <t>Queenmyala</t>
+  </si>
+  <si>
+    <t>Chiches</t>
+  </si>
+  <si>
+    <t>RIMPAC</t>
+  </si>
+  <si>
+    <t>Hodge podge</t>
+  </si>
+  <si>
+    <t>Yippee Ki Yay Mr Falcon</t>
+  </si>
+  <si>
+    <t>Tolakram</t>
+  </si>
+  <si>
+    <t>アフロマスク</t>
+  </si>
+  <si>
+    <t>ViteC</t>
+  </si>
+  <si>
+    <t>Aurathas</t>
+  </si>
+  <si>
+    <t>BeyKaplan</t>
+  </si>
+  <si>
+    <t>Caledorn</t>
+  </si>
+  <si>
+    <t>Firespark81</t>
+  </si>
+  <si>
+    <t>DeLadySigner</t>
+  </si>
+  <si>
+    <t>GrunfWorks</t>
+  </si>
+  <si>
+    <t>ChilledChaosGame</t>
+  </si>
+  <si>
+    <t>Quacky Duck CZ</t>
+  </si>
+  <si>
+    <t>ZeRoyalViking</t>
+  </si>
+  <si>
+    <t>ReformistTM</t>
+  </si>
+  <si>
+    <t>Foxy Fern</t>
+  </si>
+  <si>
+    <t>Keralis</t>
+  </si>
+  <si>
+    <t>Tonny Gamer</t>
+  </si>
+  <si>
+    <t>Niche gamer</t>
+  </si>
+  <si>
+    <t>GamerSejati</t>
+  </si>
+  <si>
+    <t>GamerZakh</t>
+  </si>
+  <si>
+    <t>Oska</t>
+  </si>
+  <si>
+    <t>Skye storme</t>
+  </si>
+  <si>
+    <t>SeniacTwo</t>
+  </si>
+  <si>
+    <t>Godenot</t>
+  </si>
+  <si>
+    <t>Hii channel</t>
+  </si>
+  <si>
+    <t>Лёша играет</t>
+  </si>
+  <si>
+    <t>Gameplay Channel [ita]</t>
+  </si>
+  <si>
+    <t>The 8-bit Ninja</t>
+  </si>
+  <si>
+    <t>zbing z.</t>
+  </si>
+  <si>
+    <t>Mike Dragon</t>
+  </si>
+  <si>
+    <t>Nessaj VOD</t>
+  </si>
+  <si>
+    <t>Gremdavel</t>
+  </si>
+  <si>
+    <t>Lutel</t>
+  </si>
+  <si>
+    <t>FranX73</t>
+  </si>
+  <si>
+    <t>ConflictNerd</t>
+  </si>
+  <si>
+    <t>Daniel Howard</t>
+  </si>
+  <si>
+    <t>TheLoneGamer</t>
+  </si>
+  <si>
+    <t>Mystik Jester</t>
+  </si>
+  <si>
+    <t>The Real Noodle</t>
+  </si>
+  <si>
+    <t>Marbozir</t>
+  </si>
+  <si>
+    <t>MattShea</t>
+  </si>
+  <si>
+    <t>Falconero</t>
+  </si>
+  <si>
+    <t>Also Lelling</t>
+  </si>
+  <si>
+    <t>Savage gaming</t>
+  </si>
+  <si>
+    <t>TheBlueDragon</t>
+  </si>
+  <si>
+    <t>EnterElysium</t>
+  </si>
+  <si>
+    <t>Monte Plays Games</t>
+  </si>
+  <si>
+    <t>HeliosTheGamer</t>
+  </si>
+  <si>
+    <t>Oompaville</t>
+  </si>
+  <si>
+    <t>Baxtrix</t>
+  </si>
+  <si>
+    <t>Plaga</t>
+  </si>
+  <si>
+    <t>PhlyDaily</t>
+  </si>
+  <si>
+    <t>El escoces gamer</t>
+  </si>
+  <si>
+    <t>Ziegenbagel Gaming</t>
+  </si>
+  <si>
+    <t>JD plays</t>
+  </si>
+  <si>
+    <t>5-tat</t>
+  </si>
+  <si>
+    <t>At0mium</t>
+  </si>
+  <si>
+    <t>Paran blázen</t>
+  </si>
+  <si>
+    <t>nooblets.com</t>
+  </si>
+  <si>
+    <t>The Lost Prodigy</t>
+  </si>
+  <si>
+    <t>Shreyash Gaming</t>
+  </si>
+  <si>
+    <t>C Lo Cubed</t>
+  </si>
+  <si>
+    <t>MichaelFox</t>
+  </si>
+  <si>
+    <t>RahmSchnitzel | Let's play</t>
+  </si>
+  <si>
+    <t>ObsidianAnt</t>
+  </si>
+  <si>
+    <t>THE Airconditioner</t>
+  </si>
+  <si>
+    <t>Sl1pg8r - Daily Stuff and Things!</t>
+  </si>
+  <si>
+    <t>Mah-Dry-Bread</t>
+  </si>
+  <si>
+    <t>TagBackTV</t>
+  </si>
+  <si>
+    <t>TheSolarGamer</t>
+  </si>
+  <si>
+    <t>4XTREME</t>
+  </si>
+  <si>
+    <t>SubudaiTNG</t>
+  </si>
+  <si>
+    <t>Gintarasp2</t>
+  </si>
+  <si>
+    <t>TheGameCommon</t>
+  </si>
+  <si>
+    <t>docm77</t>
+  </si>
+  <si>
+    <t>mrdaro</t>
+  </si>
+  <si>
+    <t>Merric Gaming</t>
+  </si>
+  <si>
+    <t>UniteTheClans</t>
+  </si>
+  <si>
+    <t>GrimyGamer</t>
+  </si>
+  <si>
+    <t>PartiallyRoyal</t>
+  </si>
+  <si>
+    <t>BeedyBoy</t>
+  </si>
+  <si>
+    <t>AB Gaming</t>
+  </si>
+  <si>
+    <t>Generikb</t>
+  </si>
+  <si>
+    <t>Vicio One More Time</t>
+  </si>
+  <si>
+    <t>Biffa Plays Indie Games</t>
+  </si>
+  <si>
+    <t>Slim Gaming</t>
+  </si>
+  <si>
+    <t>Mateo-Tube</t>
+  </si>
+  <si>
+    <t>Juega Pepeyito</t>
+  </si>
+  <si>
+    <t>ArdillaNegra</t>
+  </si>
+  <si>
+    <t>ArsenalRobert</t>
+  </si>
+  <si>
+    <t>KennethLim</t>
+  </si>
+  <si>
+    <t>El Rincon de Cuerdas</t>
+  </si>
+  <si>
+    <t>King Starscreem</t>
+  </si>
+  <si>
+    <t>DolinMyster's Retro Computing</t>
+  </si>
+  <si>
+    <t>Early Access Gameplay</t>
+  </si>
+  <si>
+    <t>I Declare Shenanigames</t>
+  </si>
+  <si>
+    <t>The Sparrows Journey</t>
+  </si>
+  <si>
+    <t>LowcoGames</t>
+  </si>
+  <si>
+    <t>NightShadowXO</t>
+  </si>
+  <si>
+    <t>AngryBOT</t>
+  </si>
+  <si>
+    <t>Lion Kolla</t>
+  </si>
+  <si>
+    <t>Tommy Vercetti Games</t>
+  </si>
+  <si>
+    <t>Sinthoras</t>
+  </si>
+  <si>
+    <t>DuhGamingSavage</t>
+  </si>
+  <si>
+    <t>Eedeh</t>
+  </si>
+  <si>
+    <t>翔麟</t>
+  </si>
+  <si>
+    <t>Blackridge Pictures</t>
+  </si>
+  <si>
+    <t>Zueljin Gaming</t>
+  </si>
+  <si>
+    <t>OsgamerPro</t>
+  </si>
+  <si>
+    <t>AllGamesWorldHD</t>
+  </si>
+  <si>
+    <t>Sips</t>
+  </si>
+  <si>
+    <t>Flexible Games</t>
+  </si>
+  <si>
+    <t>NilfgorN</t>
+  </si>
+  <si>
+    <t>GamerRocko</t>
+  </si>
+  <si>
+    <t>Petard</t>
+  </si>
+  <si>
+    <t>MaskedBandit</t>
+  </si>
+  <si>
+    <t>CoolGamer2000</t>
+  </si>
+  <si>
+    <t>Blitzkriegsler</t>
+  </si>
+  <si>
+    <t>Randomise User</t>
+  </si>
+  <si>
+    <t>ParagonHex</t>
+  </si>
+  <si>
+    <t>Drae</t>
+  </si>
+  <si>
+    <t>KerneX</t>
+  </si>
+  <si>
+    <t>Northern lion</t>
+  </si>
+  <si>
+    <t>everynightxRIOT</t>
+  </si>
+  <si>
+    <t>MasterofRoflness</t>
+  </si>
+  <si>
+    <t>Kinesis</t>
+  </si>
+  <si>
+    <t>JessiMew</t>
+  </si>
+  <si>
+    <t>EmmaUniverse</t>
+  </si>
+  <si>
+    <t>GrayStillPlays</t>
+  </si>
+  <si>
+    <t>Honey Bunny games</t>
+  </si>
+  <si>
+    <t>BestInSlot</t>
+  </si>
+  <si>
+    <t>JayPlays</t>
+  </si>
+  <si>
+    <t>TheGamingBeaver</t>
+  </si>
+  <si>
+    <t>Arkantos</t>
+  </si>
+  <si>
+    <t>Seri! Pixel biologist</t>
+  </si>
+  <si>
+    <t>cublikefoot</t>
+  </si>
+  <si>
+    <t>Nessendyl</t>
+  </si>
+  <si>
+    <t>Toridori</t>
+  </si>
+  <si>
+    <t>Nicknackgaming</t>
+  </si>
+  <si>
+    <t>GameSharkX</t>
+  </si>
+  <si>
+    <t>2 left thumbs</t>
+  </si>
+  <si>
+    <t>Sabouts</t>
+  </si>
+  <si>
+    <t>The Sandbox Social</t>
   </si>
 </sst>
 </file>
@@ -693,11 +1507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A6D9AC-A6C6-4EF8-B4C7-72C242997141}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +1529,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -724,34 +1538,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>2</v>
@@ -763,24 +1577,24 @@
         <v>5</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -792,12 +1606,12 @@
       <c r="G2" s="1"/>
       <c r="J2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>31</v>
@@ -806,17 +1620,17 @@
         <v>44039</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>31</v>
@@ -825,17 +1639,17 @@
         <v>44042</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>31</v>
@@ -844,20 +1658,20 @@
         <v>44044</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>32</v>
@@ -866,17 +1680,17 @@
         <v>43924</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
@@ -885,17 +1699,17 @@
         <v>43927</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -904,20 +1718,20 @@
         <v>43930</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>33</v>
@@ -926,28 +1740,28 @@
         <v>44056</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>4</v>
@@ -956,24 +1770,24 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -982,23 +1796,23 @@
         <v>44060</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -1007,23 +1821,23 @@
         <v>44063</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -1032,23 +1846,23 @@
         <v>44067</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
     <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -1057,26 +1871,26 @@
         <v>44070</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1">
         <v>36</v>
@@ -1085,54 +1899,54 @@
         <v>44077</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>37</v>
@@ -1142,10 +1956,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15"/>
@@ -1168,27 +1982,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1206,17 +2020,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +2050,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +2068,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1276,55 +2090,3054 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481B09FC-BE3F-4459-B14B-623196C314C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>206</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>9.4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>1.6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>0.05</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{7AEEA911-FDB0-4D6B-A117-4EF3CA88C6B0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB5F10A-C070-439E-BC0C-4D306776EE25}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25A688-B96F-4964-900E-15F95AB35B75}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>3300</v>
+      </c>
+      <c r="K2">
+        <f>MAX(B2:J2)</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <f>MAX(B3:J3)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4">
+        <v>1700</v>
+      </c>
+      <c r="K4">
+        <f>MAX(B4:J4)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+      <c r="K5">
+        <f>MAX(B5:J5)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6">
+        <v>774</v>
+      </c>
+      <c r="K6">
+        <f>MAX(B6:J6)</f>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7">
+        <v>762</v>
+      </c>
+      <c r="K7">
+        <f>MAX(B7:J7)</f>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8">
+        <v>658</v>
+      </c>
+      <c r="K8">
+        <f>MAX(B8:J8)</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>310</v>
+      </c>
+      <c r="K9">
+        <f>MAX(B9:J9)</f>
+        <v>310</v>
+      </c>
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10">
+        <v>295</v>
+      </c>
+      <c r="K10">
+        <f>MAX(B10:J10)</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11">
+        <v>286</v>
+      </c>
+      <c r="K11">
+        <f>MAX(B11:J11)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G12">
+        <v>281</v>
+      </c>
+      <c r="K12">
+        <f>MAX(B12:J12)</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
+      <c r="G13">
+        <v>262</v>
+      </c>
+      <c r="K13">
+        <f>MAX(B13:J13)</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14">
+        <v>258</v>
+      </c>
+      <c r="K14">
+        <f>MAX(B14:J14)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15">
+        <v>249</v>
+      </c>
+      <c r="K15">
+        <f>MAX(B15:J15)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16">
+        <v>222</v>
+      </c>
+      <c r="K16">
+        <f>MAX(B16:J16)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17">
+        <v>221</v>
+      </c>
+      <c r="K17">
+        <f>MAX(B17:J17)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18">
+        <v>215</v>
+      </c>
+      <c r="K18">
+        <f>MAX(B18:J18)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19">
+        <v>212</v>
+      </c>
+      <c r="K19">
+        <f>MAX(B19:J19)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20">
+        <v>204</v>
+      </c>
+      <c r="K20">
+        <f>MAX(B20:J20)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21">
+        <v>204</v>
+      </c>
+      <c r="K21">
+        <f>MAX(B21:J21)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <f>MAX(B22:J22)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>154</v>
+      </c>
+      <c r="K23">
+        <f>MAX(B23:J23)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24">
+        <v>146</v>
+      </c>
+      <c r="K24">
+        <f>MAX(B24:J24)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25">
+        <v>142</v>
+      </c>
+      <c r="K25">
+        <f>MAX(B25:J25)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26">
+        <v>136</v>
+      </c>
+      <c r="K26">
+        <f>MAX(B26:J26)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27">
+        <v>126</v>
+      </c>
+      <c r="K27">
+        <f>MAX(B27:J27)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>116</v>
+      </c>
+      <c r="K28">
+        <f>MAX(B28:J28)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29">
+        <v>115</v>
+      </c>
+      <c r="K29">
+        <f>MAX(B29:J29)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30">
+        <v>114</v>
+      </c>
+      <c r="K30">
+        <f>MAX(B30:J30)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31">
+        <v>112</v>
+      </c>
+      <c r="K31">
+        <f>MAX(B31:J31)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32">
+        <v>108</v>
+      </c>
+      <c r="K32">
+        <f>MAX(B32:J32)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33">
+        <v>108</v>
+      </c>
+      <c r="K33">
+        <f>MAX(B33:J33)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="K34">
+        <f>MAX(B34:J34)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35">
+        <v>98</v>
+      </c>
+      <c r="K35">
+        <f>MAX(B35:J35)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>97</v>
+      </c>
+      <c r="K36">
+        <f>MAX(B36:J36)</f>
+        <v>97</v>
+      </c>
+      <c r="L36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37">
+        <v>92</v>
+      </c>
+      <c r="K37">
+        <f>MAX(B37:J37)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38">
+        <v>91</v>
+      </c>
+      <c r="K38">
+        <f>MAX(B38:J38)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <f>MAX(B39:J39)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40">
+        <v>78</v>
+      </c>
+      <c r="K40">
+        <f>MAX(B40:J40)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <f>MAX(B41:J41)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+      <c r="K42">
+        <f>MAX(B42:J42)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <f>MAX(B43:J43)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <f>MAX(B44:J44)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45">
+        <v>55</v>
+      </c>
+      <c r="K45">
+        <f>MAX(B45:J45)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <f>MAX(B46:J46)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47">
+        <v>53</v>
+      </c>
+      <c r="K47">
+        <f>MAX(B47:J47)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48">
+        <v>51</v>
+      </c>
+      <c r="K48">
+        <f>MAX(B48:J48)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <f>MAX(B49:J49)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <f>MAX(B50:J50)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51">
+        <v>45</v>
+      </c>
+      <c r="K51">
+        <f>MAX(B51:J51)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52">
+        <v>44</v>
+      </c>
+      <c r="K52">
+        <f>MAX(B52:J52)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53">
+        <v>43</v>
+      </c>
+      <c r="K53">
+        <f>MAX(B53:J53)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54">
+        <v>42</v>
+      </c>
+      <c r="K54">
+        <f>MAX(B54:J54)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="K55">
+        <f>MAX(B55:J55)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <f>MAX(B56:J56)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57">
+        <v>39</v>
+      </c>
+      <c r="K57">
+        <f>MAX(B57:J57)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58">
+        <v>39</v>
+      </c>
+      <c r="K58">
+        <f>MAX(B58:J58)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>38</v>
+      </c>
+      <c r="K59">
+        <f>MAX(B59:J59)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60">
+        <v>38</v>
+      </c>
+      <c r="K60">
+        <f>MAX(B60:J60)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61">
+        <v>38</v>
+      </c>
+      <c r="K61">
+        <f>MAX(B61:J61)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="K62">
+        <f>MAX(B62:J62)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63">
+        <v>34</v>
+      </c>
+      <c r="K63">
+        <f>MAX(B63:J63)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64">
+        <v>33</v>
+      </c>
+      <c r="K64">
+        <f>MAX(B64:J64)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65">
+        <v>32</v>
+      </c>
+      <c r="K65">
+        <f>MAX(B65:J65)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66">
+        <v>28</v>
+      </c>
+      <c r="K66">
+        <f>MAX(B66:J66)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67">
+        <v>28</v>
+      </c>
+      <c r="K67">
+        <f>MAX(B67:J67)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68">
+        <v>27</v>
+      </c>
+      <c r="K68">
+        <f>MAX(B68:J68)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69">
+        <v>27</v>
+      </c>
+      <c r="K69">
+        <f>MAX(B69:J69)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70">
+        <v>27</v>
+      </c>
+      <c r="K70">
+        <f>MAX(B70:J70)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71">
+        <v>26</v>
+      </c>
+      <c r="K71">
+        <f>MAX(B71:J71)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72">
+        <v>26</v>
+      </c>
+      <c r="K72">
+        <f>MAX(B72:J72)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73">
+        <v>26</v>
+      </c>
+      <c r="K73">
+        <f>MAX(B73:J73)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="G74">
+        <v>23</v>
+      </c>
+      <c r="K74">
+        <f>MAX(B74:J74)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="G75">
+        <v>22</v>
+      </c>
+      <c r="K75">
+        <f>MAX(B75:J75)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76">
+        <v>21</v>
+      </c>
+      <c r="K76">
+        <f>MAX(B76:J76)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77">
+        <v>21</v>
+      </c>
+      <c r="K77">
+        <f>MAX(B77:J77)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78">
+        <v>21</v>
+      </c>
+      <c r="K78">
+        <f>MAX(B78:J78)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="G79">
+        <v>18</v>
+      </c>
+      <c r="K79">
+        <f>MAX(B79:J79)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="K80">
+        <f>MAX(B80:J80)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81">
+        <v>16</v>
+      </c>
+      <c r="K81">
+        <f>MAX(B81:J81)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82">
+        <v>15</v>
+      </c>
+      <c r="K82">
+        <f>MAX(B82:J82)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+      <c r="K83">
+        <f>MAX(B83:J83)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+      <c r="K84">
+        <f>MAX(B84:J84)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="K85">
+        <f>MAX(B85:J85)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86">
+        <v>12</v>
+      </c>
+      <c r="K86">
+        <f>MAX(B86:J86)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>290</v>
+      </c>
+      <c r="G87">
+        <v>12</v>
+      </c>
+      <c r="K87">
+        <f>MAX(B87:J87)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88">
+        <v>11</v>
+      </c>
+      <c r="K88">
+        <f>MAX(B88:J88)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="K89">
+        <f>MAX(B89:J89)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="K90">
+        <f>MAX(B90:J90)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <f>MAX(B91:J91)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="K92">
+        <f>MAX(B92:J92)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93">
+        <v>9.9</v>
+      </c>
+      <c r="K93">
+        <f>MAX(B93:J93)</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K94">
+        <f>MAX(B94:J94)</f>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <f>MAX(B95:J95)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>310</v>
+      </c>
+      <c r="G96">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K96">
+        <f>MAX(B96:J96)</f>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97">
+        <v>8.6</v>
+      </c>
+      <c r="K97">
+        <f>MAX(B97:J97)</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98">
+        <v>8.5</v>
+      </c>
+      <c r="K98">
+        <f>MAX(B98:J98)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K99">
+        <f>MAX(B99:J99)</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100">
+        <v>7.9</v>
+      </c>
+      <c r="K100">
+        <f>MAX(B100:J100)</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101">
+        <v>7.1</v>
+      </c>
+      <c r="K101">
+        <f>MAX(B101:J101)</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>251</v>
+      </c>
+      <c r="G102">
+        <v>6.8</v>
+      </c>
+      <c r="K102">
+        <f>MAX(B102:J102)</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>326</v>
+      </c>
+      <c r="G103">
+        <v>6.5</v>
+      </c>
+      <c r="K103">
+        <f>MAX(B103:J103)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104">
+        <v>6.4</v>
+      </c>
+      <c r="K104">
+        <f>MAX(B104:J104)</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="G105">
+        <v>5.9</v>
+      </c>
+      <c r="K105">
+        <f>MAX(B105:J105)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106">
+        <v>5.5</v>
+      </c>
+      <c r="K106">
+        <f>MAX(B106:J106)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107">
+        <v>5.3</v>
+      </c>
+      <c r="K107">
+        <f>MAX(B107:J107)</f>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108">
+        <v>5.2</v>
+      </c>
+      <c r="K108">
+        <f>MAX(B108:J108)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="G109">
+        <v>5.2</v>
+      </c>
+      <c r="K109">
+        <f>MAX(B109:J109)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>4.5</v>
+      </c>
+      <c r="K110">
+        <f>MAX(B110:J110)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111">
+        <v>4.5</v>
+      </c>
+      <c r="K111">
+        <f>MAX(B111:J111)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112">
+        <v>4.5</v>
+      </c>
+      <c r="K112">
+        <f>MAX(B112:J112)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113">
+        <v>4.5</v>
+      </c>
+      <c r="K113">
+        <f>MAX(B113:J113)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114">
+        <v>4.5</v>
+      </c>
+      <c r="K114">
+        <f>MAX(B114:J114)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115">
+        <v>4.5</v>
+      </c>
+      <c r="K115">
+        <f>MAX(B115:J115)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <v>4.3</v>
+      </c>
+      <c r="K116">
+        <f>MAX(B116:J116)</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K117">
+        <f>MAX(B117:J117)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>273</v>
+      </c>
+      <c r="G118">
+        <v>3.9</v>
+      </c>
+      <c r="K118">
+        <f>MAX(B118:J118)</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>322</v>
+      </c>
+      <c r="G119">
+        <v>3.9</v>
+      </c>
+      <c r="K119">
+        <f>MAX(B119:J119)</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>328</v>
+      </c>
+      <c r="G120">
+        <v>3.8</v>
+      </c>
+      <c r="K120">
+        <f>MAX(B120:J120)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121">
+        <v>3.7</v>
+      </c>
+      <c r="K121">
+        <f>MAX(B121:J121)</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>3.6</v>
+      </c>
+      <c r="K122">
+        <f>MAX(B122:J122)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>274</v>
+      </c>
+      <c r="G123">
+        <v>3.5</v>
+      </c>
+      <c r="K123">
+        <f>MAX(B123:J123)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <f>MAX(B124:J124)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>284</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <f>MAX(B125:J125)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>279</v>
+      </c>
+      <c r="G126">
+        <v>2.8</v>
+      </c>
+      <c r="K126">
+        <f>MAX(B126:J126)</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="G127">
+        <v>2.7</v>
+      </c>
+      <c r="K127">
+        <f>MAX(B127:J127)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="G128">
+        <v>2.7</v>
+      </c>
+      <c r="K128">
+        <f>MAX(B128:J128)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>2.5</v>
+      </c>
+      <c r="K129">
+        <f>MAX(B129:J129)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="G130">
+        <v>2.5</v>
+      </c>
+      <c r="K130">
+        <f>MAX(B130:J130)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="G131">
+        <v>2.5</v>
+      </c>
+      <c r="K131">
+        <f>MAX(B131:J131)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>313</v>
+      </c>
+      <c r="G132">
+        <v>2.5</v>
+      </c>
+      <c r="K132">
+        <f>MAX(B132:J132)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133">
+        <v>2.4</v>
+      </c>
+      <c r="K133">
+        <f>MAX(B133:J133)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K134">
+        <f>MAX(B134:J134)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G135">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K135">
+        <f>MAX(B135:J135)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K136">
+        <f>MAX(B136:J136)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>291</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <f>MAX(B137:J137)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>292</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <f>MAX(B138:J138)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139">
+        <v>1.9</v>
+      </c>
+      <c r="K139">
+        <f>MAX(B139:J139)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140">
+        <v>1.8</v>
+      </c>
+      <c r="K140">
+        <f>MAX(B140:J140)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+      <c r="G141">
+        <v>1.8</v>
+      </c>
+      <c r="K141">
+        <f>MAX(B141:J141)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>302</v>
+      </c>
+      <c r="G142">
+        <v>1.8</v>
+      </c>
+      <c r="K142">
+        <f>MAX(B142:J142)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143">
+        <v>1.8</v>
+      </c>
+      <c r="K143">
+        <f>MAX(B143:J143)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144">
+        <v>1.7</v>
+      </c>
+      <c r="K144">
+        <f>MAX(B144:J144)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>231</v>
+      </c>
+      <c r="G145">
+        <v>1.7</v>
+      </c>
+      <c r="K145">
+        <f>MAX(B145:J145)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146">
+        <v>1.5</v>
+      </c>
+      <c r="K146">
+        <f>MAX(B146:J146)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>323</v>
+      </c>
+      <c r="G147">
+        <v>1.5</v>
+      </c>
+      <c r="K147">
+        <f>MAX(B147:J147)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148">
+        <v>1.4</v>
+      </c>
+      <c r="K148">
+        <f>MAX(B148:J148)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149">
+        <v>1.4</v>
+      </c>
+      <c r="K149">
+        <f>MAX(B149:J149)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="G150">
+        <v>1.4</v>
+      </c>
+      <c r="K150">
+        <f>MAX(B150:J150)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="G151">
+        <v>1.4</v>
+      </c>
+      <c r="K151">
+        <f>MAX(B151:J151)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>325</v>
+      </c>
+      <c r="G152">
+        <v>1.4</v>
+      </c>
+      <c r="K152">
+        <f>MAX(B152:J152)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>327</v>
+      </c>
+      <c r="G153">
+        <v>1.4</v>
+      </c>
+      <c r="K153">
+        <f>MAX(B153:J153)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="G154">
+        <v>1.4</v>
+      </c>
+      <c r="K154">
+        <f>MAX(B154:J154)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="G155">
+        <v>1.4</v>
+      </c>
+      <c r="K155">
+        <f>MAX(B155:J155)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156">
+        <v>1.3</v>
+      </c>
+      <c r="K156">
+        <f>MAX(B156:J156)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>230</v>
+      </c>
+      <c r="G157">
+        <v>1.3</v>
+      </c>
+      <c r="K157">
+        <f>MAX(B157:J157)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>308</v>
+      </c>
+      <c r="G158">
+        <v>1.3</v>
+      </c>
+      <c r="K158">
+        <f>MAX(B158:J158)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159">
+        <v>1.2</v>
+      </c>
+      <c r="K159">
+        <f>MAX(B159:J159)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160">
+        <v>1.2</v>
+      </c>
+      <c r="K160">
+        <f>MAX(B160:J160)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161">
+        <v>1.2</v>
+      </c>
+      <c r="K161">
+        <f>MAX(B161:J161)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>252</v>
+      </c>
+      <c r="G162">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K162">
+        <f>MAX(B162:J162)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="G163">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K163">
+        <f>MAX(B163:J163)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>287</v>
+      </c>
+      <c r="G164">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K164">
+        <f>MAX(B164:J164)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>316</v>
+      </c>
+      <c r="G165">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K165">
+        <f>MAX(B165:J165)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166">
+        <v>0.2</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <f>MAX(B166:J166)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>307</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <f>MAX(B167:J167)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>317</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <f>MAX(B168:J168)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169">
+        <v>0.9</v>
+      </c>
+      <c r="K169">
+        <f>MAX(B169:J169)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170">
+        <v>0.9</v>
+      </c>
+      <c r="K170">
+        <f>MAX(B170:J170)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>158</v>
+      </c>
+      <c r="C171">
+        <v>0.8</v>
+      </c>
+      <c r="K171">
+        <f>MAX(B171:J171)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>96</v>
+      </c>
+      <c r="G172">
+        <v>0.8</v>
+      </c>
+      <c r="K172">
+        <f>MAX(B172:J172)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>271</v>
+      </c>
+      <c r="G173">
+        <v>0.8</v>
+      </c>
+      <c r="K173">
+        <f>MAX(B173:J173)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>306</v>
+      </c>
+      <c r="G174">
+        <v>0.8</v>
+      </c>
+      <c r="K174">
+        <f>MAX(B174:J174)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>320</v>
+      </c>
+      <c r="G175">
+        <v>0.8</v>
+      </c>
+      <c r="K175">
+        <f>MAX(B175:J175)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176">
+        <v>0.7</v>
+      </c>
+      <c r="K176">
+        <f>MAX(B176:J176)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177">
+        <v>0.7</v>
+      </c>
+      <c r="K177">
+        <f>MAX(B177:J177)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>268</v>
+      </c>
+      <c r="G178">
+        <v>0.7</v>
+      </c>
+      <c r="K178">
+        <f>MAX(B178:J178)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>294</v>
+      </c>
+      <c r="G179">
+        <v>0.7</v>
+      </c>
+      <c r="K179">
+        <f>MAX(B179:J179)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>309</v>
+      </c>
+      <c r="G180">
+        <v>0.7</v>
+      </c>
+      <c r="K180">
+        <f>MAX(B180:J180)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>318</v>
+      </c>
+      <c r="G181">
+        <v>0.7</v>
+      </c>
+      <c r="K181">
+        <f>MAX(B181:J181)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>157</v>
+      </c>
+      <c r="C182">
+        <v>0.6</v>
+      </c>
+      <c r="K182">
+        <f>MAX(B182:J182)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>315</v>
+      </c>
+      <c r="G183">
+        <v>0.6</v>
+      </c>
+      <c r="K183">
+        <f>MAX(B183:J183)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>133</v>
+      </c>
+      <c r="C184">
+        <v>0.5</v>
+      </c>
+      <c r="K184">
+        <f>MAX(B184:J184)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185">
+        <v>0.5</v>
+      </c>
+      <c r="K185">
+        <f>MAX(B185:J185)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186">
+        <v>0.5</v>
+      </c>
+      <c r="K186">
+        <f>MAX(B186:J186)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>285</v>
+      </c>
+      <c r="G187">
+        <v>0.5</v>
+      </c>
+      <c r="K187">
+        <f>MAX(B187:J187)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188">
+        <v>0.4</v>
+      </c>
+      <c r="K188">
+        <f>MAX(B188:J188)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189">
+        <v>0.4</v>
+      </c>
+      <c r="K189">
+        <f>MAX(B189:J189)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>314</v>
+      </c>
+      <c r="G190">
+        <v>0.4</v>
+      </c>
+      <c r="K190">
+        <f>MAX(B190:J190)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+      <c r="G191">
+        <v>0.3</v>
+      </c>
+      <c r="K191">
+        <f>MAX(B191:J191)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="G192">
+        <v>0.3</v>
+      </c>
+      <c r="K192">
+        <f>MAX(B192:J192)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>223</v>
+      </c>
+      <c r="G193">
+        <v>0.3</v>
+      </c>
+      <c r="K193">
+        <f>MAX(B193:J193)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>243</v>
+      </c>
+      <c r="G194">
+        <v>0.3</v>
+      </c>
+      <c r="K194">
+        <f>MAX(B194:J194)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>245</v>
+      </c>
+      <c r="G195">
+        <v>0.3</v>
+      </c>
+      <c r="K195">
+        <f>MAX(B195:J195)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>260</v>
+      </c>
+      <c r="G196">
+        <v>0.3</v>
+      </c>
+      <c r="K196">
+        <f>MAX(B196:J196)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>267</v>
+      </c>
+      <c r="G197">
+        <v>0.3</v>
+      </c>
+      <c r="K197">
+        <f>MAX(B197:J197)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>299</v>
+      </c>
+      <c r="G198">
+        <v>0.3</v>
+      </c>
+      <c r="K198">
+        <f>MAX(B198:J198)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>311</v>
+      </c>
+      <c r="G199">
+        <v>0.3</v>
+      </c>
+      <c r="K199">
+        <f>MAX(B199:J199)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>312</v>
+      </c>
+      <c r="G200">
+        <v>0.3</v>
+      </c>
+      <c r="K200">
+        <f>MAX(B200:J200)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>124</v>
+      </c>
+      <c r="B201">
+        <v>0.2</v>
+      </c>
+      <c r="K201">
+        <f>MAX(B201:J201)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>172</v>
+      </c>
+      <c r="D202">
+        <v>0.2</v>
+      </c>
+      <c r="K202">
+        <f>MAX(B202:J202)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>178</v>
+      </c>
+      <c r="G203">
+        <v>0.2</v>
+      </c>
+      <c r="K203">
+        <f>MAX(B203:J203)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="G204">
+        <v>0.2</v>
+      </c>
+      <c r="K204">
+        <f>MAX(B204:J204)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>256</v>
+      </c>
+      <c r="G205">
+        <v>0.2</v>
+      </c>
+      <c r="K205">
+        <f>MAX(B205:J205)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>257</v>
+      </c>
+      <c r="G206">
+        <v>0.2</v>
+      </c>
+      <c r="K206">
+        <f>MAX(B206:J206)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>300</v>
+      </c>
+      <c r="G207">
+        <v>0.2</v>
+      </c>
+      <c r="K207">
+        <f>MAX(B207:J207)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208">
+        <v>0.1</v>
+      </c>
+      <c r="K208">
+        <f>MAX(B208:J208)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>140</v>
+      </c>
+      <c r="C209">
+        <v>0.1</v>
+      </c>
+      <c r="K209">
+        <f>MAX(B209:J209)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210">
+        <v>0.1</v>
+      </c>
+      <c r="K210">
+        <f>MAX(B210:J210)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211">
+        <v>0.1</v>
+      </c>
+      <c r="K211">
+        <f>MAX(B211:J211)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>150</v>
+      </c>
+      <c r="C212">
+        <v>0.1</v>
+      </c>
+      <c r="K212">
+        <f>MAX(B212:J212)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>275</v>
+      </c>
+      <c r="G213">
+        <v>0.1</v>
+      </c>
+      <c r="K213">
+        <f>MAX(B213:J213)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>276</v>
+      </c>
+      <c r="G214">
+        <v>0.1</v>
+      </c>
+      <c r="K214">
+        <f>MAX(B214:J214)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="G215">
+        <v>0.1</v>
+      </c>
+      <c r="K215">
+        <f>MAX(B215:J215)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>304</v>
+      </c>
+      <c r="G216">
+        <v>0.1</v>
+      </c>
+      <c r="K216">
+        <f>MAX(B216:J216)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>173</v>
+      </c>
+      <c r="D217">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K217">
+        <f>MAX(B217:J217)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{A503CB80-1BF3-4089-8F33-BD2B17721E86}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L217">
+      <sortCondition descending="1" ref="K1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1340,7 +5153,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1360,17 +5173,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F13766-9810-4DD2-AD9B-F56162DD69A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED22BE-E184-4A86-AC8F-E4FED5122ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="5" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="495">
   <si>
     <t>Week</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Email?</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>RockLeeSmile</t>
   </si>
   <si>
@@ -1118,13 +1115,430 @@
   </si>
   <si>
     <t>The Sandbox Social</t>
+  </si>
+  <si>
+    <t>CaptainSauce</t>
+  </si>
+  <si>
+    <t>GilathissNew</t>
+  </si>
+  <si>
+    <t>Team Ninja Bug</t>
+  </si>
+  <si>
+    <t>Airon</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>RohsalPlayer</t>
+  </si>
+  <si>
+    <t>Water nebula</t>
+  </si>
+  <si>
+    <t>SpartanGamer</t>
+  </si>
+  <si>
+    <t>Nerdralls</t>
+  </si>
+  <si>
+    <t>LP-Schmiede</t>
+  </si>
+  <si>
+    <t>Toty23DIEZ</t>
+  </si>
+  <si>
+    <t>Sofia &amp; Dima</t>
+  </si>
+  <si>
+    <t>Gaming TV Plus</t>
+  </si>
+  <si>
+    <t>Jimmy Dali</t>
+  </si>
+  <si>
+    <t>Perpetuumworld</t>
+  </si>
+  <si>
+    <t>Flothar</t>
+  </si>
+  <si>
+    <t>DevilMeiji</t>
+  </si>
+  <si>
+    <t>Paqpa</t>
+  </si>
+  <si>
+    <t>TheHogaty</t>
+  </si>
+  <si>
+    <t>Shifty games</t>
+  </si>
+  <si>
+    <t>80lv</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>MaxInfinite</t>
+  </si>
+  <si>
+    <t>Rad Sikkman</t>
+  </si>
+  <si>
+    <t>Slate 27</t>
+  </si>
+  <si>
+    <t>EZY Nociv</t>
+  </si>
+  <si>
+    <t>GhazPlays</t>
+  </si>
+  <si>
+    <t>CMeeCraft Gaming</t>
+  </si>
+  <si>
+    <t>Nocare</t>
+  </si>
+  <si>
+    <t>Greg's Wildlife</t>
+  </si>
+  <si>
+    <t>Orca Theory</t>
+  </si>
+  <si>
+    <t>Imaginary Dimensions</t>
+  </si>
+  <si>
+    <t>KeyGuuey</t>
+  </si>
+  <si>
+    <t>SgtKeeneye</t>
+  </si>
+  <si>
+    <t>Shenanigans1930</t>
+  </si>
+  <si>
+    <t>TheTricky511</t>
+  </si>
+  <si>
+    <t>Gameplayvids247</t>
+  </si>
+  <si>
+    <t>Them Peeps</t>
+  </si>
+  <si>
+    <t>Sterakdary</t>
+  </si>
+  <si>
+    <t>NiedzielnyW</t>
+  </si>
+  <si>
+    <t>Cobalt Gaming Studios</t>
+  </si>
+  <si>
+    <t>AaahhH Gaming</t>
+  </si>
+  <si>
+    <t>Draconicrose Gaming</t>
+  </si>
+  <si>
+    <t>Beasty</t>
+  </si>
+  <si>
+    <t>overspes</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Gaming Faster Than Light!</t>
+  </si>
+  <si>
+    <t>Talynator</t>
+  </si>
+  <si>
+    <t>GeoGame99</t>
+  </si>
+  <si>
+    <t>Lost_Vanguard</t>
+  </si>
+  <si>
+    <t>D0ve</t>
+  </si>
+  <si>
+    <t>maudado</t>
+  </si>
+  <si>
+    <t>Zee legend</t>
+  </si>
+  <si>
+    <t>コーマ</t>
+  </si>
+  <si>
+    <t>Scrapman</t>
+  </si>
+  <si>
+    <t>Pilzschaf</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>Kurtjmac</t>
+  </si>
+  <si>
+    <t>LPmitKev</t>
+  </si>
+  <si>
+    <t>s h h h e i l a</t>
+  </si>
+  <si>
+    <t>Estrategia Em Choque</t>
+  </si>
+  <si>
+    <t>Classic pulcho</t>
+  </si>
+  <si>
+    <t>Micaiah Stevens</t>
+  </si>
+  <si>
+    <t>Modi Operandus</t>
+  </si>
+  <si>
+    <t>モロトフカクテル ゲーミング</t>
+  </si>
+  <si>
+    <t>One Wheel Studio</t>
+  </si>
+  <si>
+    <t>1OneHuman</t>
+  </si>
+  <si>
+    <t>OmaTanaSpielt</t>
+  </si>
+  <si>
+    <t>Bluntwrapz YT</t>
+  </si>
+  <si>
+    <t>茶杯</t>
+  </si>
+  <si>
+    <t>DESERTED!</t>
+  </si>
+  <si>
+    <t>Lakea gaming</t>
+  </si>
+  <si>
+    <t>Bathtub sir</t>
+  </si>
+  <si>
+    <t>Wedry</t>
+  </si>
+  <si>
+    <t>Funghis Canale Grande</t>
+  </si>
+  <si>
+    <t>Coyohti bluejean</t>
+  </si>
+  <si>
+    <t>BarbaNeagra</t>
+  </si>
+  <si>
+    <t>muckymcfly</t>
+  </si>
+  <si>
+    <t>lillkkgoog</t>
+  </si>
+  <si>
+    <t>巴哈姆特電玩瘋</t>
+  </si>
+  <si>
+    <t>mearrin</t>
+  </si>
+  <si>
+    <t>I xvrlee I</t>
+  </si>
+  <si>
+    <t>TETRA GAMES</t>
+  </si>
+  <si>
+    <t>愛は人生ですDayZ</t>
+  </si>
+  <si>
+    <t>Matinbum</t>
+  </si>
+  <si>
+    <t>Lewibie</t>
+  </si>
+  <si>
+    <t>Clenio Nunes</t>
+  </si>
+  <si>
+    <t>Gramps Grubberfly</t>
+  </si>
+  <si>
+    <t>Kanjuri</t>
+  </si>
+  <si>
+    <t>Razelflix</t>
+  </si>
+  <si>
+    <t>NoxNeoLP</t>
+  </si>
+  <si>
+    <t>Greiver</t>
+  </si>
+  <si>
+    <t>Meowintons</t>
+  </si>
+  <si>
+    <t>Vlad lime game</t>
+  </si>
+  <si>
+    <t>jacksepticeye7@gmail.com</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>markiplierbusiness@gmail.com</t>
+  </si>
+  <si>
+    <t>pan.g@live.com</t>
+  </si>
+  <si>
+    <t>Naiyarat</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>email not read by Kevin</t>
+  </si>
+  <si>
+    <t>callmekevinbusiness@gmail.com</t>
+  </si>
+  <si>
+    <t>gamersdissent@gmail.com</t>
+  </si>
+  <si>
+    <t>Business: etalyx@gmail.com</t>
+  </si>
+  <si>
+    <t>hackboibusiness@gmail.com</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>partiallyroyal@gmail.com</t>
+  </si>
+  <si>
+    <t>Jarrod</t>
+  </si>
+  <si>
+    <t>probably not interested</t>
+  </si>
+  <si>
+    <t>slashouts@gmail.com</t>
+  </si>
+  <si>
+    <t>afro0mask@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redstonenightmare@gmail.com </t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Andry</t>
+  </si>
+  <si>
+    <t>raptorcastgaming@gmail.com</t>
+  </si>
+  <si>
+    <t>business@mattshea.tv</t>
+  </si>
+  <si>
+    <t>tforbusiness@gmail.com</t>
+  </si>
+  <si>
+    <t>luyhenrique10@hotmail.co</t>
+  </si>
+  <si>
+    <t>mingamer_tv@hotmail.com</t>
+  </si>
+  <si>
+    <t>antikplay@gmail.com</t>
+  </si>
+  <si>
+    <t>ykymrfalcon@gmail.com</t>
+  </si>
+  <si>
+    <t>markalot@gmail.com</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>whoyourenemy@gmail.com</t>
+  </si>
+  <si>
+    <t>RockLeeSmile@gmail.com</t>
+  </si>
+  <si>
+    <t>business@darkedge.tv</t>
+  </si>
+  <si>
+    <t>smashgaming999@gmail.com</t>
+  </si>
+  <si>
+    <t>raar kanaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">megneous@gmail.com </t>
+  </si>
+  <si>
+    <t>raar kanaal, inactive</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>joueurdugrenier@gmail.com</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>does not seem reachable</t>
+  </si>
+  <si>
+    <t>info@freaks4u.de?</t>
+  </si>
+  <si>
+    <t>manyatruenerd@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,8 +1560,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF14171A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,10 +1610,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1191,8 +1632,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2312,145 +2760,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB5F10A-C070-439E-BC0C-4D306776EE25}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2460,11 +2908,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25A688-B96F-4964-900E-15F95AB35B75}">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,12 +2929,13 @@
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -2493,46 +2944,67 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>161</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>163</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>164</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>165</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" t="s">
         <v>166</v>
       </c>
-      <c r="K1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2">
         <v>3300</v>
       </c>
       <c r="K2">
-        <f>MAX(B2:J2)</f>
+        <v>8000</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M33" si="0">MAX(B2:J2)</f>
         <v>3300</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -2540,2604 +3012,3611 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <f>MAX(B3:J3)</f>
+        <v>6000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="O3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4">
         <v>1700</v>
       </c>
       <c r="K4">
-        <f>MAX(B4:J4)</f>
+        <v>1300</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5">
         <v>1600</v>
       </c>
       <c r="K5">
-        <f>MAX(B5:J5)</f>
+        <v>1200</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="O5" t="s">
+        <v>456</v>
+      </c>
+      <c r="P5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6">
         <v>774</v>
       </c>
       <c r="K6">
-        <f>MAX(B6:J6)</f>
+        <v>734</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7">
         <v>762</v>
       </c>
-      <c r="K7">
-        <f>MAX(B7:J7)</f>
+      <c r="L7">
+        <v>202</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
         <v>762</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <v>658</v>
       </c>
       <c r="K8">
-        <f>MAX(B8:J8)</f>
+        <v>7000</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
         <v>658</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
       <c r="B9">
         <v>310</v>
       </c>
-      <c r="K9">
-        <f>MAX(B9:J9)</f>
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="L9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G10">
         <v>295</v>
       </c>
-      <c r="K10">
-        <f>MAX(B10:J10)</f>
+      <c r="M10">
+        <f t="shared" si="0"/>
         <v>295</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>290</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12">
         <v>286</v>
       </c>
-      <c r="K11">
-        <f>MAX(B11:J11)</f>
+      <c r="M12">
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12">
+      <c r="N12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O12" t="s">
+        <v>491</v>
+      </c>
+      <c r="P12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>407</v>
+      </c>
+      <c r="G13">
         <v>281</v>
       </c>
-      <c r="K12">
-        <f>MAX(B12:J12)</f>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="N13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>262</v>
       </c>
-      <c r="K13">
-        <f>MAX(B13:J13)</f>
+      <c r="M14">
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14">
+      <c r="N14" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15">
+        <v>102</v>
+      </c>
+      <c r="G15">
         <v>258</v>
       </c>
-      <c r="K14">
-        <f>MAX(B14:J14)</f>
+      <c r="M15">
+        <f t="shared" si="0"/>
         <v>258</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="N15" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16">
+        <v>249</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="N16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17">
+        <v>222</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18">
+        <v>221</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="N18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19">
+        <v>215</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <v>212</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>182</v>
-      </c>
-      <c r="G15">
-        <v>249</v>
-      </c>
-      <c r="K15">
-        <f>MAX(B15:J15)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16">
-        <v>222</v>
-      </c>
-      <c r="K16">
-        <f>MAX(B16:J16)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17">
-        <v>221</v>
-      </c>
-      <c r="K17">
-        <f>MAX(B17:J17)</f>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18">
-        <v>215</v>
-      </c>
-      <c r="K18">
-        <f>MAX(B18:J18)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19">
-        <v>212</v>
-      </c>
-      <c r="K19">
-        <f>MAX(B19:J19)</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20">
-        <v>204</v>
-      </c>
-      <c r="K20">
-        <f>MAX(B20:J20)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>293</v>
       </c>
       <c r="G21">
         <v>204</v>
       </c>
-      <c r="K21">
-        <f>MAX(B21:J21)</f>
+      <c r="M21">
+        <f t="shared" si="0"/>
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
       </c>
       <c r="G22">
+        <v>204</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G23">
         <v>162</v>
       </c>
-      <c r="K22">
-        <f>MAX(B22:J22)</f>
+      <c r="M23">
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24">
         <v>154</v>
       </c>
-      <c r="K23">
-        <f>MAX(B23:J23)</f>
+      <c r="M24">
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>295</v>
-      </c>
-      <c r="G24">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25">
         <v>146</v>
       </c>
-      <c r="K24">
-        <f>MAX(B24:J24)</f>
+      <c r="M25">
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>142</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27">
+        <v>136</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28">
+        <v>126</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>116</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="N29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30">
+        <v>115</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31">
+        <v>114</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32">
+        <v>112</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>180</v>
-      </c>
-      <c r="G25">
-        <v>142</v>
-      </c>
-      <c r="K25">
-        <f>MAX(B25:J25)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26">
-        <v>136</v>
-      </c>
-      <c r="K26">
-        <f>MAX(B26:J26)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27">
-        <v>126</v>
-      </c>
-      <c r="K27">
-        <f>MAX(B27:J27)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28">
-        <v>52</v>
-      </c>
-      <c r="G28">
-        <v>116</v>
-      </c>
-      <c r="K28">
-        <f>MAX(B28:J28)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29">
-        <v>115</v>
-      </c>
-      <c r="K29">
-        <f>MAX(B29:J29)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30">
-        <v>114</v>
-      </c>
-      <c r="K30">
-        <f>MAX(B30:J30)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31">
-        <v>112</v>
-      </c>
-      <c r="K31">
-        <f>MAX(B31:J31)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32">
-        <v>108</v>
-      </c>
-      <c r="K32">
-        <f>MAX(B32:J32)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>246</v>
       </c>
       <c r="G33">
         <v>108</v>
       </c>
-      <c r="K33">
-        <f>MAX(B33:J33)</f>
+      <c r="M33">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G34">
+        <v>108</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34:M66" si="1">MAX(B34:J34)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35">
         <v>99</v>
       </c>
-      <c r="K34">
-        <f>MAX(B34:J34)</f>
+      <c r="M35">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36">
         <v>98</v>
       </c>
-      <c r="K35">
-        <f>MAX(B35:J35)</f>
+      <c r="M36">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>97</v>
       </c>
-      <c r="K36">
-        <f>MAX(B36:J36)</f>
+      <c r="M37">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="L36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37">
-        <v>92</v>
-      </c>
-      <c r="K37">
-        <f>MAX(B37:J37)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G38">
         <v>91</v>
       </c>
-      <c r="K38">
-        <f>MAX(B38:J38)</f>
+      <c r="M38">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39">
         <v>82</v>
       </c>
-      <c r="K39">
-        <f>MAX(B39:J39)</f>
+      <c r="M39">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G40">
         <v>78</v>
       </c>
-      <c r="K40">
-        <f>MAX(B40:J40)</f>
+      <c r="M40">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41">
         <v>76</v>
       </c>
-      <c r="K41">
-        <f>MAX(B41:J41)</f>
+      <c r="M41">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G42">
         <v>64</v>
       </c>
-      <c r="K42">
-        <f>MAX(B42:J42)</f>
+      <c r="M42">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>59</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="N43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44">
         <v>56</v>
       </c>
-      <c r="K43">
-        <f>MAX(B43:J43)</f>
+      <c r="M44">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G44">
-        <v>55</v>
-      </c>
-      <c r="K44">
-        <f>MAX(B44:J44)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G45">
         <v>55</v>
       </c>
-      <c r="K45">
-        <f>MAX(B45:J45)</f>
+      <c r="M45">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G46">
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47">
         <v>54</v>
       </c>
-      <c r="K46">
-        <f>MAX(B46:J46)</f>
+      <c r="M47">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>305</v>
-      </c>
-      <c r="G47">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48">
         <v>53</v>
       </c>
-      <c r="K47">
-        <f>MAX(B47:J47)</f>
+      <c r="M48">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>321</v>
-      </c>
-      <c r="G48">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49">
         <v>51</v>
       </c>
-      <c r="K48">
-        <f>MAX(B48:J48)</f>
+      <c r="M49">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50">
         <v>49</v>
       </c>
-      <c r="K49">
-        <f>MAX(B49:J49)</f>
+      <c r="M50">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="G51">
         <v>46</v>
       </c>
-      <c r="K50">
-        <f>MAX(B50:J50)</f>
+      <c r="M51">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>289</v>
-      </c>
-      <c r="G51">
+      <c r="N51" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="G52">
         <v>45</v>
       </c>
-      <c r="K51">
-        <f>MAX(B51:J51)</f>
+      <c r="M52">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53">
         <v>44</v>
       </c>
-      <c r="K52">
-        <f>MAX(B52:J52)</f>
+      <c r="M53">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54">
         <v>43</v>
       </c>
-      <c r="K53">
-        <f>MAX(B53:J53)</f>
+      <c r="M54">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54">
+      <c r="N54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55">
         <v>42</v>
       </c>
-      <c r="K54">
-        <f>MAX(B54:J54)</f>
+      <c r="M55">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55">
-        <v>41</v>
-      </c>
-      <c r="C55">
-        <v>24</v>
-      </c>
-      <c r="K55">
-        <f>MAX(B55:J55)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G56">
         <v>40</v>
       </c>
-      <c r="K56">
-        <f>MAX(B56:J56)</f>
+      <c r="M56">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G57">
         <v>39</v>
       </c>
-      <c r="K57">
-        <f>MAX(B57:J57)</f>
+      <c r="M57">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G58">
         <v>39</v>
       </c>
-      <c r="K58">
-        <f>MAX(B58:J58)</f>
+      <c r="M58">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
       <c r="B59">
         <v>38</v>
       </c>
-      <c r="K59">
-        <f>MAX(B59:J59)</f>
+      <c r="M59">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N59" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>38</v>
       </c>
-      <c r="K60">
-        <f>MAX(B60:J60)</f>
+      <c r="M60">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G61">
         <v>38</v>
       </c>
-      <c r="K61">
-        <f>MAX(B61:J61)</f>
+      <c r="H61">
+        <v>13</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N61" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>108</v>
       </c>
       <c r="B62">
         <v>34</v>
       </c>
-      <c r="K62">
-        <f>MAX(B62:J62)</f>
+      <c r="M62">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N62" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63">
         <v>34</v>
       </c>
-      <c r="K63">
-        <f>MAX(B63:J63)</f>
+      <c r="M63">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N63" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O63" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64">
         <v>33</v>
       </c>
-      <c r="K64">
-        <f>MAX(B64:J64)</f>
+      <c r="M64">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G65">
         <v>32</v>
       </c>
-      <c r="K65">
-        <f>MAX(B65:J65)</f>
+      <c r="M65">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66">
         <v>28</v>
       </c>
-      <c r="K66">
-        <f>MAX(B66:J66)</f>
+      <c r="M66">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="G67">
-        <v>28</v>
-      </c>
-      <c r="K67">
-        <f>MAX(B67:J67)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M98" si="2">MAX(B67:J67)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G68">
         <v>27</v>
       </c>
-      <c r="K68">
-        <f>MAX(B68:J68)</f>
+      <c r="M68">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="G69">
         <v>27</v>
       </c>
-      <c r="K69">
-        <f>MAX(B69:J69)</f>
+      <c r="M69">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="G70">
-        <v>27</v>
-      </c>
-      <c r="K70">
-        <f>MAX(B70:J70)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G71">
         <v>26</v>
       </c>
-      <c r="K71">
-        <f>MAX(B71:J71)</f>
+      <c r="M71">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G72">
         <v>26</v>
       </c>
-      <c r="K72">
-        <f>MAX(B72:J72)</f>
+      <c r="M72">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="G73">
-        <v>26</v>
-      </c>
-      <c r="K73">
-        <f>MAX(B73:J73)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G74">
-        <v>23</v>
-      </c>
-      <c r="K74">
-        <f>MAX(B74:J74)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G75">
-        <v>22</v>
-      </c>
-      <c r="K75">
-        <f>MAX(B75:J75)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G76">
         <v>21</v>
       </c>
-      <c r="K76">
-        <f>MAX(B76:J76)</f>
+      <c r="M76">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G77">
         <v>21</v>
       </c>
-      <c r="K77">
-        <f>MAX(B77:J77)</f>
+      <c r="M77">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="G78">
-        <v>21</v>
-      </c>
-      <c r="K78">
-        <f>MAX(B78:J78)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G79">
-        <v>18</v>
-      </c>
-      <c r="K79">
-        <f>MAX(B79:J79)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H79">
+        <v>66</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80">
+        <v>16</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="G82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O83" t="s">
+        <v>480</v>
+      </c>
+      <c r="P83" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>214</v>
       </c>
-      <c r="G80">
-        <v>17</v>
-      </c>
-      <c r="K80">
-        <f>MAX(B80:J80)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>194</v>
-      </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="K81">
-        <f>MAX(B81:J81)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>235</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
-      <c r="K82">
-        <f>MAX(B82:J82)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>209</v>
-      </c>
-      <c r="G83">
-        <v>14</v>
-      </c>
-      <c r="K83">
-        <f>MAX(B83:J83)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84">
+      <c r="E84">
+        <v>0.6</v>
+      </c>
+      <c r="G84">
         <v>13</v>
       </c>
-      <c r="K84">
-        <f>MAX(B84:J84)</f>
+      <c r="M84">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N84" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="O84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G85">
-        <v>13</v>
-      </c>
-      <c r="K85">
-        <f>MAX(B85:J85)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="G86">
         <v>12</v>
       </c>
-      <c r="K86">
-        <f>MAX(B86:J86)</f>
+      <c r="M86">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="G87">
-        <v>12</v>
-      </c>
-      <c r="K87">
-        <f>MAX(B87:J87)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G88">
         <v>11</v>
       </c>
-      <c r="K88">
-        <f>MAX(B88:J88)</f>
+      <c r="M88">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G89">
         <v>11</v>
       </c>
-      <c r="K89">
-        <f>MAX(B89:J89)</f>
+      <c r="M89">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>258</v>
-      </c>
-      <c r="G90">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
       </c>
       <c r="K90">
-        <f>MAX(B90:J90)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91">
+        <v>190</v>
+      </c>
+      <c r="G91">
         <v>10</v>
       </c>
-      <c r="K91">
-        <f>MAX(B91:J91)</f>
+      <c r="M91">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="G92">
-        <v>10</v>
-      </c>
-      <c r="K92">
-        <f>MAX(B92:J92)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.9</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G93">
-        <v>9.9</v>
-      </c>
-      <c r="K93">
-        <f>MAX(B93:J93)</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>205</v>
-      </c>
-      <c r="G94">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K94">
-        <f>MAX(B94:J94)</f>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="K95">
-        <f>MAX(B95:J95)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="G95">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="G96">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K96">
-        <f>MAX(B96:J96)</f>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.6</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="2"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>240</v>
-      </c>
-      <c r="G97">
-        <v>8.6</v>
-      </c>
-      <c r="K97">
-        <f>MAX(B97:J97)</f>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="C97">
+        <v>8.5</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98">
-        <v>8.5</v>
-      </c>
-      <c r="K98">
-        <f>MAX(B98:J98)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="E98">
+        <v>17</v>
+      </c>
+      <c r="G98">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="G99">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K99">
-        <f>MAX(B99:J99)</f>
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.9</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ref="M99:M130" si="3">MAX(B99:J99)</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G100">
-        <v>7.9</v>
-      </c>
-      <c r="K100">
-        <f>MAX(B100:J100)</f>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.1</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="3"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G101">
-        <v>7.1</v>
-      </c>
-      <c r="K101">
-        <f>MAX(B101:J101)</f>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.8</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="3"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="G102">
-        <v>6.8</v>
-      </c>
-      <c r="K102">
-        <f>MAX(B102:J102)</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="G103">
-        <v>6.5</v>
-      </c>
-      <c r="K103">
-        <f>MAX(B103:J103)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="G104">
-        <v>6.4</v>
-      </c>
-      <c r="K104">
-        <f>MAX(B104:J104)</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.9</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>219</v>
-      </c>
-      <c r="G105">
-        <v>5.9</v>
-      </c>
-      <c r="K105">
-        <f>MAX(B105:J105)</f>
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="B105">
+        <v>5.5</v>
+      </c>
+      <c r="E105">
+        <v>0.7</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106">
-        <v>5.5</v>
-      </c>
-      <c r="K106">
-        <f>MAX(B106:J106)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="G106">
+        <v>5.3</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>225</v>
-      </c>
-      <c r="G107">
-        <v>5.3</v>
-      </c>
-      <c r="K107">
-        <f>MAX(B107:J107)</f>
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="B107">
+        <v>5.2</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108">
+        <v>207</v>
+      </c>
+      <c r="G108">
         <v>5.2</v>
       </c>
-      <c r="K108">
-        <f>MAX(B108:J108)</f>
+      <c r="M108">
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>208</v>
-      </c>
-      <c r="G109">
-        <v>5.2</v>
-      </c>
-      <c r="K109">
-        <f>MAX(B109:J109)</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>4.5</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110">
+        <v>133</v>
+      </c>
+      <c r="C110">
         <v>4.5</v>
       </c>
-      <c r="K110">
-        <f>MAX(B110:J110)</f>
+      <c r="M110">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N110" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C111">
         <v>4.5</v>
       </c>
-      <c r="K111">
-        <f>MAX(B111:J111)</f>
+      <c r="M111">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112">
+        <v>221</v>
+      </c>
+      <c r="G112">
         <v>4.5</v>
       </c>
-      <c r="K112">
-        <f>MAX(B112:J112)</f>
+      <c r="M112">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G113">
         <v>4.5</v>
       </c>
-      <c r="K113">
-        <f>MAX(B113:J113)</f>
+      <c r="M113">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="G114">
         <v>4.5</v>
       </c>
-      <c r="K114">
-        <f>MAX(B114:J114)</f>
+      <c r="M114">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>277</v>
-      </c>
-      <c r="G115">
-        <v>4.5</v>
-      </c>
-      <c r="K115">
-        <f>MAX(B115:J115)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>4.3</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>4.3</v>
-      </c>
-      <c r="K116">
-        <f>MAX(B116:J116)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K117">
-        <f>MAX(B117:J117)</f>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="G117">
+        <v>3.9</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="3"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="G118">
         <v>3.9</v>
       </c>
-      <c r="K118">
-        <f>MAX(B118:J118)</f>
+      <c r="M118">
+        <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G119">
-        <v>3.9</v>
-      </c>
-      <c r="K119">
-        <f>MAX(B119:J119)</f>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>328</v>
-      </c>
-      <c r="G120">
-        <v>3.8</v>
-      </c>
-      <c r="K120">
-        <f>MAX(B120:J120)</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D120">
+        <v>3.7</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>170</v>
-      </c>
-      <c r="D121">
-        <v>3.7</v>
-      </c>
-      <c r="K121">
-        <f>MAX(B121:J121)</f>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>3.6</v>
-      </c>
-      <c r="K122">
-        <f>MAX(B122:J122)</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="G122">
+        <v>3.5</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G123">
-        <v>3.5</v>
-      </c>
-      <c r="K123">
-        <f>MAX(B123:J123)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="G124">
         <v>3</v>
       </c>
-      <c r="K124">
-        <f>MAX(B124:J124)</f>
+      <c r="M124">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="K125">
-        <f>MAX(B125:J125)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="G126">
-        <v>2.8</v>
-      </c>
-      <c r="K126">
-        <f>MAX(B126:J126)</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.7</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="G127">
         <v>2.7</v>
       </c>
-      <c r="K127">
-        <f>MAX(B127:J127)</f>
+      <c r="M127">
+        <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>255</v>
-      </c>
-      <c r="G128">
-        <v>2.7</v>
-      </c>
-      <c r="K128">
-        <f>MAX(B128:J128)</f>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2.5</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129">
+        <v>174</v>
+      </c>
+      <c r="G129">
         <v>2.5</v>
       </c>
-      <c r="K129">
-        <f>MAX(B129:J129)</f>
+      <c r="M129">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G130">
         <v>2.5</v>
       </c>
-      <c r="K130">
-        <f>MAX(B130:J130)</f>
+      <c r="M130">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="G131">
         <v>2.5</v>
       </c>
-      <c r="K131">
-        <f>MAX(B131:J131)</f>
+      <c r="M131">
+        <f t="shared" ref="M131:M162" si="4">MAX(B131:J131)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>313</v>
-      </c>
-      <c r="G132">
-        <v>2.5</v>
-      </c>
-      <c r="K132">
-        <f>MAX(B132:J132)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <v>2.4</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B133">
-        <v>2.4</v>
-      </c>
-      <c r="K133">
-        <f>MAX(B133:J133)</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134">
+        <v>189</v>
+      </c>
+      <c r="G134">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K134">
-        <f>MAX(B134:J134)</f>
+      <c r="M134">
+        <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G135">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K135">
-        <f>MAX(B135:J135)</f>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="G136">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K136">
-        <f>MAX(B136:J136)</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>291</v>
       </c>
+      <c r="E137">
+        <v>1.7</v>
+      </c>
       <c r="G137">
         <v>2</v>
       </c>
-      <c r="K137">
-        <f>MAX(B137:J137)</f>
+      <c r="M137">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>292</v>
-      </c>
-      <c r="G138">
-        <v>2</v>
-      </c>
-      <c r="K138">
-        <f>MAX(B138:J138)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="C138">
+        <v>1.9</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="4"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C139">
-        <v>1.9</v>
-      </c>
-      <c r="K139">
-        <f>MAX(B139:J139)</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+      <c r="H139">
+        <v>3.9</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="4"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C140">
+        <v>197</v>
+      </c>
+      <c r="G140">
         <v>1.8</v>
       </c>
-      <c r="K140">
-        <f>MAX(B140:J140)</f>
+      <c r="M140">
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="G141">
         <v>1.8</v>
       </c>
-      <c r="K141">
-        <f>MAX(B141:J141)</f>
+      <c r="M141">
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>302</v>
       </c>
       <c r="G142">
         <v>1.8</v>
       </c>
-      <c r="K142">
-        <f>MAX(B142:J142)</f>
+      <c r="M142">
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="G143">
-        <v>1.8</v>
-      </c>
-      <c r="K143">
-        <f>MAX(B143:J143)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.7</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G144">
         <v>1.7</v>
       </c>
-      <c r="K144">
-        <f>MAX(B144:J144)</f>
+      <c r="M144">
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>231</v>
-      </c>
-      <c r="G145">
-        <v>1.7</v>
-      </c>
-      <c r="K145">
-        <f>MAX(B145:J145)</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C145">
+        <v>1.5</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="C146">
+        <v>322</v>
+      </c>
+      <c r="E146">
+        <v>0.2</v>
+      </c>
+      <c r="G146">
         <v>1.5</v>
       </c>
-      <c r="K146">
-        <f>MAX(B146:J146)</f>
+      <c r="J146">
+        <v>0.5</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>323</v>
-      </c>
-      <c r="G147">
-        <v>1.5</v>
-      </c>
-      <c r="K147">
-        <f>MAX(B147:J147)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C147">
+        <v>1.4</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C148">
         <v>1.4</v>
       </c>
-      <c r="K148">
-        <f>MAX(B148:J148)</f>
+      <c r="M148">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>142</v>
-      </c>
-      <c r="C149">
+        <v>227</v>
+      </c>
+      <c r="G149">
         <v>1.4</v>
       </c>
-      <c r="K149">
-        <f>MAX(B149:J149)</f>
+      <c r="M149">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G150">
         <v>1.4</v>
       </c>
-      <c r="K150">
-        <f>MAX(B150:J150)</f>
+      <c r="M150">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="G151">
         <v>1.4</v>
       </c>
-      <c r="K151">
-        <f>MAX(B151:J151)</f>
+      <c r="M151">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G152">
         <v>1.4</v>
       </c>
-      <c r="K152">
-        <f>MAX(B152:J152)</f>
+      <c r="M152">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G153">
         <v>1.4</v>
       </c>
-      <c r="K153">
-        <f>MAX(B153:J153)</f>
+      <c r="M153">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>329</v>
       </c>
       <c r="G154">
         <v>1.4</v>
       </c>
-      <c r="K154">
-        <f>MAX(B154:J154)</f>
+      <c r="M154">
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>330</v>
-      </c>
-      <c r="G155">
-        <v>1.4</v>
-      </c>
-      <c r="K155">
-        <f>MAX(B155:J155)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="B155">
+        <v>1.3</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>119</v>
-      </c>
-      <c r="B156">
+        <v>229</v>
+      </c>
+      <c r="G156">
         <v>1.3</v>
       </c>
-      <c r="K156">
-        <f>MAX(B156:J156)</f>
+      <c r="M156">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="G157">
         <v>1.3</v>
       </c>
-      <c r="K157">
-        <f>MAX(B157:J157)</f>
+      <c r="M157">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>308</v>
-      </c>
-      <c r="G158">
-        <v>1.3</v>
-      </c>
-      <c r="K158">
-        <f>MAX(B158:J158)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="B158">
+        <v>1.2</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>122</v>
-      </c>
-      <c r="B159">
+        <v>152</v>
+      </c>
+      <c r="C159">
         <v>1.2</v>
       </c>
-      <c r="K159">
-        <f>MAX(B159:J159)</f>
+      <c r="M159">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>153</v>
-      </c>
-      <c r="C160">
+        <v>168</v>
+      </c>
+      <c r="D160">
         <v>1.2</v>
       </c>
-      <c r="K160">
-        <f>MAX(B160:J160)</f>
+      <c r="M160">
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>169</v>
-      </c>
-      <c r="D161">
-        <v>1.2</v>
-      </c>
-      <c r="K161">
-        <f>MAX(B161:J161)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="G161">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G162">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K162">
-        <f>MAX(B162:J162)</f>
+      <c r="M162">
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G163">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K163">
-        <f>MAX(B163:J163)</f>
+      <c r="M163">
+        <f t="shared" ref="M163:M194" si="5">MAX(B163:J163)</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="G164">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K164">
-        <f>MAX(B164:J164)</f>
+      <c r="M164">
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>170</v>
+      </c>
+      <c r="D165">
+        <v>0.2</v>
       </c>
       <c r="G165">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K165">
-        <f>MAX(B165:J165)</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0.2</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>171</v>
-      </c>
-      <c r="D166">
-        <v>0.2</v>
+        <v>306</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="K166">
-        <f>MAX(B166:J166)</f>
+      <c r="M166">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
-      <c r="K167">
-        <f>MAX(B167:J167)</f>
+      <c r="M167">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>317</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="K168">
-        <f>MAX(B168:J168)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C168">
+        <v>0.9</v>
+      </c>
+      <c r="H168">
+        <v>0.2</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C169">
         <v>0.9</v>
       </c>
-      <c r="K169">
-        <f>MAX(B169:J169)</f>
+      <c r="M169">
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C170">
-        <v>0.9</v>
-      </c>
-      <c r="K170">
-        <f>MAX(B170:J170)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>158</v>
-      </c>
-      <c r="C171">
+        <v>96</v>
+      </c>
+      <c r="G171">
         <v>0.8</v>
       </c>
-      <c r="K171">
-        <f>MAX(B171:J171)</f>
+      <c r="M171">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="G172">
         <v>0.8</v>
       </c>
-      <c r="K172">
-        <f>MAX(B172:J172)</f>
+      <c r="M172">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G173">
         <v>0.8</v>
       </c>
-      <c r="K173">
-        <f>MAX(B173:J173)</f>
+      <c r="M173">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G174">
         <v>0.8</v>
       </c>
-      <c r="K174">
-        <f>MAX(B174:J174)</f>
+      <c r="M174">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>320</v>
-      </c>
-      <c r="G175">
-        <v>0.8</v>
-      </c>
-      <c r="K175">
-        <f>MAX(B175:J175)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C175">
+        <v>0.7</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C176">
         <v>0.7</v>
       </c>
-      <c r="K176">
-        <f>MAX(B176:J176)</f>
+      <c r="M176">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177">
+        <v>267</v>
+      </c>
+      <c r="G177">
         <v>0.7</v>
       </c>
-      <c r="K177">
-        <f>MAX(B177:J177)</f>
+      <c r="M177">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G178">
         <v>0.7</v>
       </c>
-      <c r="K178">
-        <f>MAX(B178:J178)</f>
+      <c r="M178">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G179">
         <v>0.7</v>
       </c>
-      <c r="K179">
-        <f>MAX(B179:J179)</f>
+      <c r="M179">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G180">
         <v>0.7</v>
       </c>
-      <c r="K180">
-        <f>MAX(B180:J180)</f>
+      <c r="M180">
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>318</v>
-      </c>
-      <c r="G181">
-        <v>0.7</v>
-      </c>
-      <c r="K181">
-        <f>MAX(B181:J181)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="C181">
+        <v>0.6</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182">
+        <v>314</v>
+      </c>
+      <c r="G182">
         <v>0.6</v>
       </c>
-      <c r="K182">
-        <f>MAX(B182:J182)</f>
+      <c r="M182">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>315</v>
-      </c>
-      <c r="G183">
-        <v>0.6</v>
-      </c>
-      <c r="K183">
-        <f>MAX(B183:J183)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="C183">
+        <v>0.5</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C184">
         <v>0.5</v>
       </c>
-      <c r="K184">
-        <f>MAX(B184:J184)</f>
+      <c r="M184">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C185">
         <v>0.5</v>
       </c>
-      <c r="K185">
-        <f>MAX(B185:J185)</f>
+      <c r="M185">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>154</v>
-      </c>
-      <c r="C186">
+        <v>284</v>
+      </c>
+      <c r="G186">
         <v>0.5</v>
       </c>
-      <c r="K186">
-        <f>MAX(B186:J186)</f>
+      <c r="M186">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>285</v>
-      </c>
-      <c r="G187">
-        <v>0.5</v>
-      </c>
-      <c r="K187">
-        <f>MAX(B187:J187)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="B187">
+        <v>0.4</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>109</v>
-      </c>
-      <c r="B188">
+        <v>155</v>
+      </c>
+      <c r="C188">
         <v>0.4</v>
       </c>
-      <c r="K188">
-        <f>MAX(B188:J188)</f>
+      <c r="M188">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>156</v>
-      </c>
-      <c r="C189">
+        <v>313</v>
+      </c>
+      <c r="G189">
         <v>0.4</v>
       </c>
-      <c r="K189">
-        <f>MAX(B189:J189)</f>
+      <c r="M189">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="G190">
-        <v>0.4</v>
-      </c>
-      <c r="K190">
-        <f>MAX(B190:J190)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G191">
         <v>0.3</v>
       </c>
-      <c r="K191">
-        <f>MAX(B191:J191)</f>
+      <c r="M191">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G192">
         <v>0.3</v>
       </c>
-      <c r="K192">
-        <f>MAX(B192:J192)</f>
+      <c r="M192">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G193">
         <v>0.3</v>
       </c>
-      <c r="K193">
-        <f>MAX(B193:J193)</f>
+      <c r="M193">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G194">
         <v>0.3</v>
       </c>
-      <c r="K194">
-        <f>MAX(B194:J194)</f>
+      <c r="M194">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G195">
         <v>0.3</v>
       </c>
-      <c r="K195">
-        <f>MAX(B195:J195)</f>
+      <c r="M195">
+        <f t="shared" ref="M195:M216" si="6">MAX(B195:J195)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G196">
         <v>0.3</v>
       </c>
-      <c r="K196">
-        <f>MAX(B196:J196)</f>
+      <c r="M196">
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="G197">
         <v>0.3</v>
       </c>
-      <c r="K197">
-        <f>MAX(B197:J197)</f>
+      <c r="M197">
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G198">
         <v>0.3</v>
       </c>
-      <c r="K198">
-        <f>MAX(B198:J198)</f>
+      <c r="M198">
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>311</v>
       </c>
       <c r="G199">
         <v>0.3</v>
       </c>
-      <c r="K199">
-        <f>MAX(B199:J199)</f>
+      <c r="M199">
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>312</v>
-      </c>
-      <c r="G200">
-        <v>0.3</v>
-      </c>
-      <c r="K200">
-        <f>MAX(B200:J200)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="B200">
+        <v>0.2</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>124</v>
-      </c>
-      <c r="B201">
+        <v>171</v>
+      </c>
+      <c r="D201">
         <v>0.2</v>
       </c>
-      <c r="K201">
-        <f>MAX(B201:J201)</f>
+      <c r="M201">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>172</v>
-      </c>
-      <c r="D202">
+        <v>177</v>
+      </c>
+      <c r="G202">
         <v>0.2</v>
       </c>
-      <c r="K202">
-        <f>MAX(B202:J202)</f>
+      <c r="M202">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="G203">
         <v>0.2</v>
       </c>
-      <c r="K203">
-        <f>MAX(B203:J203)</f>
+      <c r="M203">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="G204">
         <v>0.2</v>
       </c>
-      <c r="K204">
-        <f>MAX(B204:J204)</f>
+      <c r="M204">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>256</v>
       </c>
       <c r="G205">
         <v>0.2</v>
       </c>
-      <c r="K205">
-        <f>MAX(B205:J205)</f>
+      <c r="M205">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="G206">
         <v>0.2</v>
       </c>
-      <c r="K206">
-        <f>MAX(B206:J206)</f>
+      <c r="M206">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>300</v>
-      </c>
-      <c r="G207">
-        <v>0.2</v>
-      </c>
-      <c r="K207">
-        <f>MAX(B207:J207)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="B207">
+        <v>0.1</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>116</v>
-      </c>
-      <c r="B208">
+        <v>139</v>
+      </c>
+      <c r="C208">
         <v>0.1</v>
       </c>
-      <c r="K208">
-        <f>MAX(B208:J208)</f>
+      <c r="M208">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C209">
         <v>0.1</v>
       </c>
-      <c r="K209">
-        <f>MAX(B209:J209)</f>
+      <c r="M209">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>147</v>
       </c>
       <c r="C210">
         <v>0.1</v>
       </c>
-      <c r="K210">
-        <f>MAX(B210:J210)</f>
+      <c r="M210">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C211">
         <v>0.1</v>
       </c>
-      <c r="K211">
-        <f>MAX(B211:J211)</f>
+      <c r="M211">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>150</v>
-      </c>
-      <c r="C212">
+        <v>274</v>
+      </c>
+      <c r="G212">
         <v>0.1</v>
       </c>
-      <c r="K212">
-        <f>MAX(B212:J212)</f>
+      <c r="M212">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>275</v>
       </c>
       <c r="G213">
         <v>0.1</v>
       </c>
-      <c r="K213">
-        <f>MAX(B213:J213)</f>
+      <c r="M213">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G214">
         <v>0.1</v>
       </c>
-      <c r="K214">
-        <f>MAX(B214:J214)</f>
+      <c r="M214">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G215">
         <v>0.1</v>
       </c>
-      <c r="K215">
-        <f>MAX(B215:J215)</f>
+      <c r="M215">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>304</v>
-      </c>
-      <c r="G216">
+        <v>172</v>
+      </c>
+      <c r="D216">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>356</v>
+      </c>
+      <c r="H217">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>357</v>
+      </c>
+      <c r="H218">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>358</v>
+      </c>
+      <c r="H219">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>359</v>
+      </c>
+      <c r="E220">
+        <v>12</v>
+      </c>
+      <c r="H220">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>360</v>
+      </c>
+      <c r="E221">
+        <v>56</v>
+      </c>
+      <c r="H221">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>361</v>
+      </c>
+      <c r="H222">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>362</v>
+      </c>
+      <c r="H223">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>363</v>
+      </c>
+      <c r="H224">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>364</v>
+      </c>
+      <c r="H225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>365</v>
+      </c>
+      <c r="H226">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>366</v>
+      </c>
+      <c r="H227">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>367</v>
+      </c>
+      <c r="H228">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>368</v>
+      </c>
+      <c r="H229">
         <v>0.1</v>
       </c>
-      <c r="K216">
-        <f>MAX(B216:J216)</f>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>369</v>
+      </c>
+      <c r="H230">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>370</v>
+      </c>
+      <c r="H231">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>371</v>
+      </c>
+      <c r="H232">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>372</v>
+      </c>
+      <c r="H233">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>373</v>
+      </c>
+      <c r="H234">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>374</v>
+      </c>
+      <c r="H235">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>375</v>
+      </c>
+      <c r="H236">
         <v>0.1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>173</v>
-      </c>
-      <c r="D217">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K217">
-        <f>MAX(B217:J217)</f>
-        <v>7.0000000000000007E-2</v>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>376</v>
+      </c>
+      <c r="H237">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>377</v>
+      </c>
+      <c r="H238">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>378</v>
+      </c>
+      <c r="H239">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>379</v>
+      </c>
+      <c r="H240">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>380</v>
+      </c>
+      <c r="H241">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>381</v>
+      </c>
+      <c r="H242">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>382</v>
+      </c>
+      <c r="J243">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>383</v>
+      </c>
+      <c r="J244">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>384</v>
+      </c>
+      <c r="J245">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>385</v>
+      </c>
+      <c r="J246">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>386</v>
+      </c>
+      <c r="J247">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>387</v>
+      </c>
+      <c r="J248">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>388</v>
+      </c>
+      <c r="J249">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>389</v>
+      </c>
+      <c r="J250">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>390</v>
+      </c>
+      <c r="J251">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>391</v>
+      </c>
+      <c r="J252">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>392</v>
+      </c>
+      <c r="E253">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>393</v>
+      </c>
+      <c r="E254">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>394</v>
+      </c>
+      <c r="E255">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>395</v>
+      </c>
+      <c r="E256">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>396</v>
+      </c>
+      <c r="E257">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>397</v>
+      </c>
+      <c r="E258">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>398</v>
+      </c>
+      <c r="E259">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>399</v>
+      </c>
+      <c r="E260">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>400</v>
+      </c>
+      <c r="E261">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>401</v>
+      </c>
+      <c r="E262">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>402</v>
+      </c>
+      <c r="E263">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>403</v>
+      </c>
+      <c r="E264">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>404</v>
+      </c>
+      <c r="E265">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>405</v>
+      </c>
+      <c r="E266">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>406</v>
+      </c>
+      <c r="E267">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>407</v>
+      </c>
+      <c r="E268">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>408</v>
+      </c>
+      <c r="E269">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>409</v>
+      </c>
+      <c r="E270">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>410</v>
+      </c>
+      <c r="E271">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>411</v>
+      </c>
+      <c r="E272">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>412</v>
+      </c>
+      <c r="E273">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>413</v>
+      </c>
+      <c r="E274">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>414</v>
+      </c>
+      <c r="E275">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>415</v>
+      </c>
+      <c r="E276">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>416</v>
+      </c>
+      <c r="E277">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>417</v>
+      </c>
+      <c r="E278">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>418</v>
+      </c>
+      <c r="E279">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>419</v>
+      </c>
+      <c r="E280">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>420</v>
+      </c>
+      <c r="E281">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>421</v>
+      </c>
+      <c r="E282">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>422</v>
+      </c>
+      <c r="E283">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>423</v>
+      </c>
+      <c r="E284">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>424</v>
+      </c>
+      <c r="E285">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>425</v>
+      </c>
+      <c r="E286">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>426</v>
+      </c>
+      <c r="E287">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>427</v>
+      </c>
+      <c r="E288">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>428</v>
+      </c>
+      <c r="E289">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>429</v>
+      </c>
+      <c r="E290">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>430</v>
+      </c>
+      <c r="E291">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>431</v>
+      </c>
+      <c r="E292">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>432</v>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>433</v>
+      </c>
+      <c r="E294">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>434</v>
+      </c>
+      <c r="E295">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>435</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>436</v>
+      </c>
+      <c r="E297">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>437</v>
+      </c>
+      <c r="E298">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>438</v>
+      </c>
+      <c r="E299">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>439</v>
+      </c>
+      <c r="E300">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>440</v>
+      </c>
+      <c r="E301">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>441</v>
+      </c>
+      <c r="E302">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>442</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>443</v>
+      </c>
+      <c r="E304">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>444</v>
+      </c>
+      <c r="E305">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>445</v>
+      </c>
+      <c r="E306">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>446</v>
+      </c>
+      <c r="E307">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>447</v>
+      </c>
+      <c r="E308">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>448</v>
+      </c>
+      <c r="E309">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>449</v>
+      </c>
+      <c r="E310">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{A503CB80-1BF3-4089-8F33-BD2B17721E86}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L217">
-      <sortCondition descending="1" ref="K1"/>
+  <autoFilter ref="A1:P1" xr:uid="{FFCA6D09-9D1F-4772-9042-5674B5EADBEA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P66">
+      <sortCondition descending="1" ref="M1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{F24445EB-D95A-4ADA-8E39-C240B610255B}"/>
+    <hyperlink ref="N3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{575221FA-28F8-4AB5-8E62-F76E53A179C1}"/>
+    <hyperlink ref="N61" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{896E6034-DA5E-4840-8F03-8CE5AD307C95}"/>
+    <hyperlink ref="N14" r:id="rId4" xr:uid="{7702B3EB-0C80-4FC8-8FFE-688727A93303}"/>
+    <hyperlink ref="N15" r:id="rId5" xr:uid="{2C955142-F43C-4B77-AAAE-F03F86A1E62A}"/>
+    <hyperlink ref="N20" r:id="rId6" xr:uid="{8C83C43A-2340-4FE8-BAB7-92996C9F1AF3}"/>
+    <hyperlink ref="N63" r:id="rId7" xr:uid="{3F3ABC18-788E-4091-A62F-7E615F8B15FE}"/>
+    <hyperlink ref="N79" r:id="rId8" xr:uid="{8EB78553-7BB2-4642-8D2D-98CCAF4776F8}"/>
+    <hyperlink ref="N84" r:id="rId9" xr:uid="{BCAA6C8F-2334-42B4-9DC7-4F04FF303F85}"/>
+    <hyperlink ref="N59" r:id="rId10" display="mailto:whoyourenemy@gmail.com" xr:uid="{246CDB6E-A81A-4826-8A57-DA813FFA38A8}"/>
+    <hyperlink ref="N97" r:id="rId11" xr:uid="{06FCBD54-2AC3-4FE8-A27B-1897BF39C1CD}"/>
+    <hyperlink ref="N110" r:id="rId12" xr:uid="{0BD82BDF-9967-4BED-8402-DB809D0F2516}"/>
+    <hyperlink ref="P16" r:id="rId13" xr:uid="{2393CB99-FDFD-4CC6-99F2-C539732221A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED22BE-E184-4A86-AC8F-E4FED5122ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F227DBF-B957-4AF4-B86B-6752F953AEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="501">
   <si>
     <t>Week</t>
   </si>
@@ -1532,6 +1532,24 @@
   </si>
   <si>
     <t>manyatruenerd@gmail.com</t>
+  </si>
+  <si>
+    <t>predaindex@gmail.com</t>
+  </si>
+  <si>
+    <t>elescocesgamer@gmail.com</t>
+  </si>
+  <si>
+    <t>DieselDesignsGaming@gmail.com</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>spanglzj@gmail.com</t>
+  </si>
+  <si>
+    <t>cheru2016yt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2911,10 +2929,10 @@
   <dimension ref="A1:P310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="N116" sqref="N59:N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3859,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="N60" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -4315,7 +4333,7 @@
         <v>9</v>
       </c>
       <c r="N94" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -4372,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="N98" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -4546,7 +4564,7 @@
         <v>4.5</v>
       </c>
       <c r="N111" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -4612,7 +4630,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N116" t="s">
-        <v>463</v>
+        <v>499</v>
+      </c>
+      <c r="O116" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED22BE-E184-4A86-AC8F-E4FED5122ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="501">
   <si>
     <t>Week</t>
   </si>
@@ -1532,12 +1531,30 @@
   </si>
   <si>
     <t>manyatruenerd@gmail.com</t>
+  </si>
+  <si>
+    <t>hiichannelhii@gmail.com</t>
+  </si>
+  <si>
+    <t>rimpac.commerce@gmail.com</t>
+  </si>
+  <si>
+    <t>romaprama@gmail.com</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>darkestudio@gmail.com</t>
+  </si>
+  <si>
+    <t>menostrece@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1641,7 +1658,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1952,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A6D9AC-A6C6-4EF8-B4C7-72C242997141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1962,20 +1979,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1"/>
-    <col min="11" max="16" width="20.5546875" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" style="1"/>
-    <col min="21" max="16384" width="20.5546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1"/>
+    <col min="11" max="16" width="20.5703125" style="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="1"/>
+    <col min="21" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2093,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2112,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -2117,7 +2134,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -2136,7 +2153,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2172,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2194,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2275,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -2283,7 +2300,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -2308,7 +2325,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -2336,7 +2353,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -2419,36 +2436,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFD9C18-B2AC-4353-A09B-279591FBF584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2459,24 +2476,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E9A959-A40B-4B2B-9FD5-6667026A6AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2487,16 +2504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC7D78-6435-4508-86DE-7E4F4A4DAEE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2507,14 +2524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E7AC38-BC55-491D-B8B3-DF5807EF3461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2525,32 +2542,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BAEABE-2F36-4794-A4D1-9BECB8B2E718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481B09FC-BE3F-4459-B14B-623196C314C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -2564,7 +2581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2575,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -2586,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2597,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2619,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -2630,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -2666,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2680,7 +2697,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2702,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2713,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2747,8 +2764,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{7AEEA911-FDB0-4D6B-A117-4EF3CA88C6B0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -2757,146 +2774,146 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB5F10A-C070-439E-BC0C-4D306776EE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>355</v>
       </c>
@@ -2907,33 +2924,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25A688-B96F-4964-900E-15F95AB35B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -3004,7 +3021,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -3025,7 +3042,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -3046,7 +3063,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -3070,7 +3087,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -3085,10 +3102,10 @@
         <v>774</v>
       </c>
       <c r="N6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -3103,10 +3120,10 @@
         <v>762</v>
       </c>
       <c r="N7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -3124,7 +3141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -3142,7 +3159,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -3154,10 +3171,10 @@
         <v>295</v>
       </c>
       <c r="N10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>323</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>286</v>
       </c>
       <c r="N12" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="O12" t="s">
         <v>491</v>
@@ -3196,7 +3213,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -3214,10 +3231,10 @@
         <v>407</v>
       </c>
       <c r="N13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -3253,7 +3270,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -3274,7 +3291,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>191</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
@@ -3300,11 +3317,11 @@
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="N18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -3331,7 +3348,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>297</v>
       </c>
@@ -3376,7 +3393,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -3388,7 +3405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>294</v>
       </c>
@@ -3400,7 +3417,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3412,7 +3429,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -3424,7 +3441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>216</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -3457,7 +3474,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>263</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>269</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>180</v>
       </c>
@@ -3505,7 +3522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>245</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -3529,7 +3546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -3541,7 +3558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3556,7 +3573,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>279</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>236</v>
       </c>
@@ -3592,7 +3609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -3604,7 +3621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -3616,7 +3633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -3643,7 +3660,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -3655,7 +3672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -3679,7 +3696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>223</v>
       </c>
@@ -3691,7 +3708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>304</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>320</v>
       </c>
@@ -3715,7 +3732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>281</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -3745,7 +3762,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>288</v>
       </c>
@@ -3757,7 +3774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>183</v>
       </c>
@@ -3769,7 +3786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -3784,7 +3801,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -3796,7 +3813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>295</v>
       </c>
@@ -3808,7 +3825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -3820,7 +3837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>287</v>
       </c>
@@ -3832,7 +3849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -3862,7 +3879,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -3898,7 +3915,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -3916,7 +3933,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -3940,7 +3957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -3976,7 +3993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -3988,7 +4005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -4000,7 +4017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -4012,7 +4029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -4036,7 +4053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -4048,7 +4065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>225</v>
       </c>
@@ -4060,7 +4077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>232</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -4084,7 +4101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>217</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>213</v>
       </c>
@@ -4114,7 +4131,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -4126,7 +4143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>234</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -4150,7 +4167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -4168,7 +4185,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -4189,7 +4206,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>289</v>
       </c>
@@ -4213,7 +4230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>226</v>
       </c>
@@ -4225,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -4237,7 +4254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -4249,7 +4266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -4267,7 +4284,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -4279,7 +4296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>240</v>
       </c>
@@ -4291,7 +4308,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>204</v>
       </c>
@@ -4303,7 +4320,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -4318,7 +4335,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>309</v>
       </c>
@@ -4330,7 +4347,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>239</v>
       </c>
@@ -4342,7 +4359,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>131</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>265</v>
       </c>
@@ -4375,7 +4392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>300</v>
       </c>
@@ -4387,7 +4404,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -4399,7 +4416,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>325</v>
       </c>
@@ -4423,7 +4440,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -4435,7 +4452,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -4447,7 +4464,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -4465,7 +4482,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>224</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -4504,7 +4521,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -4519,7 +4536,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -4534,7 +4551,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -4549,7 +4566,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -4561,7 +4578,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -4573,7 +4590,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>276</v>
       </c>
@@ -4585,7 +4602,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -4600,7 +4617,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4615,7 +4632,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>272</v>
       </c>
@@ -4627,7 +4644,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>321</v>
       </c>
@@ -4639,7 +4656,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>327</v>
       </c>
@@ -4651,7 +4668,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>169</v>
       </c>
@@ -4663,7 +4680,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -4675,7 +4692,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -4687,7 +4704,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>260</v>
       </c>
@@ -4699,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>283</v>
       </c>
@@ -4711,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -4723,7 +4740,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>195</v>
       </c>
@@ -4735,7 +4752,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -4747,7 +4764,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4759,7 +4776,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -4771,7 +4788,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -4783,7 +4800,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>312</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -4807,7 +4824,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -4819,7 +4836,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>189</v>
       </c>
@@ -4831,7 +4848,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>206</v>
       </c>
@@ -4843,7 +4860,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>290</v>
       </c>
@@ -4855,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -4870,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -4882,7 +4899,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -4897,7 +4914,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>197</v>
       </c>
@@ -4909,7 +4926,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -4933,7 +4950,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>220</v>
       </c>
@@ -4945,7 +4962,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -4957,7 +4974,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -4969,7 +4986,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>322</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>138</v>
       </c>
@@ -4999,7 +5016,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>141</v>
       </c>
@@ -5011,7 +5028,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -5023,7 +5040,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>246</v>
       </c>
@@ -5035,7 +5052,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>324</v>
       </c>
@@ -5047,7 +5064,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>326</v>
       </c>
@@ -5059,7 +5076,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>328</v>
       </c>
@@ -5071,7 +5088,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -5083,7 +5100,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -5095,7 +5112,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -5107,7 +5124,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>307</v>
       </c>
@@ -5119,7 +5136,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>122</v>
       </c>
@@ -5131,7 +5148,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -5143,7 +5160,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -5155,7 +5172,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>251</v>
       </c>
@@ -5167,7 +5184,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>280</v>
       </c>
@@ -5179,7 +5196,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -5191,7 +5208,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>315</v>
       </c>
@@ -5203,7 +5220,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -5221,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>306</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>316</v>
       </c>
@@ -5245,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>137</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>158</v>
       </c>
@@ -5272,7 +5289,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>96</v>
       </c>
@@ -5296,7 +5313,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>270</v>
       </c>
@@ -5308,7 +5325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>305</v>
       </c>
@@ -5320,7 +5337,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>319</v>
       </c>
@@ -5332,7 +5349,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>148</v>
       </c>
@@ -5344,7 +5361,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>151</v>
       </c>
@@ -5356,7 +5373,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>267</v>
       </c>
@@ -5368,7 +5385,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>293</v>
       </c>
@@ -5380,7 +5397,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>308</v>
       </c>
@@ -5392,7 +5409,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>317</v>
       </c>
@@ -5404,7 +5421,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>156</v>
       </c>
@@ -5416,7 +5433,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>314</v>
       </c>
@@ -5428,7 +5445,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -5440,7 +5457,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>150</v>
       </c>
@@ -5452,7 +5469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -5464,7 +5481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>284</v>
       </c>
@@ -5476,7 +5493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>109</v>
       </c>
@@ -5488,7 +5505,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>155</v>
       </c>
@@ -5500,7 +5517,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>313</v>
       </c>
@@ -5512,7 +5529,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>212</v>
       </c>
@@ -5524,7 +5541,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -5536,7 +5553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>242</v>
       </c>
@@ -5560,7 +5577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>244</v>
       </c>
@@ -5572,7 +5589,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>259</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -5596,7 +5613,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>298</v>
       </c>
@@ -5608,7 +5625,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>310</v>
       </c>
@@ -5620,7 +5637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>311</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>171</v>
       </c>
@@ -5656,7 +5673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -5668,7 +5685,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -5680,7 +5697,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>255</v>
       </c>
@@ -5692,7 +5709,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>256</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>299</v>
       </c>
@@ -5716,7 +5733,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>116</v>
       </c>
@@ -5728,7 +5745,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>139</v>
       </c>
@@ -5740,7 +5757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>146</v>
       </c>
@@ -5752,7 +5769,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>147</v>
       </c>
@@ -5764,7 +5781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>149</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>274</v>
       </c>
@@ -5788,7 +5805,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>275</v>
       </c>
@@ -5800,7 +5817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>285</v>
       </c>
@@ -5812,7 +5829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>303</v>
       </c>
@@ -5824,7 +5841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>172</v>
       </c>
@@ -5836,7 +5853,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>356</v>
       </c>
@@ -5844,7 +5861,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>357</v>
       </c>
@@ -5852,7 +5869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>358</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>359</v>
       </c>
@@ -5871,7 +5888,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>360</v>
       </c>
@@ -5882,7 +5899,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>361</v>
       </c>
@@ -5890,7 +5907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>362</v>
       </c>
@@ -5898,7 +5915,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>363</v>
       </c>
@@ -5906,7 +5923,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>364</v>
       </c>
@@ -5914,7 +5931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>365</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>366</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>367</v>
       </c>
@@ -5938,7 +5955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>368</v>
       </c>
@@ -5946,7 +5963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>369</v>
       </c>
@@ -5954,7 +5971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>370</v>
       </c>
@@ -5962,7 +5979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>371</v>
       </c>
@@ -5970,7 +5987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>372</v>
       </c>
@@ -5978,7 +5995,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>373</v>
       </c>
@@ -5986,7 +6003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>374</v>
       </c>
@@ -5994,7 +6011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>375</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>376</v>
       </c>
@@ -6010,7 +6027,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>377</v>
       </c>
@@ -6018,7 +6035,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>378</v>
       </c>
@@ -6026,7 +6043,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>379</v>
       </c>
@@ -6034,7 +6051,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>380</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>381</v>
       </c>
@@ -6050,7 +6067,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>382</v>
       </c>
@@ -6058,7 +6075,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>383</v>
       </c>
@@ -6066,7 +6083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>384</v>
       </c>
@@ -6074,7 +6091,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>385</v>
       </c>
@@ -6082,7 +6099,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>386</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>387</v>
       </c>
@@ -6098,7 +6115,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>388</v>
       </c>
@@ -6106,7 +6123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>389</v>
       </c>
@@ -6114,7 +6131,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>390</v>
       </c>
@@ -6122,7 +6139,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>391</v>
       </c>
@@ -6130,7 +6147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>392</v>
       </c>
@@ -6138,7 +6155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>393</v>
       </c>
@@ -6146,7 +6163,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>394</v>
       </c>
@@ -6154,7 +6171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>395</v>
       </c>
@@ -6162,7 +6179,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>396</v>
       </c>
@@ -6170,7 +6187,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>397</v>
       </c>
@@ -6178,7 +6195,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -6186,7 +6203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>399</v>
       </c>
@@ -6194,7 +6211,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>400</v>
       </c>
@@ -6202,7 +6219,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>401</v>
       </c>
@@ -6210,7 +6227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>402</v>
       </c>
@@ -6218,7 +6235,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>403</v>
       </c>
@@ -6226,7 +6243,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>404</v>
       </c>
@@ -6234,7 +6251,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>405</v>
       </c>
@@ -6242,7 +6259,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>406</v>
       </c>
@@ -6250,7 +6267,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>407</v>
       </c>
@@ -6258,7 +6275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>408</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>409</v>
       </c>
@@ -6274,7 +6291,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>410</v>
       </c>
@@ -6282,7 +6299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>411</v>
       </c>
@@ -6290,7 +6307,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>412</v>
       </c>
@@ -6298,7 +6315,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>413</v>
       </c>
@@ -6306,7 +6323,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>414</v>
       </c>
@@ -6314,7 +6331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>415</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>416</v>
       </c>
@@ -6330,7 +6347,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>417</v>
       </c>
@@ -6338,7 +6355,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>418</v>
       </c>
@@ -6346,7 +6363,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>419</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>420</v>
       </c>
@@ -6362,7 +6379,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>421</v>
       </c>
@@ -6370,7 +6387,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>422</v>
       </c>
@@ -6378,7 +6395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>423</v>
       </c>
@@ -6386,7 +6403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>424</v>
       </c>
@@ -6394,7 +6411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>425</v>
       </c>
@@ -6402,7 +6419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>426</v>
       </c>
@@ -6410,7 +6427,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>427</v>
       </c>
@@ -6418,7 +6435,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>428</v>
       </c>
@@ -6426,7 +6443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>429</v>
       </c>
@@ -6434,7 +6451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>430</v>
       </c>
@@ -6442,7 +6459,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>431</v>
       </c>
@@ -6450,7 +6467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>432</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>433</v>
       </c>
@@ -6466,7 +6483,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>434</v>
       </c>
@@ -6474,7 +6491,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>435</v>
       </c>
@@ -6482,7 +6499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>436</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>437</v>
       </c>
@@ -6498,7 +6515,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>438</v>
       </c>
@@ -6506,7 +6523,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>439</v>
       </c>
@@ -6514,7 +6531,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>440</v>
       </c>
@@ -6522,7 +6539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>441</v>
       </c>
@@ -6530,7 +6547,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>442</v>
       </c>
@@ -6538,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>443</v>
       </c>
@@ -6546,7 +6563,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>444</v>
       </c>
@@ -6554,7 +6571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>445</v>
       </c>
@@ -6562,7 +6579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>446</v>
       </c>
@@ -6570,7 +6587,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>447</v>
       </c>
@@ -6578,7 +6595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>448</v>
       </c>
@@ -6586,7 +6603,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>449</v>
       </c>
@@ -6595,42 +6612,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{FFCA6D09-9D1F-4772-9042-5674B5EADBEA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P66">
+  <autoFilter ref="A1:P1">
+    <sortState ref="A2:P66">
       <sortCondition descending="1" ref="M1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{F24445EB-D95A-4ADA-8E39-C240B610255B}"/>
-    <hyperlink ref="N3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{575221FA-28F8-4AB5-8E62-F76E53A179C1}"/>
-    <hyperlink ref="N61" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{896E6034-DA5E-4840-8F03-8CE5AD307C95}"/>
-    <hyperlink ref="N14" r:id="rId4" xr:uid="{7702B3EB-0C80-4FC8-8FFE-688727A93303}"/>
-    <hyperlink ref="N15" r:id="rId5" xr:uid="{2C955142-F43C-4B77-AAAE-F03F86A1E62A}"/>
-    <hyperlink ref="N20" r:id="rId6" xr:uid="{8C83C43A-2340-4FE8-BAB7-92996C9F1AF3}"/>
-    <hyperlink ref="N63" r:id="rId7" xr:uid="{3F3ABC18-788E-4091-A62F-7E615F8B15FE}"/>
-    <hyperlink ref="N79" r:id="rId8" xr:uid="{8EB78553-7BB2-4642-8D2D-98CCAF4776F8}"/>
-    <hyperlink ref="N84" r:id="rId9" xr:uid="{BCAA6C8F-2334-42B4-9DC7-4F04FF303F85}"/>
-    <hyperlink ref="N59" r:id="rId10" display="mailto:whoyourenemy@gmail.com" xr:uid="{246CDB6E-A81A-4826-8A57-DA813FFA38A8}"/>
-    <hyperlink ref="N97" r:id="rId11" xr:uid="{06FCBD54-2AC3-4FE8-A27B-1897BF39C1CD}"/>
-    <hyperlink ref="N110" r:id="rId12" xr:uid="{0BD82BDF-9967-4BED-8402-DB809D0F2516}"/>
-    <hyperlink ref="P16" r:id="rId13" xr:uid="{2393CB99-FDFD-4CC6-99F2-C539732221A1}"/>
+    <hyperlink ref="N2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
+    <hyperlink ref="N3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
+    <hyperlink ref="N61" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
+    <hyperlink ref="N14" r:id="rId4"/>
+    <hyperlink ref="N15" r:id="rId5"/>
+    <hyperlink ref="N20" r:id="rId6"/>
+    <hyperlink ref="N63" r:id="rId7"/>
+    <hyperlink ref="N79" r:id="rId8"/>
+    <hyperlink ref="N84" r:id="rId9"/>
+    <hyperlink ref="N59" r:id="rId10" display="mailto:whoyourenemy@gmail.com"/>
+    <hyperlink ref="N97" r:id="rId11"/>
+    <hyperlink ref="N110" r:id="rId12"/>
+    <hyperlink ref="P16" r:id="rId13"/>
+    <hyperlink ref="N18" r:id="rId14" display="mailto:menostrece@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFBC04-9E84-4EFC-9E69-733CCCECF823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -6641,26 +6659,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A4C30-0199-473B-B8D7-19A580D2CA9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E52DA5-EB25-4201-9E06-D1D1DC99F835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E80E06-8010-405C-BA85-FB7AA3FFCEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="731">
   <si>
     <t>Week</t>
   </si>
@@ -2016,12 +2016,258 @@
   <si>
     <t>modioperandus@gmail.com</t>
   </si>
+  <si>
+    <t>dzaran</t>
+  </si>
+  <si>
+    <t>Aavak</t>
+  </si>
+  <si>
+    <t>aavak@snowspider.com</t>
+  </si>
+  <si>
+    <t>Muzzloff</t>
+  </si>
+  <si>
+    <t>avmuzlov@gmail.com</t>
+  </si>
+  <si>
+    <t>フルツチ - HuLtuTi</t>
+  </si>
+  <si>
+    <t>hultutitv@gmail.com</t>
+  </si>
+  <si>
+    <t>OfficialNerdCubed</t>
+  </si>
+  <si>
+    <t>business@nerdcubed.co.uk</t>
+  </si>
+  <si>
+    <t>KatherineOfSky</t>
+  </si>
+  <si>
+    <t>katherineofsky@gmail.com</t>
+  </si>
+  <si>
+    <t>DSimphony</t>
+  </si>
+  <si>
+    <t>contacto@dsimphony.com</t>
+  </si>
+  <si>
+    <t>Fynnpire</t>
+  </si>
+  <si>
+    <t>fynnpire@gmail.com</t>
+  </si>
+  <si>
+    <t>JoePad17</t>
+  </si>
+  <si>
+    <t>jpad17officialchannel@gmail.com</t>
+  </si>
+  <si>
+    <t>Krekerman</t>
+  </si>
+  <si>
+    <t>Ctop</t>
+  </si>
+  <si>
+    <t>Ctop@screenwavemedia.com</t>
+  </si>
+  <si>
+    <t>DraaxLP</t>
+  </si>
+  <si>
+    <t>draax@draaxlp.com</t>
+  </si>
+  <si>
+    <t>mischa gaming</t>
+  </si>
+  <si>
+    <t>Mischa</t>
+  </si>
+  <si>
+    <t>mischacrossing@gmail.com</t>
+  </si>
+  <si>
+    <t>Erakol</t>
+  </si>
+  <si>
+    <t>erakol.ger@gmail.com</t>
+  </si>
+  <si>
+    <t>NestafeLP</t>
+  </si>
+  <si>
+    <t>gaminggoeren@gmail.com</t>
+  </si>
+  <si>
+    <t>TinyPirate</t>
+  </si>
+  <si>
+    <t>peter@tinypirate.com</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Sir Taptap</t>
+  </si>
+  <si>
+    <t>Contact@sirtaptap.com</t>
+  </si>
+  <si>
+    <t>Delphron</t>
+  </si>
+  <si>
+    <t>nigelfitz20@gmail.com</t>
+  </si>
+  <si>
+    <t>Reyson</t>
+  </si>
+  <si>
+    <t>reysonfr@gmail.com</t>
+  </si>
+  <si>
+    <t>Pinkfate</t>
+  </si>
+  <si>
+    <t>pinkfategamesyt@gmail.com</t>
+  </si>
+  <si>
+    <t>I Febag</t>
+  </si>
+  <si>
+    <t>FebagTeam@gmail.com</t>
+  </si>
+  <si>
+    <t>MishiaruFR</t>
+  </si>
+  <si>
+    <t>Maxdaling@gmail.com</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>GameFace</t>
+  </si>
+  <si>
+    <t>Kateriix</t>
+  </si>
+  <si>
+    <t>te weinig views nieuwe videos</t>
+  </si>
+  <si>
+    <t>BaronVonGames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baronvonbusiness@gmail.com </t>
+  </si>
+  <si>
+    <t>info@contranetwork.it</t>
+  </si>
+  <si>
+    <t>ContraNetwork</t>
+  </si>
+  <si>
+    <t>Kindly Keyin</t>
+  </si>
+  <si>
+    <t>kindlykeyin@gmail.com</t>
+  </si>
+  <si>
+    <t>Keyin</t>
+  </si>
+  <si>
+    <t>CyDi</t>
+  </si>
+  <si>
+    <t>cydipl@gmail.com</t>
+  </si>
+  <si>
+    <t>Perichip</t>
+  </si>
+  <si>
+    <t>Aeroshiva</t>
+  </si>
+  <si>
+    <t>aeroshivagames@gmail.com</t>
+  </si>
+  <si>
+    <t>perichip@gmail.com</t>
+  </si>
+  <si>
+    <t>Cosmic Nava</t>
+  </si>
+  <si>
+    <t>beetje onduidelijk kanaal</t>
+  </si>
+  <si>
+    <t>Febatista</t>
+  </si>
+  <si>
+    <t>contatofebatista@gmail.com</t>
+  </si>
+  <si>
+    <t>Scyushi</t>
+  </si>
+  <si>
+    <t>Scy</t>
+  </si>
+  <si>
+    <t>scytheplays@gmail.com</t>
+  </si>
+  <si>
+    <t>Jerryn</t>
+  </si>
+  <si>
+    <t>jaroslav6@seznam.cz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tony.design04@gmail.com </t>
+  </si>
+  <si>
+    <t>Yomolotakowapo</t>
+  </si>
+  <si>
+    <t>business@yomolotakowapo.com</t>
+  </si>
+  <si>
+    <t>Caith_Sith</t>
+  </si>
+  <si>
+    <t>CaithYT@gmail.com</t>
+  </si>
+  <si>
+    <t>iTownGamePlay *Terror&amp;Diversión*</t>
+  </si>
+  <si>
+    <t>gameplaytown@hotmail.es</t>
+  </si>
+  <si>
+    <t>sSKENGSs</t>
+  </si>
+  <si>
+    <t>CYKER GAMER</t>
+  </si>
+  <si>
+    <t>КотоГеймер</t>
+  </si>
+  <si>
+    <t>MaKKowey Tapkin</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2088,6 +2334,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF606060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2116,7 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2151,6 +2403,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3416,13 +3670,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25A688-B96F-4964-900E-15F95AB35B75}">
-  <dimension ref="A1:S313"/>
+  <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G336" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B244" sqref="B244"/>
+      <selection pane="bottomRight" activeCell="Q353" sqref="Q353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,6 +3815,9 @@
       <c r="K4">
         <v>1300</v>
       </c>
+      <c r="M4">
+        <v>2000</v>
+      </c>
       <c r="O4" s="13">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -3573,7 +3830,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -4126,6 +4383,9 @@
       <c r="G29">
         <v>222</v>
       </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
       <c r="O29" s="13">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -4135,7 +4395,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -4738,6 +4998,9 @@
       <c r="K56">
         <v>1700</v>
       </c>
+      <c r="M56">
+        <v>477</v>
+      </c>
       <c r="O56" s="13">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -4750,7 +5013,7 @@
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -4876,6 +5139,9 @@
       <c r="H62">
         <v>66</v>
       </c>
+      <c r="M62">
+        <v>5.2</v>
+      </c>
       <c r="O62" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4885,7 +5151,7 @@
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -4907,6 +5173,9 @@
       <c r="J63">
         <v>25</v>
       </c>
+      <c r="M63">
+        <v>84</v>
+      </c>
       <c r="O63" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4916,7 +5185,7 @@
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -5243,6 +5512,9 @@
       <c r="G78">
         <v>42</v>
       </c>
+      <c r="M78">
+        <v>43</v>
+      </c>
       <c r="O78" s="13">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5252,7 +5524,7 @@
       </c>
       <c r="S78">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -6233,6 +6505,9 @@
       <c r="B123">
         <v>9</v>
       </c>
+      <c r="M123">
+        <v>6.6</v>
+      </c>
       <c r="O123" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6242,7 +6517,7 @@
       </c>
       <c r="S123">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -6523,6 +6798,9 @@
       <c r="E137">
         <v>0.7</v>
       </c>
+      <c r="M137">
+        <v>2.1</v>
+      </c>
       <c r="O137" s="13">
         <f t="shared" si="4"/>
         <v>5.5</v>
@@ -6532,7 +6810,7 @@
       </c>
       <c r="S137">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
@@ -6821,6 +7099,9 @@
       <c r="K153">
         <v>3.3</v>
       </c>
+      <c r="M153">
+        <v>2.1</v>
+      </c>
       <c r="O153" s="13">
         <f t="shared" si="4"/>
         <v>3.9</v>
@@ -6830,7 +7111,7 @@
       </c>
       <c r="S153">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
@@ -7588,13 +7869,19 @@
       <c r="G197">
         <v>1.3</v>
       </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
       <c r="O197" s="13">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
+      <c r="P197" s="9" t="s">
+        <v>719</v>
+      </c>
       <c r="S197">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.3">
@@ -8585,7 +8872,7 @@
         <v>0.3</v>
       </c>
       <c r="O257" s="13">
-        <f t="shared" ref="O257:O307" si="8">MAX(B257:J257)</f>
+        <f t="shared" ref="O257:O320" si="8">MAX(B257:J257)</f>
         <v>0.3</v>
       </c>
       <c r="S257">
@@ -8621,7 +8908,7 @@
         <v>0.3</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:S307" si="9">COUNTA(B259:N259)</f>
+        <f t="shared" ref="S259:S322" si="9">COUNTA(B259:N259)</f>
         <v>1</v>
       </c>
     </row>
@@ -9400,8 +9687,16 @@
       <c r="M308">
         <v>2200</v>
       </c>
+      <c r="O308" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P308" s="9" t="s">
         <v>632</v>
+      </c>
+      <c r="S308">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.3">
@@ -9411,8 +9706,16 @@
       <c r="M309">
         <v>5.4</v>
       </c>
+      <c r="O309" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P309" s="9" t="s">
         <v>635</v>
+      </c>
+      <c r="S309">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.3">
@@ -9425,8 +9728,16 @@
       <c r="M310">
         <v>24</v>
       </c>
+      <c r="O310" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P310" s="8" t="s">
         <v>637</v>
+      </c>
+      <c r="S310">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.3">
@@ -9436,11 +9747,19 @@
       <c r="M311">
         <v>14</v>
       </c>
+      <c r="O311" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P311" s="15" t="s">
         <v>640</v>
       </c>
       <c r="Q311" t="s">
         <v>638</v>
+      </c>
+      <c r="S311">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.3">
@@ -9450,11 +9769,19 @@
       <c r="M312">
         <v>15</v>
       </c>
+      <c r="O312" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P312" t="s">
         <v>642</v>
       </c>
       <c r="Q312" t="s">
         <v>643</v>
+      </c>
+      <c r="S312">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.3">
@@ -9467,12 +9794,768 @@
       <c r="M313">
         <v>64</v>
       </c>
+      <c r="O313" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="P313" s="8" t="s">
         <v>646</v>
       </c>
       <c r="Q313" t="s">
         <v>645</v>
       </c>
+      <c r="S313">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>649</v>
+      </c>
+      <c r="M314">
+        <v>2.1</v>
+      </c>
+      <c r="O314" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P314" t="s">
+        <v>499</v>
+      </c>
+      <c r="R314" t="s">
+        <v>613</v>
+      </c>
+      <c r="S314">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>650</v>
+      </c>
+      <c r="M315">
+        <v>79</v>
+      </c>
+      <c r="O315" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P315" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="S315">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>652</v>
+      </c>
+      <c r="K316">
+        <v>85</v>
+      </c>
+      <c r="L316">
+        <v>52</v>
+      </c>
+      <c r="M316">
+        <v>60</v>
+      </c>
+      <c r="O316" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P316" t="s">
+        <v>653</v>
+      </c>
+      <c r="S316">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>654</v>
+      </c>
+      <c r="G317">
+        <v>7.4</v>
+      </c>
+      <c r="M317">
+        <v>14</v>
+      </c>
+      <c r="O317" s="13">
+        <f t="shared" si="8"/>
+        <v>7.4</v>
+      </c>
+      <c r="P317" t="s">
+        <v>655</v>
+      </c>
+      <c r="S317">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>656</v>
+      </c>
+      <c r="K318">
+        <v>1900</v>
+      </c>
+      <c r="M318">
+        <v>235</v>
+      </c>
+      <c r="O318" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P318" t="s">
+        <v>657</v>
+      </c>
+      <c r="S318">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>658</v>
+      </c>
+      <c r="F319">
+        <v>50</v>
+      </c>
+      <c r="L319">
+        <v>37</v>
+      </c>
+      <c r="M319">
+        <v>1.3</v>
+      </c>
+      <c r="O319" s="13">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="P319" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="S319">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>660</v>
+      </c>
+      <c r="M320">
+        <v>148</v>
+      </c>
+      <c r="O320" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P320" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="S320">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>662</v>
+      </c>
+      <c r="M321">
+        <v>3</v>
+      </c>
+      <c r="O321" s="13">
+        <f t="shared" ref="O321:O326" si="10">MAX(B321:J321)</f>
+        <v>0</v>
+      </c>
+      <c r="P321" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="S321">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>664</v>
+      </c>
+      <c r="M322">
+        <v>45</v>
+      </c>
+      <c r="O322" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P322" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="S322">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>666</v>
+      </c>
+      <c r="M323">
+        <v>5.3</v>
+      </c>
+      <c r="O323" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P323" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="R323" t="s">
+        <v>613</v>
+      </c>
+      <c r="S323">
+        <f t="shared" ref="S323:S354" si="11">COUNTA(B323:N323)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>667</v>
+      </c>
+      <c r="M324">
+        <v>7.6</v>
+      </c>
+      <c r="O324" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P324" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="S324">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>669</v>
+      </c>
+      <c r="K325">
+        <v>305</v>
+      </c>
+      <c r="M325">
+        <v>1.5</v>
+      </c>
+      <c r="O325" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P325" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="S325">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>671</v>
+      </c>
+      <c r="M326">
+        <v>1.9</v>
+      </c>
+      <c r="O326" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P326" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>672</v>
+      </c>
+      <c r="S326">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>674</v>
+      </c>
+      <c r="M327">
+        <v>1.9</v>
+      </c>
+      <c r="P327" t="s">
+        <v>675</v>
+      </c>
+      <c r="S327">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>676</v>
+      </c>
+      <c r="M328">
+        <v>3.3</v>
+      </c>
+      <c r="P328" t="s">
+        <v>677</v>
+      </c>
+      <c r="S328">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>678</v>
+      </c>
+      <c r="M329">
+        <v>2.7</v>
+      </c>
+      <c r="P329" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>680</v>
+      </c>
+      <c r="S329">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>681</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="P330" t="s">
+        <v>682</v>
+      </c>
+      <c r="S330">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>683</v>
+      </c>
+      <c r="K331">
+        <v>1.3</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="P331" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="S331">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>685</v>
+      </c>
+      <c r="M332">
+        <v>3</v>
+      </c>
+      <c r="P332" t="s">
+        <v>686</v>
+      </c>
+      <c r="S332">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>687</v>
+      </c>
+      <c r="K333">
+        <v>519</v>
+      </c>
+      <c r="M333">
+        <v>130</v>
+      </c>
+      <c r="P333" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="S333">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>689</v>
+      </c>
+      <c r="M334">
+        <v>3.7</v>
+      </c>
+      <c r="P334" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="S334">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>691</v>
+      </c>
+      <c r="M335">
+        <v>1.9</v>
+      </c>
+      <c r="P335" t="s">
+        <v>531</v>
+      </c>
+      <c r="S335">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>694</v>
+      </c>
+      <c r="M336">
+        <v>2.8</v>
+      </c>
+      <c r="P336" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>693</v>
+      </c>
+      <c r="S336">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>695</v>
+      </c>
+      <c r="M337">
+        <v>1.2</v>
+      </c>
+      <c r="P337" t="s">
+        <v>499</v>
+      </c>
+      <c r="R337" t="s">
+        <v>696</v>
+      </c>
+      <c r="S337">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>697</v>
+      </c>
+      <c r="F338">
+        <v>314</v>
+      </c>
+      <c r="M338">
+        <v>93</v>
+      </c>
+      <c r="P338" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="S338">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>700</v>
+      </c>
+      <c r="M339">
+        <v>3.1</v>
+      </c>
+      <c r="P339" t="s">
+        <v>699</v>
+      </c>
+      <c r="S339">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>701</v>
+      </c>
+      <c r="F340">
+        <v>116</v>
+      </c>
+      <c r="M340">
+        <v>15</v>
+      </c>
+      <c r="P340" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>703</v>
+      </c>
+      <c r="S340">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>704</v>
+      </c>
+      <c r="M341">
+        <v>13</v>
+      </c>
+      <c r="P341" t="s">
+        <v>705</v>
+      </c>
+      <c r="S341">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>706</v>
+      </c>
+      <c r="M342">
+        <v>23</v>
+      </c>
+      <c r="P342" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="S342">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>707</v>
+      </c>
+      <c r="M343">
+        <v>5.3</v>
+      </c>
+      <c r="P343" t="s">
+        <v>708</v>
+      </c>
+      <c r="S343">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>710</v>
+      </c>
+      <c r="M344">
+        <v>6.7</v>
+      </c>
+      <c r="R344" t="s">
+        <v>711</v>
+      </c>
+      <c r="S344">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>712</v>
+      </c>
+      <c r="K345">
+        <v>302</v>
+      </c>
+      <c r="M345">
+        <v>139</v>
+      </c>
+      <c r="P345" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="S345">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>714</v>
+      </c>
+      <c r="M346">
+        <v>4</v>
+      </c>
+      <c r="P346" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>715</v>
+      </c>
+      <c r="S346">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>717</v>
+      </c>
+      <c r="F347">
+        <v>2.6</v>
+      </c>
+      <c r="K347">
+        <v>44</v>
+      </c>
+      <c r="M347">
+        <v>6.3</v>
+      </c>
+      <c r="P347" t="s">
+        <v>718</v>
+      </c>
+      <c r="S347">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>720</v>
+      </c>
+      <c r="M348">
+        <v>3.2</v>
+      </c>
+      <c r="P348" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="S348">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>722</v>
+      </c>
+      <c r="M349">
+        <v>5</v>
+      </c>
+      <c r="P349" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="S349">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>724</v>
+      </c>
+      <c r="K350">
+        <v>574</v>
+      </c>
+      <c r="M350">
+        <v>666</v>
+      </c>
+      <c r="P350" t="s">
+        <v>725</v>
+      </c>
+      <c r="S350">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>726</v>
+      </c>
+      <c r="M351">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P351" t="s">
+        <v>730</v>
+      </c>
+      <c r="S351">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>727</v>
+      </c>
+      <c r="M352">
+        <v>26</v>
+      </c>
+      <c r="P352" t="s">
+        <v>499</v>
+      </c>
+      <c r="R352" t="s">
+        <v>613</v>
+      </c>
+      <c r="S352">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>728</v>
+      </c>
+      <c r="K353">
+        <v>0.1</v>
+      </c>
+      <c r="M353">
+        <v>7.3</v>
+      </c>
+      <c r="P353" t="s">
+        <v>730</v>
+      </c>
+      <c r="S353">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>729</v>
+      </c>
+      <c r="K354">
+        <v>7.3</v>
+      </c>
+      <c r="M354">
+        <v>10</v>
+      </c>
+      <c r="P354" t="s">
+        <v>730</v>
+      </c>
+      <c r="S354">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A355" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{9448E0E4-6782-4C8B-9CFC-41FF34BC7D4A}">
@@ -9505,9 +10588,11 @@
     <hyperlink ref="P51" r:id="rId19" xr:uid="{2B53BAFF-12E2-4F40-B2D1-70A2B1F51CFC}"/>
     <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{ADFA18F4-F2AA-4DDF-A139-7D0E93BD3284}"/>
     <hyperlink ref="P133" r:id="rId21" xr:uid="{5683E5CE-306D-43C0-8A77-611187A6EEE3}"/>
+    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{B7CEEDA3-E05A-4CBE-8C23-A14DADDBBCBD}"/>
+    <hyperlink ref="P342" r:id="rId23" xr:uid="{D3533793-9177-4AE8-AC1A-C82254C65329}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E80E06-8010-405C-BA85-FB7AA3FFCEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA3F07F-E21E-4412-A24C-B25299FC8EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="735">
   <si>
     <t>Week</t>
   </si>
@@ -2260,7 +2260,19 @@
     <t>MaKKowey Tapkin</t>
   </si>
   <si>
-    <t>!</t>
+    <t>deathmancheat@gmail.com</t>
+  </si>
+  <si>
+    <t>egorov.rybinsk@gmail.com</t>
+  </si>
+  <si>
+    <t>biznessyy@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact.Sheepdog@Gmail.com</t>
+  </si>
+  <si>
+    <t>Sheepdog</t>
   </si>
 </sst>
 </file>
@@ -3673,10 +3685,10 @@
   <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G336" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q353" sqref="Q353"/>
+      <selection pane="bottomRight" activeCell="R214" sqref="R214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5545,7 +5557,7 @@
         <v>40</v>
       </c>
       <c r="P79" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="R79" t="s">
         <v>476</v>
@@ -5756,7 +5768,10 @@
         <v>28</v>
       </c>
       <c r="P89" t="s">
-        <v>531</v>
+        <v>499</v>
+      </c>
+      <c r="R89" t="s">
+        <v>523</v>
       </c>
       <c r="S89">
         <f t="shared" si="3"/>
@@ -8178,6 +8193,12 @@
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
+      <c r="P214" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>734</v>
+      </c>
       <c r="S214">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -10529,7 +10550,7 @@
         <v>7.3</v>
       </c>
       <c r="P353" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="S353">
         <f t="shared" si="11"/>
@@ -10547,7 +10568,7 @@
         <v>10</v>
       </c>
       <c r="P354" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="S354">
         <f t="shared" si="11"/>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA3F07F-E21E-4412-A24C-B25299FC8EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="6" xr2:uid="{F29F535E-B8F5-49A6-BD0B-95E582B571D1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="745">
   <si>
     <t>Week</t>
   </si>
@@ -131,9 +130,6 @@
   </si>
   <si>
     <t>Tweet nadoen op forum</t>
-  </si>
-  <si>
-    <t>info@rocketshipstudios.org, hello@dreamstormstudios.com, TheBibites@gmail.com, Equilinox, PrimerLearning, Among Ripples, world building magazine, philomena... meer, bijv wetenschappers?</t>
   </si>
   <si>
     <t>Pers</t>
@@ -2274,11 +2270,44 @@
   <si>
     <t>Sheepdog</t>
   </si>
+  <si>
+    <t>RocketShip Studios?</t>
+  </si>
+  <si>
+    <t>Dream storm studios?</t>
+  </si>
+  <si>
+    <t>Bibites guy</t>
+  </si>
+  <si>
+    <t>TheBibites@gmail.com</t>
+  </si>
+  <si>
+    <t>Thin Matrix</t>
+  </si>
+  <si>
+    <t>Primer Learning</t>
+  </si>
+  <si>
+    <t>Among Ripples guy</t>
+  </si>
+  <si>
+    <t>World building magazine</t>
+  </si>
+  <si>
+    <t>Philomena</t>
+  </si>
+  <si>
+    <t>Haversine</t>
+  </si>
+  <si>
+    <t>` @biogridgame</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2420,7 +2449,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2731,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A6D9AC-A6C6-4EF8-B4C7-72C242997141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2741,22 +2770,22 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1"/>
-    <col min="11" max="16" width="20.5546875" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" style="1"/>
-    <col min="21" max="16384" width="20.5546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1"/>
+    <col min="11" max="16" width="20.5703125" style="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="1"/>
+    <col min="21" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2780,7 +2809,7 @@
         <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>20</v>
@@ -2792,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>2</v>
@@ -2804,24 +2833,24 @@
         <v>5</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -2833,12 +2862,12 @@
       <c r="G2" s="1"/>
       <c r="J2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>31</v>
@@ -2855,9 +2884,9 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>31</v>
@@ -2874,9 +2903,9 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>31</v>
@@ -2896,9 +2925,9 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>32</v>
@@ -2915,9 +2944,9 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
@@ -2934,9 +2963,9 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -2956,9 +2985,9 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>33</v>
@@ -2973,22 +3002,22 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>4</v>
@@ -2997,24 +3026,24 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -3023,23 +3052,23 @@
         <v>44060</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -3048,23 +3077,23 @@
         <v>44063</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -3073,23 +3102,23 @@
         <v>44067</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -3098,26 +3127,26 @@
         <v>44070</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>36</v>
@@ -3126,52 +3155,52 @@
         <v>44077</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3183,10 +3212,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15"/>
@@ -3198,38 +3227,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFD9C18-B2AC-4353-A09B-279591FBF584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3238,26 +3267,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E9A959-A40B-4B2B-9FD5-6667026A6AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3266,16 +3295,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC7D78-6435-4508-86DE-7E4F4A4DAEE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -3286,14 +3315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E7AC38-BC55-491D-B8B3-DF5807EF3461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3304,48 +3333,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BAEABE-2F36-4794-A4D1-9BECB8B2E718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481B09FC-BE3F-4459-B14B-623196C314C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>206</v>
@@ -3354,9 +3383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3365,9 +3394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>9.4</v>
@@ -3376,9 +3405,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>2.2999999999999998</v>
@@ -3387,9 +3416,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>1.6</v>
@@ -3398,9 +3427,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -3409,9 +3438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3420,9 +3449,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3431,12 +3460,12 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -3445,9 +3474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.3</v>
@@ -3456,12 +3485,12 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -3470,9 +3499,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -3481,9 +3510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -3492,9 +3521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>7.0000000000000007E-2</v>
@@ -3503,9 +3532,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>0.05</v>
@@ -3514,9 +3543,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>0.02</v>
@@ -3526,8 +3555,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{7AEEA911-FDB0-4D6B-A117-4EF3CA88C6B0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -3536,143 +3565,143 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB5F10A-C070-439E-BC0C-4D306776EE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3681,36 +3710,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25A688-B96F-4964-900E-15F95AB35B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G201" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R214" sqref="R214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -3719,57 +3748,57 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>161</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>162</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M1" t="s">
-        <v>543</v>
-      </c>
-      <c r="N1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>3300</v>
@@ -3782,19 +3811,19 @@
         <v>3300</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" t="s">
         <v>446</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>447</v>
       </c>
       <c r="S2">
         <f>COUNTA(B2:N2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3807,19 +3836,19 @@
         <v>2000</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">COUNTA(B3:N3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4">
         <v>1700</v>
@@ -3835,19 +3864,19 @@
         <v>1700</v>
       </c>
       <c r="P4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q4" t="s">
         <v>450</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>451</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -3860,22 +3889,22 @@
         <v>1600</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H6">
         <v>1500</v>
@@ -3888,16 +3917,16 @@
         <v>1500</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7">
         <v>933</v>
@@ -3907,19 +3936,19 @@
         <v>933</v>
       </c>
       <c r="P7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G8">
         <v>774</v>
@@ -3932,16 +3961,16 @@
         <v>774</v>
       </c>
       <c r="P8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9">
         <v>762</v>
@@ -3954,16 +3983,16 @@
         <v>762</v>
       </c>
       <c r="P9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10">
         <v>658</v>
@@ -3976,16 +4005,16 @@
         <v>658</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F11">
         <v>311</v>
@@ -3998,16 +4027,16 @@
         <v>584</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H12">
         <v>574</v>
@@ -4020,16 +4049,16 @@
         <v>574</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H13">
         <v>562</v>
@@ -4039,19 +4068,19 @@
         <v>562</v>
       </c>
       <c r="P13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H14">
         <v>495</v>
@@ -4061,16 +4090,16 @@
         <v>495</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H15">
         <v>474</v>
@@ -4083,16 +4112,16 @@
         <v>474</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <v>66</v>
@@ -4108,16 +4137,16 @@
         <v>407</v>
       </c>
       <c r="P16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B17">
         <v>59</v>
@@ -4136,16 +4165,16 @@
         <v>372</v>
       </c>
       <c r="P17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>310</v>
@@ -4155,19 +4184,19 @@
         <v>310</v>
       </c>
       <c r="P18" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H19">
         <v>305</v>
@@ -4180,16 +4209,16 @@
         <v>305</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20">
         <v>297</v>
@@ -4199,16 +4228,16 @@
         <v>297</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G21">
         <v>295</v>
@@ -4218,16 +4247,16 @@
         <v>295</v>
       </c>
       <c r="P21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G22">
         <v>92</v>
@@ -4243,16 +4272,16 @@
         <v>290</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E23">
         <v>0.2</v>
@@ -4266,9 +4295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G24">
         <v>286</v>
@@ -4278,22 +4307,22 @@
         <v>286</v>
       </c>
       <c r="P24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q24" t="s">
+        <v>485</v>
+      </c>
+      <c r="R24" t="s">
         <v>486</v>
-      </c>
-      <c r="R24" t="s">
-        <v>487</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4306,16 +4335,16 @@
         <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26">
         <v>102</v>
@@ -4331,19 +4360,19 @@
         <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27">
         <v>249</v>
@@ -4353,22 +4382,22 @@
         <v>249</v>
       </c>
       <c r="P27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H28">
         <v>236</v>
@@ -4381,16 +4410,16 @@
         <v>236</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29">
         <v>222</v>
@@ -4403,16 +4432,16 @@
         <v>222</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G30">
         <v>221</v>
@@ -4422,16 +4451,16 @@
         <v>221</v>
       </c>
       <c r="P30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G31">
         <v>215</v>
@@ -4441,19 +4470,19 @@
         <v>215</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32">
         <v>212</v>
@@ -4463,16 +4492,16 @@
         <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33">
         <v>204</v>
@@ -4485,16 +4514,16 @@
         <v>204</v>
       </c>
       <c r="P33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E34">
         <v>22</v>
@@ -4507,19 +4536,19 @@
         <v>204</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q34" t="s">
         <v>459</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>460</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -4535,16 +4564,16 @@
         <v>196</v>
       </c>
       <c r="P35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36">
         <v>164</v>
@@ -4560,19 +4589,19 @@
         <v>164</v>
       </c>
       <c r="P36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37">
         <v>162</v>
@@ -4585,19 +4614,19 @@
         <v>162</v>
       </c>
       <c r="P37" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q37" t="s">
         <v>519</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>520</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G38">
         <v>154</v>
@@ -4607,19 +4636,19 @@
         <v>154</v>
       </c>
       <c r="P38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39">
         <v>146</v>
@@ -4629,19 +4658,19 @@
         <v>146</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40">
         <v>146</v>
@@ -4657,19 +4686,19 @@
         <v>146</v>
       </c>
       <c r="P40" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q40" t="s">
         <v>535</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>536</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41">
         <v>143</v>
@@ -4682,19 +4711,19 @@
         <v>143</v>
       </c>
       <c r="P41" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q41" t="s">
         <v>545</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>546</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42">
         <v>5.0999999999999996</v>
@@ -4707,19 +4736,19 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43">
         <v>136</v>
@@ -4732,16 +4761,16 @@
         <v>136</v>
       </c>
       <c r="P43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G44">
         <v>126</v>
@@ -4754,16 +4783,16 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45">
         <v>52</v>
@@ -4779,16 +4808,16 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G46">
         <v>114</v>
@@ -4798,16 +4827,16 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G47">
         <v>112</v>
@@ -4817,16 +4846,16 @@
         <v>112</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F48">
         <v>111</v>
@@ -4845,16 +4874,16 @@
         <v>111</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G49">
         <v>108</v>
@@ -4864,19 +4893,19 @@
         <v>108</v>
       </c>
       <c r="P49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50">
         <v>5.7</v>
@@ -4892,16 +4921,16 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E51">
         <v>99</v>
@@ -4911,16 +4940,16 @@
         <v>99</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52">
         <v>98</v>
@@ -4930,19 +4959,19 @@
         <v>98</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>97</v>
@@ -4952,16 +4981,16 @@
         <v>97</v>
       </c>
       <c r="R53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E54">
         <v>92</v>
@@ -4974,16 +5003,16 @@
         <v>92</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H55">
         <v>86</v>
@@ -4993,16 +5022,16 @@
         <v>86</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H56">
         <v>84</v>
@@ -5018,19 +5047,19 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q56" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G57">
         <v>82</v>
@@ -5040,16 +5069,16 @@
         <v>82</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G58">
         <v>78</v>
@@ -5062,19 +5091,19 @@
         <v>78</v>
       </c>
       <c r="P58" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q58" t="s">
         <v>541</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>542</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G59">
         <v>76</v>
@@ -5087,16 +5116,16 @@
         <v>76</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H60">
         <v>68</v>
@@ -5109,19 +5138,19 @@
         <v>68</v>
       </c>
       <c r="P60" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H61">
         <v>67</v>
@@ -5131,19 +5160,19 @@
         <v>67</v>
       </c>
       <c r="P61" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="R61" t="s">
         <v>604</v>
-      </c>
-      <c r="R61" t="s">
-        <v>605</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62">
         <v>17</v>
@@ -5159,16 +5188,16 @@
         <v>66</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63">
         <v>41</v>
@@ -5193,16 +5222,16 @@
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E64">
         <v>58</v>
@@ -5215,19 +5244,19 @@
         <v>58</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F65">
         <v>4.2</v>
@@ -5240,19 +5269,19 @@
         <v>56</v>
       </c>
       <c r="P65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -5262,16 +5291,16 @@
         <v>55</v>
       </c>
       <c r="P66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G67">
         <v>55</v>
@@ -5281,16 +5310,16 @@
         <v>55</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S130" si="3">COUNTA(B67:N67)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E68">
         <v>55</v>
@@ -5303,16 +5332,16 @@
         <v>55</v>
       </c>
       <c r="P68" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S68">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -5322,16 +5351,16 @@
         <v>54</v>
       </c>
       <c r="P69" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G70">
         <v>53</v>
@@ -5347,19 +5376,19 @@
         <v>53</v>
       </c>
       <c r="P70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B71">
         <v>55</v>
@@ -5378,16 +5407,16 @@
         <v>64</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S71">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G72">
         <v>51</v>
@@ -5397,19 +5426,19 @@
         <v>51</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q72" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G73">
         <v>49</v>
@@ -5422,16 +5451,16 @@
         <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S73">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74">
         <v>17</v>
@@ -5444,16 +5473,16 @@
         <v>46</v>
       </c>
       <c r="P74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S74">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G75">
         <v>45</v>
@@ -5463,16 +5492,16 @@
         <v>45</v>
       </c>
       <c r="P75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F76">
         <v>16</v>
@@ -5488,19 +5517,19 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S76">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77">
         <v>43</v>
@@ -5510,16 +5539,16 @@
         <v>43</v>
       </c>
       <c r="P77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G78">
         <v>42</v>
@@ -5532,16 +5561,16 @@
         <v>42</v>
       </c>
       <c r="P78" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -5557,19 +5586,19 @@
         <v>40</v>
       </c>
       <c r="P79" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S79">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G80">
         <v>39</v>
@@ -5585,16 +5614,16 @@
         <v>39</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S80">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G81">
         <v>39</v>
@@ -5604,16 +5633,16 @@
         <v>39</v>
       </c>
       <c r="P81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S81">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C82">
         <v>38</v>
@@ -5623,16 +5652,16 @@
         <v>38</v>
       </c>
       <c r="P82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G83">
         <v>38</v>
@@ -5645,16 +5674,16 @@
         <v>38</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S83">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>34</v>
@@ -5664,19 +5693,19 @@
         <v>34</v>
       </c>
       <c r="P84" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q84" t="s">
         <v>464</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>465</v>
       </c>
       <c r="S84">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85">
         <v>34</v>
@@ -5686,19 +5715,19 @@
         <v>34</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -5708,16 +5737,16 @@
         <v>33</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G87">
         <v>32</v>
@@ -5727,16 +5756,16 @@
         <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S87">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -5746,16 +5775,16 @@
         <v>30</v>
       </c>
       <c r="P88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S88">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -5768,19 +5797,19 @@
         <v>28</v>
       </c>
       <c r="P89" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R89" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S89">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G90">
         <v>27</v>
@@ -5793,16 +5822,16 @@
         <v>27</v>
       </c>
       <c r="P90" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S90">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F91">
         <v>6.4</v>
@@ -5815,19 +5844,19 @@
         <v>27</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Q91" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S91">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G92">
         <v>27</v>
@@ -5843,16 +5872,16 @@
         <v>27</v>
       </c>
       <c r="P92" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S92">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G93">
         <v>26</v>
@@ -5862,16 +5891,16 @@
         <v>26</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S93">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G94">
         <v>26</v>
@@ -5881,16 +5910,16 @@
         <v>26</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S94">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G95">
         <v>26</v>
@@ -5903,16 +5932,16 @@
         <v>26</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S95">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H96">
         <v>26</v>
@@ -5922,16 +5951,16 @@
         <v>26</v>
       </c>
       <c r="P96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S96">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E97">
         <v>24</v>
@@ -5944,19 +5973,19 @@
         <v>24</v>
       </c>
       <c r="P97" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R97" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S97">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G98">
         <v>23</v>
@@ -5966,16 +5995,16 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H99">
         <v>23</v>
@@ -5985,19 +6014,19 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F100">
         <v>7.3</v>
@@ -6013,16 +6042,16 @@
         <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S100">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E101">
         <v>22</v>
@@ -6032,19 +6061,19 @@
         <v>22</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G102">
         <v>21</v>
@@ -6054,16 +6083,16 @@
         <v>21</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G103">
         <v>21</v>
@@ -6076,19 +6105,19 @@
         <v>21</v>
       </c>
       <c r="P103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S103">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G104">
         <v>21</v>
@@ -6098,16 +6127,16 @@
         <v>21</v>
       </c>
       <c r="P104" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S104">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -6120,16 +6149,16 @@
         <v>21</v>
       </c>
       <c r="P105" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S105">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G106">
         <v>18</v>
@@ -6139,16 +6168,16 @@
         <v>18</v>
       </c>
       <c r="P106" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E107">
         <v>17</v>
@@ -6161,16 +6190,16 @@
         <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S107">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H108">
         <v>16</v>
@@ -6186,16 +6215,16 @@
         <v>16</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S108">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G109">
         <v>15</v>
@@ -6205,19 +6234,19 @@
         <v>15</v>
       </c>
       <c r="P109" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q109" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S109">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G110">
         <v>14</v>
@@ -6230,19 +6259,19 @@
         <v>14</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q110" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S110">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -6252,22 +6281,22 @@
         <v>13</v>
       </c>
       <c r="P111" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q111" t="s">
+        <v>474</v>
+      </c>
+      <c r="R111" t="s">
         <v>475</v>
-      </c>
-      <c r="R111" t="s">
-        <v>476</v>
       </c>
       <c r="S111">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E112">
         <v>0.6</v>
@@ -6280,19 +6309,19 @@
         <v>13</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G113">
         <v>12</v>
@@ -6305,16 +6334,16 @@
         <v>12</v>
       </c>
       <c r="P113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S113">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F114">
         <v>1.2</v>
@@ -6327,19 +6356,19 @@
         <v>12</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q114" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S114">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -6352,16 +6381,16 @@
         <v>12</v>
       </c>
       <c r="P115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S115">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G116">
         <v>11</v>
@@ -6371,19 +6400,19 @@
         <v>11</v>
       </c>
       <c r="P116" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q116" t="s">
         <v>578</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>579</v>
       </c>
       <c r="S116">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G117">
         <v>11</v>
@@ -6393,22 +6422,22 @@
         <v>11</v>
       </c>
       <c r="P117" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>579</v>
+      </c>
+      <c r="R117" t="s">
         <v>581</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>580</v>
-      </c>
-      <c r="R117" t="s">
-        <v>582</v>
       </c>
       <c r="S117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G118">
         <v>11</v>
@@ -6421,16 +6450,16 @@
         <v>11</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S118">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -6443,16 +6472,16 @@
         <v>10</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S119">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -6462,19 +6491,19 @@
         <v>10</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R120" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="S120">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G121">
         <v>9.9</v>
@@ -6487,16 +6516,16 @@
         <v>9.9</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="S121">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G122">
         <v>9.6999999999999993</v>
@@ -6506,16 +6535,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S122">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -6528,16 +6557,16 @@
         <v>9</v>
       </c>
       <c r="P123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S123">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G124">
         <v>8.6999999999999993</v>
@@ -6547,16 +6576,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S124">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G125">
         <v>8.6</v>
@@ -6572,16 +6601,16 @@
         <v>8.6</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S125">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>8.5</v>
@@ -6591,19 +6620,19 @@
         <v>8.5</v>
       </c>
       <c r="P126" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q126" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S126">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G127">
         <v>7.9</v>
@@ -6613,16 +6642,16 @@
         <v>7.9</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E128">
         <v>7.4</v>
@@ -6632,16 +6661,16 @@
         <v>7.4</v>
       </c>
       <c r="P128" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S128">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G129">
         <v>7.1</v>
@@ -6651,19 +6680,19 @@
         <v>7.1</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S129">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -6673,16 +6702,16 @@
         <v>7</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S130">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G131">
         <v>6.8</v>
@@ -6692,19 +6721,19 @@
         <v>6.8</v>
       </c>
       <c r="P131" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R131" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S194" si="5">COUNTA(B131:N131)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G132">
         <v>6.5</v>
@@ -6714,19 +6743,19 @@
         <v>6.5</v>
       </c>
       <c r="P132" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R132" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S132">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E133">
         <v>6.5</v>
@@ -6736,16 +6765,16 @@
         <v>6.5</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S133">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G134">
         <v>6.4</v>
@@ -6755,16 +6784,16 @@
         <v>6.4</v>
       </c>
       <c r="R134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S134">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G135">
         <v>5.9</v>
@@ -6774,16 +6803,16 @@
         <v>5.9</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S135">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H136">
         <v>5.6</v>
@@ -6793,19 +6822,19 @@
         <v>5.6</v>
       </c>
       <c r="P136" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R136" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S136">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137">
         <v>5.5</v>
@@ -6821,16 +6850,16 @@
         <v>5.5</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S137">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G138">
         <v>5.3</v>
@@ -6843,16 +6872,16 @@
         <v>5.3</v>
       </c>
       <c r="P138" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S138">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139">
         <v>5.2</v>
@@ -6862,19 +6891,19 @@
         <v>5.2</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R139" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S139">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G140">
         <v>5.2</v>
@@ -6884,16 +6913,16 @@
         <v>5.2</v>
       </c>
       <c r="P140" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S140">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141">
         <v>4.5</v>
@@ -6903,16 +6932,16 @@
         <v>4.5</v>
       </c>
       <c r="R141" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S141">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142">
         <v>4.5</v>
@@ -6922,16 +6951,16 @@
         <v>4.5</v>
       </c>
       <c r="P142" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S142">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>4.5</v>
@@ -6941,16 +6970,16 @@
         <v>4.5</v>
       </c>
       <c r="P143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S143">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G144">
         <v>4.5</v>
@@ -6964,9 +6993,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G145">
         <v>4.5</v>
@@ -6980,9 +7009,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G146">
         <v>4.5</v>
@@ -6996,9 +7025,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B147">
         <v>4.3</v>
@@ -7008,16 +7037,16 @@
         <v>4.3</v>
       </c>
       <c r="R147" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S147">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H148">
         <v>4.3</v>
@@ -7031,9 +7060,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E149">
         <v>4.3</v>
@@ -7047,9 +7076,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B150">
         <v>4.0999999999999996</v>
@@ -7059,19 +7088,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="P150" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S150">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G151">
         <v>3.9</v>
@@ -7085,9 +7114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G152">
         <v>3.9</v>
@@ -7101,9 +7130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>1.8</v>
@@ -7122,16 +7151,16 @@
         <v>3.9</v>
       </c>
       <c r="P153" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S153">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J154">
         <v>3.9</v>
@@ -7145,9 +7174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G155">
         <v>3.8</v>
@@ -7161,9 +7190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D156">
         <v>3.7</v>
@@ -7173,19 +7202,19 @@
         <v>3.7</v>
       </c>
       <c r="P156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q156" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S156">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157">
         <v>3.6</v>
@@ -7195,19 +7224,19 @@
         <v>3.6</v>
       </c>
       <c r="P157" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q157" t="s">
         <v>504</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>505</v>
       </c>
       <c r="S157">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G158">
         <v>3.5</v>
@@ -7221,9 +7250,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E159">
         <v>3.4</v>
@@ -7237,9 +7266,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -7253,9 +7282,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -7269,9 +7298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G162">
         <v>2.8</v>
@@ -7285,9 +7314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H163">
         <v>2.8</v>
@@ -7301,9 +7330,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G164">
         <v>2.7</v>
@@ -7317,9 +7346,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G165">
         <v>2.7</v>
@@ -7333,9 +7362,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E166">
         <v>2.7</v>
@@ -7349,9 +7378,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B167">
         <v>2.5</v>
@@ -7361,19 +7390,19 @@
         <v>2.5</v>
       </c>
       <c r="P167" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q167" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S167">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G168">
         <v>2.5</v>
@@ -7387,9 +7416,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G169">
         <v>2.5</v>
@@ -7403,9 +7432,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G170">
         <v>2.5</v>
@@ -7419,9 +7448,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B171">
         <v>2.4</v>
@@ -7431,19 +7460,19 @@
         <v>2.4</v>
       </c>
       <c r="P171" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q171" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S171">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B172">
         <v>2.2999999999999998</v>
@@ -7453,16 +7482,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="P172" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S172">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G173">
         <v>2.2999999999999998</v>
@@ -7476,9 +7505,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G174">
         <v>2.2000000000000002</v>
@@ -7492,9 +7521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -7508,9 +7537,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E176">
         <v>1.7</v>
@@ -7526,16 +7555,16 @@
         <v>2</v>
       </c>
       <c r="Q176" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S176">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C177">
         <v>1.9</v>
@@ -7545,16 +7574,16 @@
         <v>1.9</v>
       </c>
       <c r="P177" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S177">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G178">
         <v>1.8</v>
@@ -7568,9 +7597,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G179">
         <v>1.8</v>
@@ -7584,9 +7613,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G180">
         <v>1.8</v>
@@ -7600,9 +7629,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E181">
         <v>1.8</v>
@@ -7616,9 +7645,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G182">
         <v>1.7</v>
@@ -7632,9 +7661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G183">
         <v>1.7</v>
@@ -7648,9 +7677,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E184">
         <v>1.6</v>
@@ -7664,9 +7693,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E185">
         <v>1.6</v>
@@ -7680,9 +7709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C186">
         <v>1.5</v>
@@ -7692,16 +7721,16 @@
         <v>1.5</v>
       </c>
       <c r="P186" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S186">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E187">
         <v>0.2</v>
@@ -7717,16 +7746,16 @@
         <v>1.5</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S187">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E188">
         <v>1.5</v>
@@ -7740,9 +7769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C189">
         <v>1.4</v>
@@ -7752,16 +7781,16 @@
         <v>1.4</v>
       </c>
       <c r="P189" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S189">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G190">
         <v>1.4</v>
@@ -7775,9 +7804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G191">
         <v>1.4</v>
@@ -7791,9 +7820,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G192">
         <v>1.4</v>
@@ -7807,9 +7836,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G193">
         <v>1.4</v>
@@ -7823,9 +7852,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G194">
         <v>1.4</v>
@@ -7839,9 +7868,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G195">
         <v>1.4</v>
@@ -7855,9 +7884,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B196">
         <v>1.3</v>
@@ -7867,19 +7896,19 @@
         <v>1.3</v>
       </c>
       <c r="P196" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q196" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S196">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G197">
         <v>1.3</v>
@@ -7892,16 +7921,16 @@
         <v>1.3</v>
       </c>
       <c r="P197" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S197">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G198">
         <v>1.3</v>
@@ -7915,9 +7944,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B199">
         <v>1.2</v>
@@ -7927,19 +7956,19 @@
         <v>1.2</v>
       </c>
       <c r="P199" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q199" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S199">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C200">
         <v>1.2</v>
@@ -7949,19 +7978,19 @@
         <v>1.2</v>
       </c>
       <c r="P200" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q200" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S200">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D201">
         <v>1.2</v>
@@ -7971,16 +8000,16 @@
         <v>1.2</v>
       </c>
       <c r="P201" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S201">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E202">
         <v>1.2</v>
@@ -7994,9 +8023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E203">
         <v>1.2</v>
@@ -8010,9 +8039,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G204">
         <v>1.1000000000000001</v>
@@ -8026,9 +8055,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G205">
         <v>1.1000000000000001</v>
@@ -8042,9 +8071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G206">
         <v>1.1000000000000001</v>
@@ -8058,9 +8087,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G207">
         <v>1.1000000000000001</v>
@@ -8074,9 +8103,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E208">
         <v>1.1000000000000001</v>
@@ -8090,9 +8119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E209">
         <v>1.1000000000000001</v>
@@ -8106,9 +8135,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D210">
         <v>0.2</v>
@@ -8124,16 +8153,16 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S210">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -8147,9 +8176,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -8163,9 +8192,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8179,9 +8208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C214">
         <v>0.9</v>
@@ -8194,19 +8223,19 @@
         <v>0.9</v>
       </c>
       <c r="P214" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q214" t="s">
         <v>733</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>734</v>
       </c>
       <c r="S214">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C215">
         <v>0.9</v>
@@ -8220,9 +8249,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C216">
         <v>0.8</v>
@@ -8236,9 +8265,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G217">
         <v>0.8</v>
@@ -8252,9 +8281,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G218">
         <v>0.8</v>
@@ -8268,9 +8297,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G219">
         <v>0.8</v>
@@ -8284,9 +8313,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G220">
         <v>0.8</v>
@@ -8300,9 +8329,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H221">
         <v>0.8</v>
@@ -8316,9 +8345,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J222">
         <v>0.8</v>
@@ -8332,9 +8361,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E223">
         <v>0.8</v>
@@ -8348,9 +8377,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C224">
         <v>0.7</v>
@@ -8364,9 +8393,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C225">
         <v>0.7</v>
@@ -8380,9 +8409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G226">
         <v>0.7</v>
@@ -8396,9 +8425,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G227">
         <v>0.7</v>
@@ -8412,9 +8441,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G228">
         <v>0.7</v>
@@ -8428,9 +8457,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G229">
         <v>0.7</v>
@@ -8444,9 +8473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C230">
         <v>0.6</v>
@@ -8460,9 +8489,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G231">
         <v>0.6</v>
@@ -8476,9 +8505,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E232">
         <v>0.6</v>
@@ -8492,9 +8521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C233">
         <v>0.5</v>
@@ -8508,9 +8537,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C234">
         <v>0.5</v>
@@ -8524,9 +8553,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C235">
         <v>0.5</v>
@@ -8540,9 +8569,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G236">
         <v>0.5</v>
@@ -8556,9 +8585,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E237">
         <v>0.5</v>
@@ -8572,9 +8601,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B238">
         <v>0.4</v>
@@ -8588,9 +8617,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C239">
         <v>0.4</v>
@@ -8604,9 +8633,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G240">
         <v>0.4</v>
@@ -8620,9 +8649,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J241">
         <v>0.4</v>
@@ -8636,9 +8665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E242">
         <v>0.4</v>
@@ -8652,9 +8681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E243">
         <v>0.4</v>
@@ -8668,9 +8697,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E244">
         <v>0.4</v>
@@ -8683,19 +8712,19 @@
         <v>0.4</v>
       </c>
       <c r="P244" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q244" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S244">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G245">
         <v>0.3</v>
@@ -8709,9 +8738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G246">
         <v>0.3</v>
@@ -8725,9 +8754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G247">
         <v>0.3</v>
@@ -8741,9 +8770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G248">
         <v>0.3</v>
@@ -8757,9 +8786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G249">
         <v>0.3</v>
@@ -8773,9 +8802,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G250">
         <v>0.3</v>
@@ -8789,9 +8818,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G251">
         <v>0.3</v>
@@ -8805,9 +8834,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G252">
         <v>0.3</v>
@@ -8821,9 +8850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G253">
         <v>0.3</v>
@@ -8837,9 +8866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G254">
         <v>0.3</v>
@@ -8853,9 +8882,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J255">
         <v>0.3</v>
@@ -8869,9 +8898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E256">
         <v>0.3</v>
@@ -8885,9 +8914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E257">
         <v>0.3</v>
@@ -8901,9 +8930,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E258">
         <v>0.3</v>
@@ -8917,9 +8946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E259">
         <v>0.3</v>
@@ -8933,9 +8962,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E260">
         <v>0.3</v>
@@ -8949,9 +8978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E261">
         <v>0.3</v>
@@ -8965,9 +8994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E262">
         <v>0.3</v>
@@ -8981,9 +9010,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E263">
         <v>0.247</v>
@@ -8997,9 +9026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B264">
         <v>0.2</v>
@@ -9013,9 +9042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D265">
         <v>0.2</v>
@@ -9029,9 +9058,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -9045,9 +9074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -9061,9 +9090,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -9077,9 +9106,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -9093,9 +9122,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -9109,9 +9138,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H271">
         <v>0.2</v>
@@ -9125,9 +9154,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J272">
         <v>0.2</v>
@@ -9141,9 +9170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J273">
         <v>0.2</v>
@@ -9157,9 +9186,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J274">
         <v>0.2</v>
@@ -9173,9 +9202,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E275">
         <v>0.2</v>
@@ -9189,9 +9218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E276">
         <v>0.2</v>
@@ -9205,9 +9234,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E277">
         <v>0.2</v>
@@ -9221,9 +9250,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E278">
         <v>0.2</v>
@@ -9237,9 +9266,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E279">
         <v>0.2</v>
@@ -9253,9 +9282,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E280">
         <v>0.2</v>
@@ -9269,9 +9298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E281">
         <v>0.2</v>
@@ -9285,9 +9314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E282">
         <v>0.2</v>
@@ -9301,9 +9330,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E283">
         <v>0.2</v>
@@ -9317,9 +9346,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E284">
         <v>0.2</v>
@@ -9333,9 +9362,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E285">
         <v>0.2</v>
@@ -9349,9 +9378,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E286">
         <v>0.2</v>
@@ -9365,9 +9394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B287">
         <v>0.1</v>
@@ -9381,9 +9410,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C288">
         <v>0.1</v>
@@ -9397,9 +9426,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C289">
         <v>0.1</v>
@@ -9413,9 +9442,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C290">
         <v>0.1</v>
@@ -9429,9 +9458,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C291">
         <v>0.1</v>
@@ -9445,9 +9474,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -9461,9 +9490,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -9477,9 +9506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -9493,9 +9522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -9509,9 +9538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H296">
         <v>0.1</v>
@@ -9525,9 +9554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H297">
         <v>0.1</v>
@@ -9541,9 +9570,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H298">
         <v>0.1</v>
@@ -9557,9 +9586,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J299">
         <v>0.1</v>
@@ -9573,9 +9602,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J300">
         <v>0.1</v>
@@ -9589,9 +9618,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J301">
         <v>0.1</v>
@@ -9605,9 +9634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E302">
         <v>0.1</v>
@@ -9621,9 +9650,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E303">
         <v>0.1</v>
@@ -9637,9 +9666,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E304">
         <v>0.1</v>
@@ -9653,9 +9682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E305">
         <v>0.1</v>
@@ -9669,9 +9698,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E306">
         <v>0.1</v>
@@ -9685,9 +9714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D307">
         <v>7.0000000000000007E-2</v>
@@ -9701,9 +9730,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M308">
         <v>2200</v>
@@ -9713,16 +9742,16 @@
         <v>0</v>
       </c>
       <c r="P308" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S308">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M309">
         <v>5.4</v>
@@ -9732,16 +9761,16 @@
         <v>0</v>
       </c>
       <c r="P309" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S309">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K310">
         <v>237</v>
@@ -9754,16 +9783,16 @@
         <v>0</v>
       </c>
       <c r="P310" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S310">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M311">
         <v>14</v>
@@ -9773,19 +9802,19 @@
         <v>0</v>
       </c>
       <c r="P311" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q311" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S311">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M312">
         <v>15</v>
@@ -9795,19 +9824,19 @@
         <v>0</v>
       </c>
       <c r="P312" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q312" t="s">
         <v>642</v>
-      </c>
-      <c r="Q312" t="s">
-        <v>643</v>
       </c>
       <c r="S312">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K313">
         <v>73</v>
@@ -9820,19 +9849,19 @@
         <v>0</v>
       </c>
       <c r="P313" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q313" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="S313">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M314">
         <v>2.1</v>
@@ -9842,19 +9871,19 @@
         <v>0</v>
       </c>
       <c r="P314" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R314" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S314">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M315">
         <v>79</v>
@@ -9864,16 +9893,16 @@
         <v>0</v>
       </c>
       <c r="P315" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S315">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K316">
         <v>85</v>
@@ -9889,16 +9918,16 @@
         <v>0</v>
       </c>
       <c r="P316" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S316">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G317">
         <v>7.4</v>
@@ -9911,16 +9940,16 @@
         <v>7.4</v>
       </c>
       <c r="P317" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S317">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K318">
         <v>1900</v>
@@ -9933,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="P318" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S318">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F319">
         <v>50</v>
@@ -9958,16 +9987,16 @@
         <v>50</v>
       </c>
       <c r="P319" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S319">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M320">
         <v>148</v>
@@ -9977,16 +10006,16 @@
         <v>0</v>
       </c>
       <c r="P320" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S320">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M321">
         <v>3</v>
@@ -9996,16 +10025,16 @@
         <v>0</v>
       </c>
       <c r="P321" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S321">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M322">
         <v>45</v>
@@ -10015,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="P322" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S322">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M323">
         <v>5.3</v>
@@ -10034,19 +10063,19 @@
         <v>0</v>
       </c>
       <c r="P323" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R323" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S323">
         <f t="shared" ref="S323:S354" si="11">COUNTA(B323:N323)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M324">
         <v>7.6</v>
@@ -10056,16 +10085,16 @@
         <v>0</v>
       </c>
       <c r="P324" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S324">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K325">
         <v>305</v>
@@ -10078,16 +10107,16 @@
         <v>0</v>
       </c>
       <c r="P325" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S325">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M326">
         <v>1.9</v>
@@ -10097,82 +10126,82 @@
         <v>0</v>
       </c>
       <c r="P326" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q326" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S326">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M327">
         <v>1.9</v>
       </c>
       <c r="P327" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S327">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M328">
         <v>3.3</v>
       </c>
       <c r="P328" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S328">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M329">
         <v>2.7</v>
       </c>
       <c r="P329" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q329" t="s">
         <v>679</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>680</v>
       </c>
       <c r="S329">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M330">
         <v>2</v>
       </c>
       <c r="P330" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S330">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K331">
         <v>1.3</v>
@@ -10181,31 +10210,31 @@
         <v>2</v>
       </c>
       <c r="P331" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S331">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M332">
         <v>3</v>
       </c>
       <c r="P332" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S332">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K333">
         <v>519</v>
@@ -10214,82 +10243,82 @@
         <v>130</v>
       </c>
       <c r="P333" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S333">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M334">
         <v>3.7</v>
       </c>
       <c r="P334" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S334">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M335">
         <v>1.9</v>
       </c>
       <c r="P335" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S335">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M336">
         <v>2.8</v>
       </c>
       <c r="P336" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q336" t="s">
         <v>692</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>693</v>
       </c>
       <c r="S336">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M337">
         <v>1.2</v>
       </c>
       <c r="P337" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R337" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S337">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F338">
         <v>314</v>
@@ -10298,31 +10327,31 @@
         <v>93</v>
       </c>
       <c r="P338" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S338">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M339">
         <v>3.1</v>
       </c>
       <c r="P339" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S339">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F340">
         <v>116</v>
@@ -10331,79 +10360,79 @@
         <v>15</v>
       </c>
       <c r="P340" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q340" t="s">
         <v>702</v>
-      </c>
-      <c r="Q340" t="s">
-        <v>703</v>
       </c>
       <c r="S340">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M341">
         <v>13</v>
       </c>
       <c r="P341" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S341">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M342">
         <v>23</v>
       </c>
       <c r="P342" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S342">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M343">
         <v>5.3</v>
       </c>
       <c r="P343" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S343">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M344">
         <v>6.7</v>
       </c>
       <c r="R344" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S344">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K345">
         <v>302</v>
@@ -10412,34 +10441,34 @@
         <v>139</v>
       </c>
       <c r="P345" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S345">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M346">
         <v>4</v>
       </c>
       <c r="P346" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q346" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S346">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F347">
         <v>2.6</v>
@@ -10451,46 +10480,46 @@
         <v>6.3</v>
       </c>
       <c r="P347" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S347">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M348">
         <v>3.2</v>
       </c>
       <c r="P348" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S348">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M349">
         <v>5</v>
       </c>
       <c r="P349" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S349">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K350">
         <v>574</v>
@@ -10499,49 +10528,49 @@
         <v>666</v>
       </c>
       <c r="P350" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="S350">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M351">
         <v>4.0999999999999996</v>
       </c>
       <c r="P351" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S351">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M352">
         <v>26</v>
       </c>
       <c r="P352" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R352" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S352">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K353">
         <v>0.1</v>
@@ -10550,16 +10579,16 @@
         <v>7.3</v>
       </c>
       <c r="P353" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S353">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K354">
         <v>7.3</v>
@@ -10568,49 +10597,49 @@
         <v>10</v>
       </c>
       <c r="P354" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="S354">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{9448E0E4-6782-4C8B-9CFC-41FF34BC7D4A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R79">
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R79">
       <sortCondition descending="1" ref="O1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R308">
+  <sortState ref="A2:R308">
     <sortCondition descending="1" ref="O2:O308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{F24445EB-D95A-4ADA-8E39-C240B610255B}"/>
-    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{575221FA-28F8-4AB5-8E62-F76E53A179C1}"/>
-    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{896E6034-DA5E-4840-8F03-8CE5AD307C95}"/>
-    <hyperlink ref="P25" r:id="rId4" xr:uid="{7702B3EB-0C80-4FC8-8FFE-688727A93303}"/>
-    <hyperlink ref="P26" r:id="rId5" xr:uid="{2C955142-F43C-4B77-AAAE-F03F86A1E62A}"/>
-    <hyperlink ref="P32" r:id="rId6" xr:uid="{8C83C43A-2340-4FE8-BAB7-92996C9F1AF3}"/>
-    <hyperlink ref="P85" r:id="rId7" xr:uid="{3F3ABC18-788E-4091-A62F-7E615F8B15FE}"/>
-    <hyperlink ref="P62" r:id="rId8" xr:uid="{8EB78553-7BB2-4642-8D2D-98CCAF4776F8}"/>
-    <hyperlink ref="P112" r:id="rId9" xr:uid="{BCAA6C8F-2334-42B4-9DC7-4F04FF303F85}"/>
-    <hyperlink ref="P126" r:id="rId10" xr:uid="{06FCBD54-2AC3-4FE8-A27B-1897BF39C1CD}"/>
-    <hyperlink ref="P142" r:id="rId11" xr:uid="{0BD82BDF-9967-4BED-8402-DB809D0F2516}"/>
-    <hyperlink ref="R27" r:id="rId12" xr:uid="{2393CB99-FDFD-4CC6-99F2-C539732221A1}"/>
-    <hyperlink ref="P157" r:id="rId13" xr:uid="{54A1B262-93A0-4D29-A158-55A6867F8BA3}"/>
-    <hyperlink ref="P48" r:id="rId14" xr:uid="{D70CEE23-6DAA-4B5B-9B83-722FB78A3644}"/>
-    <hyperlink ref="P59" r:id="rId15" xr:uid="{B05FC70F-8031-42A6-B8C4-C710C1A0531C}"/>
-    <hyperlink ref="P94" r:id="rId16" xr:uid="{BB050392-F7EC-428F-95D6-08E6B3C351F0}"/>
-    <hyperlink ref="P95" r:id="rId17" xr:uid="{F8428AC5-63C0-439A-A07C-303E816F5DAC}"/>
-    <hyperlink ref="P114" r:id="rId18" xr:uid="{92C44F3D-9541-463F-8604-0C45F1EF69A3}"/>
-    <hyperlink ref="P51" r:id="rId19" xr:uid="{2B53BAFF-12E2-4F40-B2D1-70A2B1F51CFC}"/>
-    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{ADFA18F4-F2AA-4DDF-A139-7D0E93BD3284}"/>
-    <hyperlink ref="P133" r:id="rId21" xr:uid="{5683E5CE-306D-43C0-8A77-611187A6EEE3}"/>
-    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{B7CEEDA3-E05A-4CBE-8C23-A14DADDBBCBD}"/>
-    <hyperlink ref="P342" r:id="rId23" xr:uid="{D3533793-9177-4AE8-AC1A-C82254C65329}"/>
+    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
+    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
+    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
+    <hyperlink ref="P25" r:id="rId4"/>
+    <hyperlink ref="P26" r:id="rId5"/>
+    <hyperlink ref="P32" r:id="rId6"/>
+    <hyperlink ref="P85" r:id="rId7"/>
+    <hyperlink ref="P62" r:id="rId8"/>
+    <hyperlink ref="P112" r:id="rId9"/>
+    <hyperlink ref="P126" r:id="rId10"/>
+    <hyperlink ref="P142" r:id="rId11"/>
+    <hyperlink ref="R27" r:id="rId12"/>
+    <hyperlink ref="P157" r:id="rId13"/>
+    <hyperlink ref="P48" r:id="rId14"/>
+    <hyperlink ref="P59" r:id="rId15"/>
+    <hyperlink ref="P94" r:id="rId16"/>
+    <hyperlink ref="P95" r:id="rId17"/>
+    <hyperlink ref="P114" r:id="rId18"/>
+    <hyperlink ref="P51" r:id="rId19"/>
+    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
+    <hyperlink ref="P133" r:id="rId21"/>
+    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
+    <hyperlink ref="P342" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -10618,48 +10647,103 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFBC04-9E84-4EFC-9E69-733CCCECF823}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B10" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A4C30-0199-473B-B8D7-19A580D2CA9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>indiegame</t>
   </si>
   <si>
-    <t>unity?</t>
-  </si>
-  <si>
     <t>ecology</t>
   </si>
   <si>
@@ -2302,6 +2299,9 @@
   </si>
   <si>
     <t>` @biogridgame</t>
+  </si>
+  <si>
+    <t>unity3d</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2809,7 @@
         <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>20</v>
@@ -2836,13 +2836,13 @@
         <v>28</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>55</v>
@@ -3008,7 +3008,7 @@
         <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -3017,7 +3017,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>4</v>
@@ -3052,16 +3052,16 @@
         <v>44060</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10"/>
@@ -3077,16 +3077,16 @@
         <v>44063</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11"/>
@@ -3102,16 +3102,16 @@
         <v>44067</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12"/>
@@ -3127,7 +3127,7 @@
         <v>44070</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -3136,10 +3136,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13"/>
@@ -3155,25 +3155,25 @@
         <v>44077</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>37</v>
@@ -3188,16 +3188,16 @@
         <v>54</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -3276,17 +3276,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3360,21 +3360,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>206</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>9.4</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>2.2999999999999998</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>1.6</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3460,12 +3460,12 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>0.3</v>
@@ -3485,12 +3485,12 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>7.0000000000000007E-2</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>0.05</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>0.02</v>
@@ -3576,132 +3576,132 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -3748,57 +3748,57 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>162</v>
       </c>
       <c r="K1" t="s">
         <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2">
         <v>3300</v>
@@ -3811,10 +3811,10 @@
         <v>3300</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" t="s">
         <v>445</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>446</v>
       </c>
       <c r="S2">
         <f>COUNTA(B2:N2)</f>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3836,10 +3836,10 @@
         <v>2000</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">COUNTA(B3:N3)</f>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4">
         <v>1700</v>
@@ -3864,10 +3864,10 @@
         <v>1700</v>
       </c>
       <c r="P4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q4" t="s">
         <v>449</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>450</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -3889,13 +3889,13 @@
         <v>1600</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H6">
         <v>1500</v>
@@ -3917,7 +3917,7 @@
         <v>1500</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E7">
         <v>933</v>
@@ -3936,10 +3936,10 @@
         <v>933</v>
       </c>
       <c r="P7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8">
         <v>774</v>
@@ -3961,7 +3961,7 @@
         <v>774</v>
       </c>
       <c r="P8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9">
         <v>762</v>
@@ -3983,7 +3983,7 @@
         <v>762</v>
       </c>
       <c r="P9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10">
         <v>658</v>
@@ -4005,7 +4005,7 @@
         <v>658</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F11">
         <v>311</v>
@@ -4027,7 +4027,7 @@
         <v>584</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H12">
         <v>574</v>
@@ -4049,7 +4049,7 @@
         <v>574</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13">
         <v>562</v>
@@ -4068,10 +4068,10 @@
         <v>562</v>
       </c>
       <c r="P13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H14">
         <v>495</v>
@@ -4090,7 +4090,7 @@
         <v>495</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H15">
         <v>474</v>
@@ -4112,7 +4112,7 @@
         <v>474</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16">
         <v>66</v>
@@ -4137,7 +4137,7 @@
         <v>407</v>
       </c>
       <c r="P16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17">
         <v>59</v>
@@ -4165,7 +4165,7 @@
         <v>372</v>
       </c>
       <c r="P17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>310</v>
@@ -4184,10 +4184,10 @@
         <v>310</v>
       </c>
       <c r="P18" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H19">
         <v>305</v>
@@ -4209,7 +4209,7 @@
         <v>305</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H20">
         <v>297</v>
@@ -4228,7 +4228,7 @@
         <v>297</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G21">
         <v>295</v>
@@ -4247,7 +4247,7 @@
         <v>295</v>
       </c>
       <c r="P21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22">
         <v>92</v>
@@ -4272,7 +4272,7 @@
         <v>290</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23">
         <v>0.2</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G24">
         <v>286</v>
@@ -4307,13 +4307,13 @@
         <v>286</v>
       </c>
       <c r="P24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q24" t="s">
+        <v>484</v>
+      </c>
+      <c r="R24" t="s">
         <v>485</v>
-      </c>
-      <c r="R24" t="s">
-        <v>486</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4335,7 +4335,7 @@
         <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26">
         <v>102</v>
@@ -4360,10 +4360,10 @@
         <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27">
         <v>249</v>
@@ -4382,13 +4382,13 @@
         <v>249</v>
       </c>
       <c r="P27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H28">
         <v>236</v>
@@ -4410,7 +4410,7 @@
         <v>236</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29">
         <v>222</v>
@@ -4432,7 +4432,7 @@
         <v>222</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G30">
         <v>221</v>
@@ -4451,7 +4451,7 @@
         <v>221</v>
       </c>
       <c r="P30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G31">
         <v>215</v>
@@ -4470,10 +4470,10 @@
         <v>215</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>212</v>
@@ -4492,7 +4492,7 @@
         <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33">
         <v>204</v>
@@ -4514,7 +4514,7 @@
         <v>204</v>
       </c>
       <c r="P33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E34">
         <v>22</v>
@@ -4536,10 +4536,10 @@
         <v>204</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q34" t="s">
         <v>458</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>459</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -4564,7 +4564,7 @@
         <v>196</v>
       </c>
       <c r="P35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36">
         <v>164</v>
@@ -4589,10 +4589,10 @@
         <v>164</v>
       </c>
       <c r="P36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G37">
         <v>162</v>
@@ -4614,10 +4614,10 @@
         <v>162</v>
       </c>
       <c r="P37" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q37" t="s">
         <v>518</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>519</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38">
         <v>154</v>
@@ -4636,10 +4636,10 @@
         <v>154</v>
       </c>
       <c r="P38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G39">
         <v>146</v>
@@ -4658,10 +4658,10 @@
         <v>146</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40">
         <v>146</v>
@@ -4686,10 +4686,10 @@
         <v>146</v>
       </c>
       <c r="P40" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q40" t="s">
         <v>534</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>535</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41">
         <v>143</v>
@@ -4711,10 +4711,10 @@
         <v>143</v>
       </c>
       <c r="P41" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q41" t="s">
         <v>544</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>545</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42">
         <v>5.0999999999999996</v>
@@ -4736,10 +4736,10 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G43">
         <v>136</v>
@@ -4761,7 +4761,7 @@
         <v>136</v>
       </c>
       <c r="P43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G44">
         <v>126</v>
@@ -4783,7 +4783,7 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45">
         <v>52</v>
@@ -4808,7 +4808,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G46">
         <v>114</v>
@@ -4827,7 +4827,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G47">
         <v>112</v>
@@ -4846,7 +4846,7 @@
         <v>112</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F48">
         <v>111</v>
@@ -4874,7 +4874,7 @@
         <v>111</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G49">
         <v>108</v>
@@ -4893,10 +4893,10 @@
         <v>108</v>
       </c>
       <c r="P49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R49" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F50">
         <v>5.7</v>
@@ -4921,7 +4921,7 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E51">
         <v>99</v>
@@ -4940,7 +4940,7 @@
         <v>99</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52">
         <v>98</v>
@@ -4959,10 +4959,10 @@
         <v>98</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53">
         <v>97</v>
@@ -4981,7 +4981,7 @@
         <v>97</v>
       </c>
       <c r="R53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E54">
         <v>92</v>
@@ -5003,7 +5003,7 @@
         <v>92</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H55">
         <v>86</v>
@@ -5022,7 +5022,7 @@
         <v>86</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H56">
         <v>84</v>
@@ -5047,10 +5047,10 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G57">
         <v>82</v>
@@ -5069,7 +5069,7 @@
         <v>82</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G58">
         <v>78</v>
@@ -5091,10 +5091,10 @@
         <v>78</v>
       </c>
       <c r="P58" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q58" t="s">
         <v>540</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>541</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59">
         <v>76</v>
@@ -5116,7 +5116,7 @@
         <v>76</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H60">
         <v>68</v>
@@ -5138,10 +5138,10 @@
         <v>68</v>
       </c>
       <c r="P60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H61">
         <v>67</v>
@@ -5160,10 +5160,10 @@
         <v>67</v>
       </c>
       <c r="P61" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="R61" t="s">
         <v>603</v>
-      </c>
-      <c r="R61" t="s">
-        <v>604</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G62">
         <v>17</v>
@@ -5188,7 +5188,7 @@
         <v>66</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63">
         <v>41</v>
@@ -5222,7 +5222,7 @@
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E64">
         <v>58</v>
@@ -5244,10 +5244,10 @@
         <v>58</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F65">
         <v>4.2</v>
@@ -5269,10 +5269,10 @@
         <v>56</v>
       </c>
       <c r="P65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q65" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -5291,7 +5291,7 @@
         <v>55</v>
       </c>
       <c r="P66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G67">
         <v>55</v>
@@ -5310,7 +5310,7 @@
         <v>55</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S130" si="3">COUNTA(B67:N67)</f>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E68">
         <v>55</v>
@@ -5332,7 +5332,7 @@
         <v>55</v>
       </c>
       <c r="P68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S68">
         <f t="shared" si="3"/>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -5351,7 +5351,7 @@
         <v>54</v>
       </c>
       <c r="P69" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S69">
         <f t="shared" si="3"/>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70">
         <v>53</v>
@@ -5376,10 +5376,10 @@
         <v>53</v>
       </c>
       <c r="P70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S70">
         <f t="shared" si="3"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B71">
         <v>55</v>
@@ -5407,7 +5407,7 @@
         <v>64</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S71">
         <f t="shared" si="3"/>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G72">
         <v>51</v>
@@ -5426,10 +5426,10 @@
         <v>51</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S72">
         <f t="shared" si="3"/>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G73">
         <v>49</v>
@@ -5451,7 +5451,7 @@
         <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S73">
         <f t="shared" si="3"/>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E74">
         <v>17</v>
@@ -5473,7 +5473,7 @@
         <v>46</v>
       </c>
       <c r="P74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S74">
         <f t="shared" si="3"/>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G75">
         <v>45</v>
@@ -5492,7 +5492,7 @@
         <v>45</v>
       </c>
       <c r="P75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S75">
         <f t="shared" si="3"/>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F76">
         <v>16</v>
@@ -5517,10 +5517,10 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S76">
         <f t="shared" si="3"/>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77">
         <v>43</v>
@@ -5539,7 +5539,7 @@
         <v>43</v>
       </c>
       <c r="P77" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S77">
         <f t="shared" si="3"/>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G78">
         <v>42</v>
@@ -5561,7 +5561,7 @@
         <v>42</v>
       </c>
       <c r="P78" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S78">
         <f t="shared" si="3"/>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -5586,10 +5586,10 @@
         <v>40</v>
       </c>
       <c r="P79" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S79">
         <f t="shared" si="3"/>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G80">
         <v>39</v>
@@ -5614,7 +5614,7 @@
         <v>39</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S80">
         <f t="shared" si="3"/>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G81">
         <v>39</v>
@@ -5633,7 +5633,7 @@
         <v>39</v>
       </c>
       <c r="P81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S81">
         <f t="shared" si="3"/>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82">
         <v>38</v>
@@ -5652,7 +5652,7 @@
         <v>38</v>
       </c>
       <c r="P82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S82">
         <f t="shared" si="3"/>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G83">
         <v>38</v>
@@ -5674,7 +5674,7 @@
         <v>38</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S83">
         <f t="shared" si="3"/>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>34</v>
@@ -5693,10 +5693,10 @@
         <v>34</v>
       </c>
       <c r="P84" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q84" t="s">
         <v>463</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>464</v>
       </c>
       <c r="S84">
         <f t="shared" si="3"/>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85">
         <v>34</v>
@@ -5715,10 +5715,10 @@
         <v>34</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S85">
         <f t="shared" si="3"/>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -5737,7 +5737,7 @@
         <v>33</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S86">
         <f t="shared" si="3"/>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G87">
         <v>32</v>
@@ -5756,7 +5756,7 @@
         <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S87">
         <f t="shared" si="3"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -5775,7 +5775,7 @@
         <v>30</v>
       </c>
       <c r="P88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S88">
         <f t="shared" si="3"/>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -5797,10 +5797,10 @@
         <v>28</v>
       </c>
       <c r="P89" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S89">
         <f t="shared" si="3"/>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G90">
         <v>27</v>
@@ -5822,7 +5822,7 @@
         <v>27</v>
       </c>
       <c r="P90" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S90">
         <f t="shared" si="3"/>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91">
         <v>6.4</v>
@@ -5844,10 +5844,10 @@
         <v>27</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q91" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S91">
         <f t="shared" si="3"/>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G92">
         <v>27</v>
@@ -5872,7 +5872,7 @@
         <v>27</v>
       </c>
       <c r="P92" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S92">
         <f t="shared" si="3"/>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G93">
         <v>26</v>
@@ -5891,7 +5891,7 @@
         <v>26</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S93">
         <f t="shared" si="3"/>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G94">
         <v>26</v>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S94">
         <f t="shared" si="3"/>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G95">
         <v>26</v>
@@ -5932,7 +5932,7 @@
         <v>26</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S95">
         <f t="shared" si="3"/>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H96">
         <v>26</v>
@@ -5951,7 +5951,7 @@
         <v>26</v>
       </c>
       <c r="P96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S96">
         <f t="shared" si="3"/>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E97">
         <v>24</v>
@@ -5973,10 +5973,10 @@
         <v>24</v>
       </c>
       <c r="P97" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R97" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S97">
         <f t="shared" si="3"/>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G98">
         <v>23</v>
@@ -5995,7 +5995,7 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S98">
         <f t="shared" si="3"/>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H99">
         <v>23</v>
@@ -6014,10 +6014,10 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R99" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S99">
         <f t="shared" si="3"/>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F100">
         <v>7.3</v>
@@ -6042,7 +6042,7 @@
         <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S100">
         <f t="shared" si="3"/>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E101">
         <v>22</v>
@@ -6061,10 +6061,10 @@
         <v>22</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S101">
         <f t="shared" si="3"/>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G102">
         <v>21</v>
@@ -6083,7 +6083,7 @@
         <v>21</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S102">
         <f t="shared" si="3"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G103">
         <v>21</v>
@@ -6105,10 +6105,10 @@
         <v>21</v>
       </c>
       <c r="P103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q103" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S103">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G104">
         <v>21</v>
@@ -6127,7 +6127,7 @@
         <v>21</v>
       </c>
       <c r="P104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S104">
         <f t="shared" si="3"/>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -6149,7 +6149,7 @@
         <v>21</v>
       </c>
       <c r="P105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S105">
         <f t="shared" si="3"/>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G106">
         <v>18</v>
@@ -6168,7 +6168,7 @@
         <v>18</v>
       </c>
       <c r="P106" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S106">
         <f t="shared" si="3"/>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E107">
         <v>17</v>
@@ -6190,7 +6190,7 @@
         <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S107">
         <f t="shared" si="3"/>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H108">
         <v>16</v>
@@ -6215,7 +6215,7 @@
         <v>16</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S108">
         <f t="shared" si="3"/>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G109">
         <v>15</v>
@@ -6234,10 +6234,10 @@
         <v>15</v>
       </c>
       <c r="P109" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S109">
         <f t="shared" si="3"/>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G110">
         <v>14</v>
@@ -6259,10 +6259,10 @@
         <v>14</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Q110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S110">
         <f t="shared" si="3"/>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -6281,13 +6281,13 @@
         <v>13</v>
       </c>
       <c r="P111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q111" t="s">
+        <v>473</v>
+      </c>
+      <c r="R111" t="s">
         <v>474</v>
-      </c>
-      <c r="R111" t="s">
-        <v>475</v>
       </c>
       <c r="S111">
         <f t="shared" si="3"/>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E112">
         <v>0.6</v>
@@ -6309,10 +6309,10 @@
         <v>13</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S112">
         <f t="shared" si="3"/>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G113">
         <v>12</v>
@@ -6334,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="P113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S113">
         <f t="shared" si="3"/>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F114">
         <v>1.2</v>
@@ -6356,10 +6356,10 @@
         <v>12</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S114">
         <f t="shared" si="3"/>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -6381,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="P115" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S115">
         <f t="shared" si="3"/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G116">
         <v>11</v>
@@ -6400,10 +6400,10 @@
         <v>11</v>
       </c>
       <c r="P116" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q116" t="s">
         <v>577</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>578</v>
       </c>
       <c r="S116">
         <f t="shared" si="3"/>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G117">
         <v>11</v>
@@ -6422,13 +6422,13 @@
         <v>11</v>
       </c>
       <c r="P117" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>578</v>
+      </c>
+      <c r="R117" t="s">
         <v>580</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>579</v>
-      </c>
-      <c r="R117" t="s">
-        <v>581</v>
       </c>
       <c r="S117">
         <f t="shared" si="3"/>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G118">
         <v>11</v>
@@ -6450,7 +6450,7 @@
         <v>11</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S118">
         <f t="shared" si="3"/>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -6472,7 +6472,7 @@
         <v>10</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S119">
         <f t="shared" si="3"/>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -6491,10 +6491,10 @@
         <v>10</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S120">
         <f t="shared" si="3"/>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G121">
         <v>9.9</v>
@@ -6516,7 +6516,7 @@
         <v>9.9</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="S121">
         <f t="shared" si="3"/>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G122">
         <v>9.6999999999999993</v>
@@ -6535,7 +6535,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="S122">
         <f t="shared" si="3"/>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -6557,7 +6557,7 @@
         <v>9</v>
       </c>
       <c r="P123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S123">
         <f t="shared" si="3"/>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G124">
         <v>8.6999999999999993</v>
@@ -6576,7 +6576,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S124">
         <f t="shared" si="3"/>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G125">
         <v>8.6</v>
@@ -6601,7 +6601,7 @@
         <v>8.6</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S125">
         <f t="shared" si="3"/>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>8.5</v>
@@ -6620,10 +6620,10 @@
         <v>8.5</v>
       </c>
       <c r="P126" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q126" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S126">
         <f t="shared" si="3"/>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G127">
         <v>7.9</v>
@@ -6642,7 +6642,7 @@
         <v>7.9</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S127">
         <f t="shared" si="3"/>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E128">
         <v>7.4</v>
@@ -6661,7 +6661,7 @@
         <v>7.4</v>
       </c>
       <c r="P128" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S128">
         <f t="shared" si="3"/>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G129">
         <v>7.1</v>
@@ -6680,10 +6680,10 @@
         <v>7.1</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S129">
         <f t="shared" si="3"/>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -6702,7 +6702,7 @@
         <v>7</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S130">
         <f t="shared" si="3"/>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G131">
         <v>6.8</v>
@@ -6721,10 +6721,10 @@
         <v>6.8</v>
       </c>
       <c r="P131" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R131" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S194" si="5">COUNTA(B131:N131)</f>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G132">
         <v>6.5</v>
@@ -6743,10 +6743,10 @@
         <v>6.5</v>
       </c>
       <c r="P132" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R132" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S132">
         <f t="shared" si="5"/>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E133">
         <v>6.5</v>
@@ -6765,7 +6765,7 @@
         <v>6.5</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S133">
         <f t="shared" si="5"/>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G134">
         <v>6.4</v>
@@ -6784,7 +6784,7 @@
         <v>6.4</v>
       </c>
       <c r="R134" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S134">
         <f t="shared" si="5"/>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G135">
         <v>5.9</v>
@@ -6803,7 +6803,7 @@
         <v>5.9</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="S135">
         <f t="shared" si="5"/>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H136">
         <v>5.6</v>
@@ -6822,10 +6822,10 @@
         <v>5.6</v>
       </c>
       <c r="P136" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R136" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S136">
         <f t="shared" si="5"/>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137">
         <v>5.5</v>
@@ -6850,7 +6850,7 @@
         <v>5.5</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S137">
         <f t="shared" si="5"/>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G138">
         <v>5.3</v>
@@ -6872,7 +6872,7 @@
         <v>5.3</v>
       </c>
       <c r="P138" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S138">
         <f t="shared" si="5"/>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B139">
         <v>5.2</v>
@@ -6891,10 +6891,10 @@
         <v>5.2</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R139" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S139">
         <f t="shared" si="5"/>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G140">
         <v>5.2</v>
@@ -6913,7 +6913,7 @@
         <v>5.2</v>
       </c>
       <c r="P140" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S140">
         <f t="shared" si="5"/>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B141">
         <v>4.5</v>
@@ -6932,7 +6932,7 @@
         <v>4.5</v>
       </c>
       <c r="R141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S141">
         <f t="shared" si="5"/>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142">
         <v>4.5</v>
@@ -6951,7 +6951,7 @@
         <v>4.5</v>
       </c>
       <c r="P142" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S142">
         <f t="shared" si="5"/>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143">
         <v>4.5</v>
@@ -6970,7 +6970,7 @@
         <v>4.5</v>
       </c>
       <c r="P143" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S143">
         <f t="shared" si="5"/>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G144">
         <v>4.5</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G145">
         <v>4.5</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G146">
         <v>4.5</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B147">
         <v>4.3</v>
@@ -7037,7 +7037,7 @@
         <v>4.3</v>
       </c>
       <c r="R147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S147">
         <f t="shared" si="5"/>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H148">
         <v>4.3</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E149">
         <v>4.3</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B150">
         <v>4.0999999999999996</v>
@@ -7088,10 +7088,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="P150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q150" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S150">
         <f t="shared" si="5"/>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G151">
         <v>3.9</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G152">
         <v>3.9</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153">
         <v>1.8</v>
@@ -7151,7 +7151,7 @@
         <v>3.9</v>
       </c>
       <c r="P153" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S153">
         <f t="shared" si="5"/>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J154">
         <v>3.9</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G155">
         <v>3.8</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D156">
         <v>3.7</v>
@@ -7202,10 +7202,10 @@
         <v>3.7</v>
       </c>
       <c r="P156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q156" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S156">
         <f t="shared" si="5"/>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B157">
         <v>3.6</v>
@@ -7224,10 +7224,10 @@
         <v>3.6</v>
       </c>
       <c r="P157" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q157" t="s">
         <v>503</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>504</v>
       </c>
       <c r="S157">
         <f t="shared" si="5"/>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G158">
         <v>3.5</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E159">
         <v>3.4</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G162">
         <v>2.8</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H163">
         <v>2.8</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G164">
         <v>2.7</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G165">
         <v>2.7</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E166">
         <v>2.7</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B167">
         <v>2.5</v>
@@ -7390,10 +7390,10 @@
         <v>2.5</v>
       </c>
       <c r="P167" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q167" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S167">
         <f t="shared" si="5"/>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G168">
         <v>2.5</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G169">
         <v>2.5</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G170">
         <v>2.5</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B171">
         <v>2.4</v>
@@ -7460,10 +7460,10 @@
         <v>2.4</v>
       </c>
       <c r="P171" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q171" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S171">
         <f t="shared" si="5"/>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B172">
         <v>2.2999999999999998</v>
@@ -7482,7 +7482,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="P172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S172">
         <f t="shared" si="5"/>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G173">
         <v>2.2999999999999998</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G174">
         <v>2.2000000000000002</v>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E176">
         <v>1.7</v>
@@ -7555,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="Q176" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S176">
         <f t="shared" si="5"/>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C177">
         <v>1.9</v>
@@ -7574,7 +7574,7 @@
         <v>1.9</v>
       </c>
       <c r="P177" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S177">
         <f t="shared" si="5"/>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G178">
         <v>1.8</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G179">
         <v>1.8</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G180">
         <v>1.8</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E181">
         <v>1.8</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G182">
         <v>1.7</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G183">
         <v>1.7</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E184">
         <v>1.6</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E185">
         <v>1.6</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C186">
         <v>1.5</v>
@@ -7721,7 +7721,7 @@
         <v>1.5</v>
       </c>
       <c r="P186" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S186">
         <f t="shared" si="5"/>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E187">
         <v>0.2</v>
@@ -7746,7 +7746,7 @@
         <v>1.5</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S187">
         <f t="shared" si="5"/>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E188">
         <v>1.5</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C189">
         <v>1.4</v>
@@ -7781,7 +7781,7 @@
         <v>1.4</v>
       </c>
       <c r="P189" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S189">
         <f t="shared" si="5"/>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G190">
         <v>1.4</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G191">
         <v>1.4</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G192">
         <v>1.4</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G193">
         <v>1.4</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G194">
         <v>1.4</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G195">
         <v>1.4</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B196">
         <v>1.3</v>
@@ -7896,10 +7896,10 @@
         <v>1.3</v>
       </c>
       <c r="P196" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q196" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S196">
         <f t="shared" si="7"/>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G197">
         <v>1.3</v>
@@ -7921,7 +7921,7 @@
         <v>1.3</v>
       </c>
       <c r="P197" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S197">
         <f t="shared" si="7"/>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G198">
         <v>1.3</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B199">
         <v>1.2</v>
@@ -7956,10 +7956,10 @@
         <v>1.2</v>
       </c>
       <c r="P199" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q199" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S199">
         <f t="shared" si="7"/>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C200">
         <v>1.2</v>
@@ -7978,10 +7978,10 @@
         <v>1.2</v>
       </c>
       <c r="P200" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q200" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S200">
         <f t="shared" si="7"/>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D201">
         <v>1.2</v>
@@ -8000,7 +8000,7 @@
         <v>1.2</v>
       </c>
       <c r="P201" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S201">
         <f t="shared" si="7"/>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E202">
         <v>1.2</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E203">
         <v>1.2</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G204">
         <v>1.1000000000000001</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G205">
         <v>1.1000000000000001</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G206">
         <v>1.1000000000000001</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G207">
         <v>1.1000000000000001</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E208">
         <v>1.1000000000000001</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E209">
         <v>1.1000000000000001</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D210">
         <v>0.2</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S210">
         <f t="shared" si="7"/>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C214">
         <v>0.9</v>
@@ -8223,10 +8223,10 @@
         <v>0.9</v>
       </c>
       <c r="P214" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q214" t="s">
         <v>732</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>733</v>
       </c>
       <c r="S214">
         <f t="shared" si="7"/>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C215">
         <v>0.9</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C216">
         <v>0.8</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G217">
         <v>0.8</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G218">
         <v>0.8</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G219">
         <v>0.8</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G220">
         <v>0.8</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H221">
         <v>0.8</v>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J222">
         <v>0.8</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E223">
         <v>0.8</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C224">
         <v>0.7</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C225">
         <v>0.7</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G226">
         <v>0.7</v>
@@ -8427,7 +8427,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G227">
         <v>0.7</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G228">
         <v>0.7</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G229">
         <v>0.7</v>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C230">
         <v>0.6</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G231">
         <v>0.6</v>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E232">
         <v>0.6</v>
@@ -8523,7 +8523,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C233">
         <v>0.5</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C234">
         <v>0.5</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C235">
         <v>0.5</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G236">
         <v>0.5</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E237">
         <v>0.5</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B238">
         <v>0.4</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C239">
         <v>0.4</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G240">
         <v>0.4</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J241">
         <v>0.4</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E242">
         <v>0.4</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E243">
         <v>0.4</v>
@@ -8699,7 +8699,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E244">
         <v>0.4</v>
@@ -8712,10 +8712,10 @@
         <v>0.4</v>
       </c>
       <c r="P244" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q244" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S244">
         <f t="shared" si="7"/>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G245">
         <v>0.3</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G246">
         <v>0.3</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G247">
         <v>0.3</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G248">
         <v>0.3</v>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G249">
         <v>0.3</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G250">
         <v>0.3</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G251">
         <v>0.3</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G252">
         <v>0.3</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G253">
         <v>0.3</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G254">
         <v>0.3</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J255">
         <v>0.3</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E256">
         <v>0.3</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E257">
         <v>0.3</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E258">
         <v>0.3</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E259">
         <v>0.3</v>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E260">
         <v>0.3</v>
@@ -8980,7 +8980,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E261">
         <v>0.3</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E262">
         <v>0.3</v>
@@ -9012,7 +9012,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E263">
         <v>0.247</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B264">
         <v>0.2</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D265">
         <v>0.2</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H271">
         <v>0.2</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J272">
         <v>0.2</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J273">
         <v>0.2</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J274">
         <v>0.2</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E275">
         <v>0.2</v>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E276">
         <v>0.2</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E277">
         <v>0.2</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E278">
         <v>0.2</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E279">
         <v>0.2</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E280">
         <v>0.2</v>
@@ -9300,7 +9300,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E281">
         <v>0.2</v>
@@ -9316,7 +9316,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E282">
         <v>0.2</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E283">
         <v>0.2</v>
@@ -9348,7 +9348,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E284">
         <v>0.2</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E285">
         <v>0.2</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E286">
         <v>0.2</v>
@@ -9396,7 +9396,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B287">
         <v>0.1</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C288">
         <v>0.1</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C289">
         <v>0.1</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C290">
         <v>0.1</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C291">
         <v>0.1</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -9508,7 +9508,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H296">
         <v>0.1</v>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H297">
         <v>0.1</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H298">
         <v>0.1</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J299">
         <v>0.1</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J300">
         <v>0.1</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J301">
         <v>0.1</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E302">
         <v>0.1</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E303">
         <v>0.1</v>
@@ -9668,7 +9668,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E304">
         <v>0.1</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E305">
         <v>0.1</v>
@@ -9700,7 +9700,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E306">
         <v>0.1</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D307">
         <v>7.0000000000000007E-2</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M308">
         <v>2200</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="P308" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S308">
         <f t="shared" si="9"/>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M309">
         <v>5.4</v>
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="P309" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S309">
         <f t="shared" si="9"/>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K310">
         <v>237</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="P310" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S310">
         <f t="shared" si="9"/>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M311">
         <v>14</v>
@@ -9802,10 +9802,10 @@
         <v>0</v>
       </c>
       <c r="P311" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q311" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S311">
         <f t="shared" si="9"/>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M312">
         <v>15</v>
@@ -9824,10 +9824,10 @@
         <v>0</v>
       </c>
       <c r="P312" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q312" t="s">
         <v>641</v>
-      </c>
-      <c r="Q312" t="s">
-        <v>642</v>
       </c>
       <c r="S312">
         <f t="shared" si="9"/>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K313">
         <v>73</v>
@@ -9849,10 +9849,10 @@
         <v>0</v>
       </c>
       <c r="P313" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q313" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S313">
         <f t="shared" si="9"/>
@@ -9861,7 +9861,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M314">
         <v>2.1</v>
@@ -9871,10 +9871,10 @@
         <v>0</v>
       </c>
       <c r="P314" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R314" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S314">
         <f t="shared" si="9"/>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M315">
         <v>79</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="P315" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S315">
         <f t="shared" si="9"/>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K316">
         <v>85</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="P316" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S316">
         <f t="shared" si="9"/>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G317">
         <v>7.4</v>
@@ -9940,7 +9940,7 @@
         <v>7.4</v>
       </c>
       <c r="P317" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S317">
         <f t="shared" si="9"/>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K318">
         <v>1900</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="P318" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S318">
         <f t="shared" si="9"/>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F319">
         <v>50</v>
@@ -9987,7 +9987,7 @@
         <v>50</v>
       </c>
       <c r="P319" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S319">
         <f t="shared" si="9"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M320">
         <v>148</v>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="P320" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S320">
         <f t="shared" si="9"/>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M321">
         <v>3</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="P321" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S321">
         <f t="shared" si="9"/>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M322">
         <v>45</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="P322" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S322">
         <f t="shared" si="9"/>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M323">
         <v>5.3</v>
@@ -10063,10 +10063,10 @@
         <v>0</v>
       </c>
       <c r="P323" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R323" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S323">
         <f t="shared" ref="S323:S354" si="11">COUNTA(B323:N323)</f>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M324">
         <v>7.6</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="P324" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S324">
         <f t="shared" si="11"/>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K325">
         <v>305</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="P325" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S325">
         <f t="shared" si="11"/>
@@ -10116,7 +10116,7 @@
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M326">
         <v>1.9</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="P326" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q326" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S326">
         <f t="shared" si="11"/>
@@ -10138,13 +10138,13 @@
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M327">
         <v>1.9</v>
       </c>
       <c r="P327" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S327">
         <f t="shared" si="11"/>
@@ -10153,13 +10153,13 @@
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M328">
         <v>3.3</v>
       </c>
       <c r="P328" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S328">
         <f t="shared" si="11"/>
@@ -10168,16 +10168,16 @@
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M329">
         <v>2.7</v>
       </c>
       <c r="P329" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q329" t="s">
         <v>678</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>679</v>
       </c>
       <c r="S329">
         <f t="shared" si="11"/>
@@ -10186,13 +10186,13 @@
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M330">
         <v>2</v>
       </c>
       <c r="P330" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S330">
         <f t="shared" si="11"/>
@@ -10201,7 +10201,7 @@
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K331">
         <v>1.3</v>
@@ -10210,7 +10210,7 @@
         <v>2</v>
       </c>
       <c r="P331" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S331">
         <f t="shared" si="11"/>
@@ -10219,13 +10219,13 @@
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M332">
         <v>3</v>
       </c>
       <c r="P332" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S332">
         <f t="shared" si="11"/>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K333">
         <v>519</v>
@@ -10243,7 +10243,7 @@
         <v>130</v>
       </c>
       <c r="P333" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S333">
         <f t="shared" si="11"/>
@@ -10252,13 +10252,13 @@
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M334">
         <v>3.7</v>
       </c>
       <c r="P334" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S334">
         <f t="shared" si="11"/>
@@ -10267,13 +10267,13 @@
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M335">
         <v>1.9</v>
       </c>
       <c r="P335" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S335">
         <f t="shared" si="11"/>
@@ -10282,16 +10282,16 @@
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M336">
         <v>2.8</v>
       </c>
       <c r="P336" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q336" t="s">
         <v>691</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>692</v>
       </c>
       <c r="S336">
         <f t="shared" si="11"/>
@@ -10300,16 +10300,16 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M337">
         <v>1.2</v>
       </c>
       <c r="P337" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R337" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S337">
         <f t="shared" si="11"/>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F338">
         <v>314</v>
@@ -10327,7 +10327,7 @@
         <v>93</v>
       </c>
       <c r="P338" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S338">
         <f t="shared" si="11"/>
@@ -10336,13 +10336,13 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M339">
         <v>3.1</v>
       </c>
       <c r="P339" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S339">
         <f t="shared" si="11"/>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F340">
         <v>116</v>
@@ -10360,10 +10360,10 @@
         <v>15</v>
       </c>
       <c r="P340" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q340" t="s">
         <v>701</v>
-      </c>
-      <c r="Q340" t="s">
-        <v>702</v>
       </c>
       <c r="S340">
         <f t="shared" si="11"/>
@@ -10372,13 +10372,13 @@
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M341">
         <v>13</v>
       </c>
       <c r="P341" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S341">
         <f t="shared" si="11"/>
@@ -10387,13 +10387,13 @@
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M342">
         <v>23</v>
       </c>
       <c r="P342" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S342">
         <f t="shared" si="11"/>
@@ -10402,13 +10402,13 @@
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M343">
         <v>5.3</v>
       </c>
       <c r="P343" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S343">
         <f t="shared" si="11"/>
@@ -10417,13 +10417,13 @@
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M344">
         <v>6.7</v>
       </c>
       <c r="R344" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S344">
         <f t="shared" si="11"/>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K345">
         <v>302</v>
@@ -10441,7 +10441,7 @@
         <v>139</v>
       </c>
       <c r="P345" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S345">
         <f t="shared" si="11"/>
@@ -10450,16 +10450,16 @@
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M346">
         <v>4</v>
       </c>
       <c r="P346" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q346" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S346">
         <f t="shared" si="11"/>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F347">
         <v>2.6</v>
@@ -10480,7 +10480,7 @@
         <v>6.3</v>
       </c>
       <c r="P347" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S347">
         <f t="shared" si="11"/>
@@ -10489,13 +10489,13 @@
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M348">
         <v>3.2</v>
       </c>
       <c r="P348" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S348">
         <f t="shared" si="11"/>
@@ -10504,13 +10504,13 @@
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M349">
         <v>5</v>
       </c>
       <c r="P349" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S349">
         <f t="shared" si="11"/>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K350">
         <v>574</v>
@@ -10528,7 +10528,7 @@
         <v>666</v>
       </c>
       <c r="P350" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S350">
         <f t="shared" si="11"/>
@@ -10537,13 +10537,13 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M351">
         <v>4.0999999999999996</v>
       </c>
       <c r="P351" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S351">
         <f t="shared" si="11"/>
@@ -10552,16 +10552,16 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M352">
         <v>26</v>
       </c>
       <c r="P352" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R352" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S352">
         <f t="shared" si="11"/>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K353">
         <v>0.1</v>
@@ -10579,7 +10579,7 @@
         <v>7.3</v>
       </c>
       <c r="P353" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S353">
         <f t="shared" si="11"/>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K354">
         <v>7.3</v>
@@ -10597,7 +10597,7 @@
         <v>10</v>
       </c>
       <c r="P354" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S354">
         <f t="shared" si="11"/>
@@ -10650,7 +10650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -10664,53 +10664,53 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B10" t="s">
         <v>743</v>
-      </c>
-      <c r="B10" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10E156-864A-4873-878C-E0724E2B7E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="756">
   <si>
     <t>Week</t>
   </si>
@@ -2303,11 +2304,44 @@
   <si>
     <t>unity3d</t>
   </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>2:30 'which is quite exciting', 2:48 'someone carrying shopping bags', 7:38 'yes it's perfect', 32:18 *laugh* 'this is the best creature', 43:53 'look it has little tiny feet this is brilliant', 51:53 'it is a lot of fun to play'</t>
+  </si>
+  <si>
+    <t>7:38 'oh yeah yeah yeah', 12:28 'there's a lot of animals out here, you know what that means… it's carnivore time'</t>
+  </si>
+  <si>
+    <t>no commentary, not watched</t>
+  </si>
+  <si>
+    <t>speedrun</t>
+  </si>
+  <si>
+    <t>0:08 'very sandboxy, very cool', 3:38 'really really cool', 18:31 'I really enjoy this, designing my own plants, making them look cool', 24:10 'how super interesting is this', 44:02 'this has been really really cool just to play around with', 44:14 'it's super fun just playing around with all the little bits and pieces and different leaves and see what you can do with it'</t>
+  </si>
+  <si>
+    <t>maakt ook 'upcoming' filmpjes</t>
+  </si>
+  <si>
+    <t>7:05 'there we go, ooooh' 9:40 'ooooh wow there' 9:48 'okay i was no expecting that, that did make me jump', 15:45 'yes yes... oh this is gonna be a monstrous looking plant'</t>
+  </si>
+  <si>
+    <t>1:08 'ooh that looks good', 10:10 'ooh we get a baby up here… ooh pause pause pause', 18:35 'ooh look at that xaro has a new tail', 18:55 'that looks actually quite cool', 19:36 'it's a lotta fun'</t>
+  </si>
+  <si>
+    <t>0:26 'yes oohoohooo we got lots of roots there', 1:56 'wow wow wow we got a lotta green baby plants, that's awesome… look at them go!', 3:30 'woow this is really cool', 5:44 'ooh they turned into woody plants… wow!'</t>
+  </si>
+  <si>
+    <t>1:48 'I love the music, absolutely love the music', 2:22 'I love these graphics… they're simple, they're cute and they're wonderful… so I'm very excited, the music very fitting'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2449,7 +2483,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2760,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2770,20 +2804,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1"/>
-    <col min="11" max="16" width="20.5703125" style="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="1"/>
-    <col min="21" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1"/>
+    <col min="11" max="16" width="20.5546875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" style="1"/>
+    <col min="21" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -2848,7 +2882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -2884,7 +2918,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -2903,7 +2937,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2925,7 +2959,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -2944,7 +2978,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +2997,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -2985,7 +3019,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3041,7 +3075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3066,7 +3100,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -3091,7 +3125,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -3116,7 +3150,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -3144,7 +3178,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -3200,7 +3234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3227,36 +3261,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -3267,24 +3301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3295,16 +3329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -3315,14 +3349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3333,32 +3367,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -3371,8 +3405,11 @@
       <c r="D1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3382,8 +3419,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3393,8 +3433,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3404,8 +3447,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3416,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3426,8 +3472,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -3437,8 +3486,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3448,8 +3500,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3463,7 +3518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3473,8 +3528,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3488,7 +3546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3498,8 +3556,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3509,8 +3570,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3520,8 +3584,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3531,8 +3598,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3542,8 +3612,11 @@
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3553,10 +3626,13 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17" t="s">
+        <v>748</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D17">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -3565,141 +3641,141 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>349</v>
       </c>
@@ -3710,34 +3786,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R214" sqref="R214"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -3796,7 +3872,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -3821,7 +3897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -3846,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -3874,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -3902,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -3924,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -3946,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -3968,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -3990,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -4012,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -4034,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -4056,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -4078,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -4097,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>350</v>
       </c>
@@ -4119,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -4144,7 +4220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -4172,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -4194,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -4216,7 +4292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -4235,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -4254,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -4279,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>399</v>
       </c>
@@ -4295,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -4320,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -4342,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -4370,7 +4446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -4395,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>355</v>
       </c>
@@ -4417,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -4439,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -4458,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -4480,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -4499,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -4521,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>287</v>
       </c>
@@ -4546,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>353</v>
       </c>
@@ -4571,7 +4647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -4599,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -4624,7 +4700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -4646,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>289</v>
       </c>
@@ -4668,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -4696,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -4721,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -4746,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -4768,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>525</v>
       </c>
@@ -4790,7 +4866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4815,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -4834,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -4853,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -4881,7 +4957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -4903,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4928,7 +5004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -4947,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -4969,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4988,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>423</v>
       </c>
@@ -5010,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>351</v>
       </c>
@@ -5029,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>364</v>
       </c>
@@ -5057,7 +5133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -5076,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -5101,7 +5177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -5123,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>367</v>
       </c>
@@ -5148,7 +5224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>365</v>
       </c>
@@ -5170,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -5195,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -5229,7 +5305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>395</v>
       </c>
@@ -5254,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -5279,7 +5355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -5298,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>242</v>
       </c>
@@ -5317,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>434</v>
       </c>
@@ -5339,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -5358,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>299</v>
       </c>
@@ -5386,7 +5462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>388</v>
       </c>
@@ -5414,7 +5490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -5436,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -5458,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -5480,7 +5556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -5499,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -5527,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>169</v>
       </c>
@@ -5546,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>183</v>
       </c>
@@ -5568,7 +5644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -5596,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -5621,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -5640,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -5659,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -5681,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -5703,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -5725,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -5744,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -5763,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>386</v>
       </c>
@@ -5782,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>199</v>
       </c>
@@ -5807,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -5829,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -5854,7 +5930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -5879,7 +5955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -5898,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -5917,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -5939,7 +6015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>368</v>
       </c>
@@ -5958,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>419</v>
       </c>
@@ -5983,7 +6059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -6002,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>361</v>
       </c>
@@ -6024,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -6049,7 +6125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>408</v>
       </c>
@@ -6071,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -6090,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -6110,12 +6186,15 @@
       <c r="Q103" t="s">
         <v>568</v>
       </c>
+      <c r="R103" t="s">
+        <v>751</v>
+      </c>
       <c r="S103">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -6134,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -6156,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -6175,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -6197,7 +6276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>358</v>
       </c>
@@ -6222,7 +6301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>229</v>
       </c>
@@ -6244,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -6269,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -6294,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -6319,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -6341,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>284</v>
       </c>
@@ -6366,7 +6445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>426</v>
       </c>
@@ -6388,7 +6467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -6410,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -6435,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -6457,7 +6536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -6479,7 +6558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>186</v>
       </c>
@@ -6501,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>235</v>
       </c>
@@ -6523,7 +6602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -6542,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -6564,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>304</v>
       </c>
@@ -6583,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>234</v>
       </c>
@@ -6608,7 +6687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -6630,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -6649,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>403</v>
       </c>
@@ -6668,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>263</v>
       </c>
@@ -6690,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -6709,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -6731,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>320</v>
       </c>
@@ -6753,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -6772,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -6791,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -6810,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>356</v>
       </c>
@@ -6832,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -6857,7 +6936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6879,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -6901,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -6920,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -6939,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -6958,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -6977,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -6993,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>228</v>
       </c>
@@ -7009,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>271</v>
       </c>
@@ -7025,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>110</v>
       </c>
@@ -7044,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>352</v>
       </c>
@@ -7060,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>414</v>
       </c>
@@ -7076,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>113</v>
       </c>
@@ -7098,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>267</v>
       </c>
@@ -7114,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -7130,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -7158,7 +7237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>383</v>
       </c>
@@ -7174,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -7190,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -7212,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -7234,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>268</v>
       </c>
@@ -7250,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>405</v>
       </c>
@@ -7266,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -7282,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -7298,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>273</v>
       </c>
@@ -7314,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>373</v>
       </c>
@@ -7330,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -7346,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>249</v>
       </c>
@@ -7362,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>396</v>
       </c>
@@ -7378,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -7400,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -7416,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>243</v>
       </c>
@@ -7432,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>307</v>
       </c>
@@ -7448,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -7470,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -7489,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7505,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -7521,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>285</v>
       </c>
@@ -7537,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>286</v>
       </c>
@@ -7562,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>139</v>
       </c>
@@ -7581,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -7597,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>296</v>
       </c>
@@ -7613,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>297</v>
       </c>
@@ -7629,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -7645,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>215</v>
       </c>
@@ -7661,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>225</v>
       </c>
@@ -7677,7 +7756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -7693,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>431</v>
       </c>
@@ -7709,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -7728,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>317</v>
       </c>
@@ -7753,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -7769,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -7788,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>222</v>
       </c>
@@ -7804,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>241</v>
       </c>
@@ -7820,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>319</v>
       </c>
@@ -7836,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>321</v>
       </c>
@@ -7852,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>323</v>
       </c>
@@ -7868,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -7884,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>116</v>
       </c>
@@ -7906,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>224</v>
       </c>
@@ -7928,7 +8007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>302</v>
       </c>
@@ -7944,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>119</v>
       </c>
@@ -7966,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>148</v>
       </c>
@@ -7988,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>164</v>
       </c>
@@ -8007,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>424</v>
       </c>
@@ -8023,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -8039,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>246</v>
       </c>
@@ -8055,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -8071,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>281</v>
       </c>
@@ -8087,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>310</v>
       </c>
@@ -8103,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>390</v>
       </c>
@@ -8119,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -8135,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -8160,7 +8239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -8176,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>311</v>
       </c>
@@ -8192,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>436</v>
       </c>
@@ -8208,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>134</v>
       </c>
@@ -8233,7 +8312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>154</v>
       </c>
@@ -8249,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -8265,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>94</v>
       </c>
@@ -8281,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>265</v>
       </c>
@@ -8297,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -8313,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>314</v>
       </c>
@@ -8329,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>370</v>
       </c>
@@ -8345,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>382</v>
       </c>
@@ -8361,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>397</v>
       </c>
@@ -8377,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>144</v>
       </c>
@@ -8393,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>147</v>
       </c>
@@ -8409,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -8425,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -8441,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -8457,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>312</v>
       </c>
@@ -8473,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>152</v>
       </c>
@@ -8489,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>309</v>
       </c>
@@ -8505,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>400</v>
       </c>
@@ -8521,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>129</v>
       </c>
@@ -8537,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -8553,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>149</v>
       </c>
@@ -8569,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>279</v>
       </c>
@@ -8585,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>402</v>
       </c>
@@ -8601,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>107</v>
       </c>
@@ -8617,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -8633,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>308</v>
       </c>
@@ -8649,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>381</v>
       </c>
@@ -8665,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>394</v>
       </c>
@@ -8681,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>410</v>
       </c>
@@ -8697,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>413</v>
       </c>
@@ -8722,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>208</v>
       </c>
@@ -8738,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>214</v>
       </c>
@@ -8754,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>217</v>
       </c>
@@ -8770,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>237</v>
       </c>
@@ -8786,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>239</v>
       </c>
@@ -8802,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -8818,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>261</v>
       </c>
@@ -8834,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -8850,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>305</v>
       </c>
@@ -8866,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -8882,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>378</v>
       </c>
@@ -8898,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>391</v>
       </c>
@@ -8914,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>406</v>
       </c>
@@ -8930,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -8946,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>416</v>
       </c>
@@ -8962,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>421</v>
       </c>
@@ -8978,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>428</v>
       </c>
@@ -8994,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -9010,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>409</v>
       </c>
@@ -9026,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>121</v>
       </c>
@@ -9042,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>167</v>
       </c>
@@ -9058,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>173</v>
       </c>
@@ -9074,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>205</v>
       </c>
@@ -9090,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>250</v>
       </c>
@@ -9106,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -9122,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>294</v>
       </c>
@@ -9138,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>363</v>
       </c>
@@ -9154,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>376</v>
       </c>
@@ -9170,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>379</v>
       </c>
@@ -9186,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>384</v>
       </c>
@@ -9202,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -9218,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>398</v>
       </c>
@@ -9234,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>417</v>
       </c>
@@ -9250,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>418</v>
       </c>
@@ -9266,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>420</v>
       </c>
@@ -9282,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>422</v>
       </c>
@@ -9298,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>427</v>
       </c>
@@ -9314,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>437</v>
       </c>
@@ -9330,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>438</v>
       </c>
@@ -9346,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>441</v>
       </c>
@@ -9362,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>442</v>
       </c>
@@ -9378,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>443</v>
       </c>
@@ -9394,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>114</v>
       </c>
@@ -9410,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>135</v>
       </c>
@@ -9426,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>142</v>
       </c>
@@ -9442,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>143</v>
       </c>
@@ -9458,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>145</v>
       </c>
@@ -9474,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>269</v>
       </c>
@@ -9490,7 +9569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -9506,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>280</v>
       </c>
@@ -9522,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -9538,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>362</v>
       </c>
@@ -9554,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>369</v>
       </c>
@@ -9570,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>374</v>
       </c>
@@ -9586,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>377</v>
       </c>
@@ -9602,7 +9681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>380</v>
       </c>
@@ -9618,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>385</v>
       </c>
@@ -9634,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>425</v>
       </c>
@@ -9650,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>430</v>
       </c>
@@ -9666,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>432</v>
       </c>
@@ -9682,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>435</v>
       </c>
@@ -9698,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>440</v>
       </c>
@@ -9714,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>168</v>
       </c>
@@ -9730,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>631</v>
       </c>
@@ -9749,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>632</v>
       </c>
@@ -9768,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>634</v>
       </c>
@@ -9790,7 +9869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>637</v>
       </c>
@@ -9812,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>639</v>
       </c>
@@ -9834,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>642</v>
       </c>
@@ -9859,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>647</v>
       </c>
@@ -9881,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>648</v>
       </c>
@@ -9900,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>650</v>
       </c>
@@ -9925,7 +10004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>652</v>
       </c>
@@ -9947,7 +10026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>654</v>
       </c>
@@ -9969,7 +10048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>656</v>
       </c>
@@ -9994,7 +10073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>658</v>
       </c>
@@ -10013,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>660</v>
       </c>
@@ -10032,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>662</v>
       </c>
@@ -10051,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>664</v>
       </c>
@@ -10073,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>665</v>
       </c>
@@ -10092,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>667</v>
       </c>
@@ -10114,7 +10193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>669</v>
       </c>
@@ -10136,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>672</v>
       </c>
@@ -10151,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>674</v>
       </c>
@@ -10166,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>676</v>
       </c>
@@ -10184,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -10199,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>681</v>
       </c>
@@ -10217,7 +10296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>683</v>
       </c>
@@ -10232,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>685</v>
       </c>
@@ -10250,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>687</v>
       </c>
@@ -10265,7 +10344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>689</v>
       </c>
@@ -10280,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>692</v>
       </c>
@@ -10298,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>693</v>
       </c>
@@ -10316,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>695</v>
       </c>
@@ -10334,7 +10413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>698</v>
       </c>
@@ -10349,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>699</v>
       </c>
@@ -10370,7 +10449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>702</v>
       </c>
@@ -10385,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>704</v>
       </c>
@@ -10400,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>705</v>
       </c>
@@ -10415,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>708</v>
       </c>
@@ -10430,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>710</v>
       </c>
@@ -10448,7 +10527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>712</v>
       </c>
@@ -10466,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>715</v>
       </c>
@@ -10487,7 +10566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>718</v>
       </c>
@@ -10502,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>720</v>
       </c>
@@ -10517,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>722</v>
       </c>
@@ -10535,7 +10614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>724</v>
       </c>
@@ -10550,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>725</v>
       </c>
@@ -10568,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>726</v>
       </c>
@@ -10586,7 +10665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>727</v>
       </c>
@@ -10604,42 +10683,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1">
-    <sortState ref="A2:R79">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R79">
       <sortCondition descending="1" ref="O1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:R308">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R308">
     <sortCondition descending="1" ref="O2:O308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
-    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
-    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
-    <hyperlink ref="P25" r:id="rId4"/>
-    <hyperlink ref="P26" r:id="rId5"/>
-    <hyperlink ref="P32" r:id="rId6"/>
-    <hyperlink ref="P85" r:id="rId7"/>
-    <hyperlink ref="P62" r:id="rId8"/>
-    <hyperlink ref="P112" r:id="rId9"/>
-    <hyperlink ref="P126" r:id="rId10"/>
-    <hyperlink ref="P142" r:id="rId11"/>
-    <hyperlink ref="R27" r:id="rId12"/>
-    <hyperlink ref="P157" r:id="rId13"/>
-    <hyperlink ref="P48" r:id="rId14"/>
-    <hyperlink ref="P59" r:id="rId15"/>
-    <hyperlink ref="P94" r:id="rId16"/>
-    <hyperlink ref="P95" r:id="rId17"/>
-    <hyperlink ref="P114" r:id="rId18"/>
-    <hyperlink ref="P51" r:id="rId19"/>
-    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
-    <hyperlink ref="P133" r:id="rId21"/>
-    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
-    <hyperlink ref="P342" r:id="rId23"/>
+    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="P25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="P26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="P32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="P85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="P62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="P112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="P126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="P142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="R27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="P157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="P48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="P59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="P94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="P95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="P114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="P51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="P133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="P342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -10647,32 +10726,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>735</v>
       </c>
@@ -10680,32 +10759,32 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>742</v>
       </c>
@@ -10715,33 +10794,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10E156-864A-4873-878C-E0724E2B7E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="763">
   <si>
     <t>Week</t>
   </si>
@@ -2335,13 +2334,34 @@
     <t>0:26 'yes oohoohooo we got lots of roots there', 1:56 'wow wow wow we got a lotta green baby plants, that's awesome… look at them go!', 3:30 'woow this is really cool', 5:44 'ooh they turned into woody plants… wow!'</t>
   </si>
   <si>
-    <t>1:48 'I love the music, absolutely love the music', 2:22 'I love these graphics… they're simple, they're cute and they're wonderful… so I'm very excited, the music very fitting'</t>
+    <t>1:48 'I love the music, absolutely love the music', 2:22 'the music is pleasent, I love these graphics… they're simple, they're cute and they're wonderful… so I'm very excited, the music very fitting'</t>
+  </si>
+  <si>
+    <t>0:42 'oh the art's really good', 1:50 'oh and we can put leaves on it, that's so neat', 2:20 'oh my god htis is wonderful', 2:49 'this is so neat, if you can't tell i love games like this, this is like a lot of fun to me', 6:50 'this is everything i wanted [...] i'm way too happy about this [...] this game is everything i was hoping it would be, but more'; 5:16 'oh my god this is beautiful', 12:08 'oh my god this game is litterly made for us guys'</t>
+  </si>
+  <si>
+    <t>Mail sent</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>0:50 'oh my god I got just chills all over my god damn body', 1:22 'this is beautiful, it's so cute!', 4:18 'oh my god it's so pretty', 5:34 'i did it, i love it', 11:40 'oh god i love it so much', 23:19 'oh my god that was just so fun I loved that'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2416,7 +2436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,6 +2446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,7 +2469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2480,10 +2506,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2794,30 +2822,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1"/>
-    <col min="11" max="16" width="20.5546875" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" style="1"/>
-    <col min="21" max="16384" width="20.5546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1"/>
+    <col min="11" max="16" width="20.5703125" style="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="1"/>
+    <col min="21" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -2882,7 +2910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -2899,7 +2927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -2918,7 +2946,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -2937,7 +2965,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2959,7 +2987,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -2978,7 +3006,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2997,7 +3025,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -3019,7 +3047,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3075,7 +3103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3100,7 +3128,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -3125,7 +3153,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -3150,7 +3178,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -3178,7 +3206,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -3234,7 +3262,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3261,36 +3289,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -3301,24 +3329,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3329,16 +3357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -3349,14 +3377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3367,49 +3395,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3422,8 +3456,14 @@
       <c r="E2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3436,8 +3476,14 @@
       <c r="E3" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3450,8 +3496,14 @@
       <c r="E4" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3461,8 +3513,17 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3475,8 +3536,14 @@
       <c r="E6" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>761</v>
+      </c>
+      <c r="G6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -3489,8 +3556,14 @@
       <c r="D7" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>759</v>
+      </c>
+      <c r="G7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3503,8 +3576,14 @@
       <c r="E8" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>761</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3517,8 +3596,14 @@
       <c r="D9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>760</v>
+      </c>
+      <c r="G9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3531,8 +3616,14 @@
       <c r="E10" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>761</v>
+      </c>
+      <c r="G10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3545,8 +3636,14 @@
       <c r="D11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>760</v>
+      </c>
+      <c r="G11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3559,8 +3656,14 @@
       <c r="D12" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>760</v>
+      </c>
+      <c r="G12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3573,8 +3676,14 @@
       <c r="D13" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3587,8 +3696,14 @@
       <c r="D14" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>760</v>
+      </c>
+      <c r="G14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3601,8 +3716,14 @@
       <c r="D15" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>760</v>
+      </c>
+      <c r="G15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3615,8 +3736,14 @@
       <c r="E16" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>761</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3629,153 +3756,173 @@
       <c r="D17" t="s">
         <v>748</v>
       </c>
+      <c r="F17" t="s">
+        <v>760</v>
+      </c>
+      <c r="G17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>762</v>
+      </c>
+      <c r="F18" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18" t="s">
+        <v>529</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:A34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>349</v>
       </c>
@@ -3786,34 +3933,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -3872,7 +4019,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -3897,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -3922,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -3950,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -3978,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>357</v>
       </c>
@@ -4000,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -4022,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -4044,7 +4191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -4066,7 +4213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -4088,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -4110,7 +4257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -4132,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -4154,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -4173,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>350</v>
       </c>
@@ -4195,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -4220,7 +4367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>354</v>
       </c>
@@ -4248,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -4270,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>360</v>
       </c>
@@ -4292,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -4311,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -4330,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -4355,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>399</v>
       </c>
@@ -4371,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -4396,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -4418,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -4446,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -4471,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>355</v>
       </c>
@@ -4493,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -4515,7 +4662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -4534,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -4556,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -4575,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -4597,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>287</v>
       </c>
@@ -4622,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>353</v>
       </c>
@@ -4647,7 +4794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -4675,7 +4822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -4700,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -4722,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>289</v>
       </c>
@@ -4744,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>244</v>
       </c>
@@ -4772,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -4797,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -4822,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -4844,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>525</v>
       </c>
@@ -4866,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -4891,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
@@ -4910,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -4929,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -4957,7 +5104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -4979,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -5004,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>401</v>
       </c>
@@ -5023,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -5045,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -5064,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>423</v>
       </c>
@@ -5086,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>351</v>
       </c>
@@ -5105,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>364</v>
       </c>
@@ -5133,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -5152,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -5177,7 +5324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -5199,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>367</v>
       </c>
@@ -5224,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>365</v>
       </c>
@@ -5246,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -5271,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -5305,7 +5452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>395</v>
       </c>
@@ -5330,7 +5477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -5355,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -5374,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>242</v>
       </c>
@@ -5393,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>434</v>
       </c>
@@ -5415,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -5434,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>299</v>
       </c>
@@ -5462,7 +5609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>388</v>
       </c>
@@ -5490,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -5512,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>276</v>
       </c>
@@ -5534,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -5556,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>283</v>
       </c>
@@ -5575,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
@@ -5603,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>169</v>
       </c>
@@ -5622,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>183</v>
       </c>
@@ -5644,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -5672,7 +5819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -5697,7 +5844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -5716,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -5735,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -5757,7 +5904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -5779,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -5801,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -5820,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>272</v>
       </c>
@@ -5839,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>386</v>
       </c>
@@ -5858,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>199</v>
       </c>
@@ -5883,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -5905,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -5930,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -5955,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -5974,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -5993,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6015,7 +6162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>368</v>
       </c>
@@ -6034,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>419</v>
       </c>
@@ -6059,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -6078,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>361</v>
       </c>
@@ -6100,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -6125,7 +6272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>408</v>
       </c>
@@ -6147,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -6166,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -6194,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -6213,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -6235,7 +6382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -6254,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -6276,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>358</v>
       </c>
@@ -6301,7 +6448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>229</v>
       </c>
@@ -6323,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -6348,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -6373,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -6398,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>233</v>
       </c>
@@ -6420,7 +6567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>284</v>
       </c>
@@ -6445,7 +6592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>426</v>
       </c>
@@ -6467,7 +6614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -6489,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -6514,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -6536,7 +6683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -6558,7 +6705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>186</v>
       </c>
@@ -6580,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>235</v>
       </c>
@@ -6602,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -6621,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -6643,7 +6790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>304</v>
       </c>
@@ -6662,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>234</v>
       </c>
@@ -6687,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -6709,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -6728,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>403</v>
       </c>
@@ -6747,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>263</v>
       </c>
@@ -6769,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -6788,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>245</v>
       </c>
@@ -6810,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>320</v>
       </c>
@@ -6832,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -6851,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -6870,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -6889,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>356</v>
       </c>
@@ -6911,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -6936,7 +7083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6958,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -6980,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -6999,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -7018,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -7037,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -7056,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>216</v>
       </c>
@@ -7072,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>228</v>
       </c>
@@ -7088,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>271</v>
       </c>
@@ -7104,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>110</v>
       </c>
@@ -7123,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>352</v>
       </c>
@@ -7139,7 +7286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>414</v>
       </c>
@@ -7155,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>113</v>
       </c>
@@ -7177,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>267</v>
       </c>
@@ -7193,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -7209,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -7237,7 +7384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>383</v>
       </c>
@@ -7253,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -7269,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -7291,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -7313,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>268</v>
       </c>
@@ -7329,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>405</v>
       </c>
@@ -7345,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -7361,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -7377,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>273</v>
       </c>
@@ -7393,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>373</v>
       </c>
@@ -7409,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -7425,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>249</v>
       </c>
@@ -7441,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>396</v>
       </c>
@@ -7457,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -7479,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -7495,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>243</v>
       </c>
@@ -7511,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>307</v>
       </c>
@@ -7527,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -7549,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -7568,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7584,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -7600,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>285</v>
       </c>
@@ -7616,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>286</v>
       </c>
@@ -7641,7 +7788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>139</v>
       </c>
@@ -7660,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -7676,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>296</v>
       </c>
@@ -7692,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>297</v>
       </c>
@@ -7708,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -7724,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>215</v>
       </c>
@@ -7740,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>225</v>
       </c>
@@ -7756,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -7772,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>431</v>
       </c>
@@ -7788,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -7807,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>317</v>
       </c>
@@ -7832,7 +7979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -7848,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -7867,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>222</v>
       </c>
@@ -7883,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>241</v>
       </c>
@@ -7899,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>319</v>
       </c>
@@ -7915,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>321</v>
       </c>
@@ -7931,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>323</v>
       </c>
@@ -7947,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -7963,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>116</v>
       </c>
@@ -7985,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>224</v>
       </c>
@@ -8007,7 +8154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>302</v>
       </c>
@@ -8023,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>119</v>
       </c>
@@ -8045,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>148</v>
       </c>
@@ -8067,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>164</v>
       </c>
@@ -8086,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>424</v>
       </c>
@@ -8102,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -8118,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>246</v>
       </c>
@@ -8134,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -8150,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>281</v>
       </c>
@@ -8166,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>310</v>
       </c>
@@ -8182,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>390</v>
       </c>
@@ -8198,7 +8345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -8214,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>166</v>
       </c>
@@ -8239,7 +8386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>301</v>
       </c>
@@ -8255,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>311</v>
       </c>
@@ -8271,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>436</v>
       </c>
@@ -8287,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>134</v>
       </c>
@@ -8312,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>154</v>
       </c>
@@ -8328,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -8344,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>94</v>
       </c>
@@ -8360,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>265</v>
       </c>
@@ -8376,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -8392,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>314</v>
       </c>
@@ -8408,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>370</v>
       </c>
@@ -8424,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>382</v>
       </c>
@@ -8440,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>397</v>
       </c>
@@ -8456,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>144</v>
       </c>
@@ -8472,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>147</v>
       </c>
@@ -8488,7 +8635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -8504,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -8520,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -8536,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>312</v>
       </c>
@@ -8552,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>152</v>
       </c>
@@ -8568,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>309</v>
       </c>
@@ -8584,7 +8731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>400</v>
       </c>
@@ -8600,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>129</v>
       </c>
@@ -8616,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -8632,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>149</v>
       </c>
@@ -8648,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>279</v>
       </c>
@@ -8664,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>402</v>
       </c>
@@ -8680,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>107</v>
       </c>
@@ -8696,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -8712,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>308</v>
       </c>
@@ -8728,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>381</v>
       </c>
@@ -8744,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>394</v>
       </c>
@@ -8760,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>410</v>
       </c>
@@ -8776,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>413</v>
       </c>
@@ -8801,7 +8948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>208</v>
       </c>
@@ -8817,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>214</v>
       </c>
@@ -8833,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>217</v>
       </c>
@@ -8849,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>237</v>
       </c>
@@ -8865,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>239</v>
       </c>
@@ -8881,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -8897,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>261</v>
       </c>
@@ -8913,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -8929,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>305</v>
       </c>
@@ -8945,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -8961,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>378</v>
       </c>
@@ -8977,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>391</v>
       </c>
@@ -8993,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>406</v>
       </c>
@@ -9009,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -9025,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>416</v>
       </c>
@@ -9041,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>421</v>
       </c>
@@ -9057,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>428</v>
       </c>
@@ -9073,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -9089,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>409</v>
       </c>
@@ -9105,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>121</v>
       </c>
@@ -9121,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>167</v>
       </c>
@@ -9137,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>173</v>
       </c>
@@ -9153,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>205</v>
       </c>
@@ -9169,7 +9316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>250</v>
       </c>
@@ -9185,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -9201,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>294</v>
       </c>
@@ -9217,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>363</v>
       </c>
@@ -9233,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>376</v>
       </c>
@@ -9249,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>379</v>
       </c>
@@ -9265,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>384</v>
       </c>
@@ -9281,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -9297,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>398</v>
       </c>
@@ -9313,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>417</v>
       </c>
@@ -9329,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>418</v>
       </c>
@@ -9345,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>420</v>
       </c>
@@ -9361,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>422</v>
       </c>
@@ -9377,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>427</v>
       </c>
@@ -9393,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>437</v>
       </c>
@@ -9409,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>438</v>
       </c>
@@ -9425,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>441</v>
       </c>
@@ -9441,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>442</v>
       </c>
@@ -9457,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>443</v>
       </c>
@@ -9473,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>114</v>
       </c>
@@ -9489,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>135</v>
       </c>
@@ -9505,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>142</v>
       </c>
@@ -9521,7 +9668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>143</v>
       </c>
@@ -9537,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>145</v>
       </c>
@@ -9553,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>269</v>
       </c>
@@ -9569,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -9585,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>280</v>
       </c>
@@ -9601,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -9617,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>362</v>
       </c>
@@ -9633,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>369</v>
       </c>
@@ -9649,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>374</v>
       </c>
@@ -9665,7 +9812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>377</v>
       </c>
@@ -9681,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>380</v>
       </c>
@@ -9697,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>385</v>
       </c>
@@ -9713,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>425</v>
       </c>
@@ -9729,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>430</v>
       </c>
@@ -9745,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>432</v>
       </c>
@@ -9761,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>435</v>
       </c>
@@ -9777,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>440</v>
       </c>
@@ -9793,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>168</v>
       </c>
@@ -9809,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>631</v>
       </c>
@@ -9828,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>632</v>
       </c>
@@ -9847,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>634</v>
       </c>
@@ -9869,7 +10016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>637</v>
       </c>
@@ -9891,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>639</v>
       </c>
@@ -9913,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>642</v>
       </c>
@@ -9938,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>647</v>
       </c>
@@ -9960,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>648</v>
       </c>
@@ -9979,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>650</v>
       </c>
@@ -10004,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>652</v>
       </c>
@@ -10026,7 +10173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>654</v>
       </c>
@@ -10048,7 +10195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>656</v>
       </c>
@@ -10073,7 +10220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>658</v>
       </c>
@@ -10092,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>660</v>
       </c>
@@ -10111,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>662</v>
       </c>
@@ -10130,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>664</v>
       </c>
@@ -10152,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>665</v>
       </c>
@@ -10171,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>667</v>
       </c>
@@ -10193,7 +10340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>669</v>
       </c>
@@ -10215,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>672</v>
       </c>
@@ -10230,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>674</v>
       </c>
@@ -10245,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>676</v>
       </c>
@@ -10263,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -10278,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>681</v>
       </c>
@@ -10296,7 +10443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>683</v>
       </c>
@@ -10311,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>685</v>
       </c>
@@ -10329,7 +10476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>687</v>
       </c>
@@ -10344,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>689</v>
       </c>
@@ -10359,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>692</v>
       </c>
@@ -10377,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>693</v>
       </c>
@@ -10395,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>695</v>
       </c>
@@ -10413,7 +10560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>698</v>
       </c>
@@ -10428,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>699</v>
       </c>
@@ -10449,7 +10596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>702</v>
       </c>
@@ -10464,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>704</v>
       </c>
@@ -10479,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>705</v>
       </c>
@@ -10494,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>708</v>
       </c>
@@ -10509,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>710</v>
       </c>
@@ -10527,7 +10674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>712</v>
       </c>
@@ -10545,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>715</v>
       </c>
@@ -10566,7 +10713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>718</v>
       </c>
@@ -10581,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>720</v>
       </c>
@@ -10596,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>722</v>
       </c>
@@ -10614,7 +10761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>724</v>
       </c>
@@ -10629,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>725</v>
       </c>
@@ -10647,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>726</v>
       </c>
@@ -10665,7 +10812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>727</v>
       </c>
@@ -10683,42 +10830,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R79">
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R79">
       <sortCondition descending="1" ref="O1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R308">
+  <sortState ref="A2:R308">
     <sortCondition descending="1" ref="O2:O308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="P25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="P26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="P32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="P85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="P62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="P112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="P126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="P142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="R27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="P157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="P48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="P59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="P94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="P95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="P114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="P51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="P133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="P342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
+    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
+    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
+    <hyperlink ref="P25" r:id="rId4"/>
+    <hyperlink ref="P26" r:id="rId5"/>
+    <hyperlink ref="P32" r:id="rId6"/>
+    <hyperlink ref="P85" r:id="rId7"/>
+    <hyperlink ref="P62" r:id="rId8"/>
+    <hyperlink ref="P112" r:id="rId9"/>
+    <hyperlink ref="P126" r:id="rId10"/>
+    <hyperlink ref="P142" r:id="rId11"/>
+    <hyperlink ref="R27" r:id="rId12"/>
+    <hyperlink ref="P157" r:id="rId13"/>
+    <hyperlink ref="P48" r:id="rId14"/>
+    <hyperlink ref="P59" r:id="rId15"/>
+    <hyperlink ref="P94" r:id="rId16"/>
+    <hyperlink ref="P95" r:id="rId17"/>
+    <hyperlink ref="P114" r:id="rId18"/>
+    <hyperlink ref="P51" r:id="rId19"/>
+    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
+    <hyperlink ref="P133" r:id="rId21"/>
+    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
+    <hyperlink ref="P342" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -10726,32 +10873,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>735</v>
       </c>
@@ -10759,32 +10906,32 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>742</v>
       </c>
@@ -10794,33 +10941,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,8 +3779,8 @@
       <c r="F18" t="s">
         <v>759</v>
       </c>
-      <c r="G18" t="s">
-        <v>529</v>
+      <c r="G18" s="19" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="771">
   <si>
     <t>Week</t>
   </si>
@@ -2356,6 +2356,30 @@
   </si>
   <si>
     <t>0:50 'oh my god I got just chills all over my god damn body', 1:22 'this is beautiful, it's so cute!', 4:18 'oh my god it's so pretty', 5:34 'i did it, i love it', 11:40 'oh god i love it so much', 23:19 'oh my god that was just so fun I loved that'</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Paperspace</t>
   </si>
 </sst>
 </file>
@@ -3408,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +3444,7 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>104</v>
       </c>
@@ -3442,8 +3466,11 @@
       <c r="G1" s="18" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="18" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3463,7 +3490,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3479,11 +3506,14 @@
       <c r="F3" t="s">
         <v>761</v>
       </c>
-      <c r="G3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="H3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3503,7 +3533,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3523,7 +3553,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3539,11 +3569,14 @@
       <c r="F6" t="s">
         <v>761</v>
       </c>
-      <c r="G6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="H6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -3559,11 +3592,8 @@
       <c r="F7" t="s">
         <v>759</v>
       </c>
-      <c r="G7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3582,8 +3612,11 @@
       <c r="G8" s="19" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3599,11 +3632,8 @@
       <c r="F9" t="s">
         <v>760</v>
       </c>
-      <c r="G9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -3622,8 +3652,11 @@
       <c r="G10" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3639,11 +3672,8 @@
       <c r="F11" t="s">
         <v>760</v>
       </c>
-      <c r="G11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3659,11 +3689,8 @@
       <c r="F12" t="s">
         <v>760</v>
       </c>
-      <c r="G12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3679,11 +3706,8 @@
       <c r="F13" t="s">
         <v>760</v>
       </c>
-      <c r="G13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3699,11 +3723,8 @@
       <c r="F14" t="s">
         <v>760</v>
       </c>
-      <c r="G14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3719,11 +3740,8 @@
       <c r="F15" t="s">
         <v>760</v>
       </c>
-      <c r="G15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3742,8 +3760,11 @@
       <c r="G16" s="19" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3759,11 +3780,8 @@
       <c r="F17" t="s">
         <v>760</v>
       </c>
-      <c r="G17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -3781,6 +3799,9 @@
       </c>
       <c r="G18" s="19" t="s">
         <v>761</v>
+      </c>
+      <c r="H18" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -10874,10 +10895,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10937,6 +10958,11 @@
       </c>
       <c r="B10" t="s">
         <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18382E5-A6AC-43D9-9BC1-B84B254E1B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="871">
   <si>
     <t>Week</t>
   </si>
@@ -97,12 +98,6 @@
   </si>
   <si>
     <t>Webdesign delen.</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>info@player.one, pr@thegamer.com, info@askgamedev.com</t>
   </si>
   <si>
     <t>Landing page</t>
@@ -2381,11 +2376,317 @@
   <si>
     <t>Paperspace</t>
   </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>contact@rockpapershotgun.com</t>
+  </si>
+  <si>
+    <t>tips@destructoid.com</t>
+  </si>
+  <si>
+    <t>tips@kotaku.com</t>
+  </si>
+  <si>
+    <t>nathan.grayson@kotaku.com</t>
+  </si>
+  <si>
+    <t>editor@pcinvasion.com</t>
+  </si>
+  <si>
+    <t>contact@linuxgameconsortium.com</t>
+  </si>
+  <si>
+    <t>inquiries@opnoobs.com</t>
+  </si>
+  <si>
+    <t>editors@indiegamesplus.com</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>ben.maxwell@pcgamesn.com</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>rich@pcgamesn.com</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>jordan@pcgamesn.com</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>carrie.talbot@pcgamesn.com</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>dustin.bailey@pcgamesn.com</t>
+  </si>
+  <si>
+    <t>Imogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imogen.mellor@pcgamesn.com </t>
+  </si>
+  <si>
+    <t>chris.higgins@allgamers.com</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>henry.stenhouse@allgamers.com</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>morgan.shaver@allgamers.com</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>paul.davies@allgamers.com</t>
+  </si>
+  <si>
+    <t>james.busby@allgamers.com</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>sam.chandler@allgamers.com</t>
+  </si>
+  <si>
+    <t>chris.buffa@greenlitcontent.com</t>
+  </si>
+  <si>
+    <t>Fraser</t>
+  </si>
+  <si>
+    <t>fraser.brown@futurenet.com</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>joel.indiegames@gmail.com</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>frank@nichegamer.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan </t>
+  </si>
+  <si>
+    <t>Editors of IndieGameWebsite</t>
+  </si>
+  <si>
+    <t>pr@indiegamewebsite.com</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>clemmygames@gmail.com</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>redactie@gamer.nl</t>
+  </si>
+  <si>
+    <t>redactie@insidegamer.nl</t>
+  </si>
+  <si>
+    <t>redactie@powerunlimited.nl</t>
+  </si>
+  <si>
+    <t>contact@eurogamer.be</t>
+  </si>
+  <si>
+    <t>peter@gamersnet.nl</t>
+  </si>
+  <si>
+    <t>redactie@Dutchcowboys.nl</t>
+  </si>
+  <si>
+    <t>redactie@tweakers.nl</t>
+  </si>
+  <si>
+    <t>getindiegaming@gmail.com</t>
+  </si>
+  <si>
+    <t>redactie@ign.com</t>
+  </si>
+  <si>
+    <t>Rock Paper shotgun</t>
+  </si>
+  <si>
+    <t>Destructoid</t>
+  </si>
+  <si>
+    <t>Kotaku</t>
+  </si>
+  <si>
+    <t>PC invasion</t>
+  </si>
+  <si>
+    <t>Linux Game Consoritum</t>
+  </si>
+  <si>
+    <t>OP Noobs</t>
+  </si>
+  <si>
+    <t>Indie Games Plus</t>
+  </si>
+  <si>
+    <t>Gamer.nl</t>
+  </si>
+  <si>
+    <t>InsideGamer</t>
+  </si>
+  <si>
+    <t>Power Unlimited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EuroGamer </t>
+  </si>
+  <si>
+    <t>Gamersnet</t>
+  </si>
+  <si>
+    <t>DutchCowboys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tweakers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Indie Gaming </t>
+  </si>
+  <si>
+    <t>IGN Benelux</t>
+  </si>
+  <si>
+    <t>pr@thegamer.com</t>
+  </si>
+  <si>
+    <t>info@player.one</t>
+  </si>
+  <si>
+    <t>Thegamer</t>
+  </si>
+  <si>
+    <t>Player.One</t>
+  </si>
+  <si>
+    <t>https://www.gameinformer.com/feedback</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/contact#tip</t>
+  </si>
+  <si>
+    <t>https://www.gamingonlinux.com/email-us/</t>
+  </si>
+  <si>
+    <t>https://nanogamingnews.com/contact/</t>
+  </si>
+  <si>
+    <t>https://ind13.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://indie-credible.com/get-in-touch/</t>
+  </si>
+  <si>
+    <t>https://corp.ign.com/contact</t>
+  </si>
+  <si>
+    <t>Game Informer</t>
+  </si>
+  <si>
+    <t>Ars Technica</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Gaming On Linux</t>
+  </si>
+  <si>
+    <t>Nano Gaming News</t>
+  </si>
+  <si>
+    <t>Ind13</t>
+  </si>
+  <si>
+    <t>Indie-credible</t>
+  </si>
+  <si>
+    <t>IGN</t>
+  </si>
+  <si>
+    <t>Heide Kemps</t>
+  </si>
+  <si>
+    <t>zerochan@gaming.moe</t>
+  </si>
+  <si>
+    <t>inbox@gamespress.com</t>
+  </si>
+  <si>
+    <t>Games press</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t>nate.crowley@rockpapershotgun.com</t>
+  </si>
+  <si>
+    <t>Jon Bolding</t>
+  </si>
+  <si>
+    <t>jon.bolding@gmail.com</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>alessandra@ctrl500.com</t>
+  </si>
+  <si>
+    <t>I loved the Linux gaming community's response to my game, so you get the scoop: major update for evolution sim 'The Sapling' adds flowers and global warming</t>
+  </si>
+  <si>
+    <t>I have added flowers, bioluminescence and global warming to my spore inspired side project!</t>
+  </si>
+  <si>
+    <t>My ecosystem/evolution simulator is getting a lot prettier with flowers and bioluminescence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2535,7 +2836,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2846,32 +3147,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1"/>
-    <col min="11" max="16" width="20.5703125" style="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="1"/>
-    <col min="21" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1"/>
+    <col min="11" max="16" width="20.5546875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" style="1"/>
+    <col min="21" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2886,28 +3187,28 @@
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>2</v>
@@ -2919,24 +3220,24 @@
         <v>5</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -2948,12 +3249,12 @@
       <c r="G2" s="1"/>
       <c r="J2" s="1"/>
       <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>31</v>
@@ -2966,13 +3267,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>31</v>
@@ -2985,13 +3286,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>31</v>
@@ -3007,13 +3308,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>32</v>
@@ -3026,13 +3327,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
@@ -3045,13 +3346,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -3067,13 +3368,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>33</v>
@@ -3082,28 +3383,28 @@
         <v>44056</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>4</v>
@@ -3112,24 +3413,24 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>34</v>
@@ -3138,23 +3439,23 @@
         <v>44060</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>34</v>
@@ -3163,23 +3464,23 @@
         <v>44063</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -3188,23 +3489,23 @@
         <v>44067</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -3213,26 +3514,26 @@
         <v>44070</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>36</v>
@@ -3241,54 +3542,54 @@
         <v>44077</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>37</v>
@@ -3298,10 +3599,10 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15"/>
@@ -3313,38 +3614,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -3353,26 +3659,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3381,36 +3690,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" t="s">
+        <v>812</v>
+      </c>
+      <c r="C11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>834</v>
+      </c>
+      <c r="B14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C15" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" t="s">
+        <v>812</v>
+      </c>
+      <c r="C16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>841</v>
+      </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B19" t="s">
+        <v>769</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>861</v>
+      </c>
+      <c r="B20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{2563E332-C7AE-49B4-AFFA-995B67ED1856}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{81D74315-94D2-40E6-9BC3-98D41CC11B2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>842</v>
+      </c>
+      <c r="B1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B8" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -3419,60 +4015,310 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>798</v>
+      </c>
+      <c r="B12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>803</v>
+      </c>
+      <c r="B15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>805</v>
+      </c>
+      <c r="B16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C17" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>810</v>
+      </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>858</v>
+      </c>
+      <c r="B19" t="s">
+        <v>769</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>862</v>
+      </c>
+      <c r="B20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>864</v>
+      </c>
+      <c r="B21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>866</v>
+      </c>
+      <c r="B22" t="s">
+        <v>812</v>
+      </c>
+      <c r="C22" t="s">
+        <v>867</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{B510BCB7-F3F9-4A4E-BFB9-4A7B8AD0AF5F}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{DB15A5B4-FFA5-4F45-AB19-7E1801EE5C5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>206</v>
@@ -3481,18 +4327,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3501,21 +4347,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>9.4</v>
@@ -3524,18 +4370,18 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>2.2999999999999998</v>
@@ -3544,18 +4390,18 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1.6</v>
@@ -3564,21 +4410,21 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -3587,15 +4433,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3604,21 +4450,21 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F8" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3627,15 +4473,15 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -3644,21 +4490,21 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F10" t="s">
-        <v>761</v>
-      </c>
-      <c r="G10" t="s">
-        <v>529</v>
+        <v>759</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>759</v>
       </c>
       <c r="H10" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>0.3</v>
@@ -3667,15 +4513,15 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -3684,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F12" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -3701,15 +4547,15 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F13" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -3718,15 +4564,15 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F14" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>7.0000000000000007E-2</v>
@@ -3735,15 +4581,15 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F15" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>0.05</v>
@@ -3752,21 +4598,21 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H16" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>0.02</v>
@@ -3775,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F17" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -3792,21 +4638,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F18" t="s">
+        <v>757</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>761</v>
-      </c>
       <c r="H18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D17">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -3816,136 +4662,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3954,36 +4800,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -3992,57 +4838,57 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>482</v>
-      </c>
-      <c r="M1" t="s">
-        <v>541</v>
-      </c>
-      <c r="N1" t="s">
-        <v>560</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G2">
         <v>3300</v>
@@ -4055,19 +4901,19 @@
         <v>3300</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S2">
         <f>COUNTA(B2:N2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -4080,19 +4926,19 @@
         <v>2000</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">COUNTA(B3:N3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G4">
         <v>1700</v>
@@ -4108,19 +4954,19 @@
         <v>1700</v>
       </c>
       <c r="P4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -4133,22 +4979,22 @@
         <v>1600</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q5" t="s">
+        <v>448</v>
+      </c>
+      <c r="R5" t="s">
         <v>450</v>
-      </c>
-      <c r="R5" t="s">
-        <v>452</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H6">
         <v>1500</v>
@@ -4161,16 +5007,16 @@
         <v>1500</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E7">
         <v>933</v>
@@ -4180,19 +5026,19 @@
         <v>933</v>
       </c>
       <c r="P7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G8">
         <v>774</v>
@@ -4205,16 +5051,16 @@
         <v>774</v>
       </c>
       <c r="P8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9">
         <v>762</v>
@@ -4227,16 +5073,16 @@
         <v>762</v>
       </c>
       <c r="P9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10">
         <v>658</v>
@@ -4249,16 +5095,16 @@
         <v>658</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F11">
         <v>311</v>
@@ -4271,16 +5117,16 @@
         <v>584</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H12">
         <v>574</v>
@@ -4293,16 +5139,16 @@
         <v>574</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H13">
         <v>562</v>
@@ -4312,19 +5158,19 @@
         <v>562</v>
       </c>
       <c r="P13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H14">
         <v>495</v>
@@ -4334,16 +5180,16 @@
         <v>495</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H15">
         <v>474</v>
@@ -4356,16 +5202,16 @@
         <v>474</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E16">
         <v>66</v>
@@ -4381,16 +5227,16 @@
         <v>407</v>
       </c>
       <c r="P16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B17">
         <v>59</v>
@@ -4409,16 +5255,16 @@
         <v>372</v>
       </c>
       <c r="P17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>310</v>
@@ -4428,19 +5274,19 @@
         <v>310</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H19">
         <v>305</v>
@@ -4453,16 +5299,16 @@
         <v>305</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H20">
         <v>297</v>
@@ -4472,16 +5318,16 @@
         <v>297</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G21">
         <v>295</v>
@@ -4491,16 +5337,16 @@
         <v>295</v>
       </c>
       <c r="P21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G22">
         <v>92</v>
@@ -4516,16 +5362,16 @@
         <v>290</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E23">
         <v>0.2</v>
@@ -4539,9 +5385,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G24">
         <v>286</v>
@@ -4551,22 +5397,22 @@
         <v>286</v>
       </c>
       <c r="P24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="R24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4579,16 +5425,16 @@
         <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E26">
         <v>102</v>
@@ -4604,19 +5450,19 @@
         <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G27">
         <v>249</v>
@@ -4626,22 +5472,22 @@
         <v>249</v>
       </c>
       <c r="P27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H28">
         <v>236</v>
@@ -4654,16 +5500,16 @@
         <v>236</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29">
         <v>222</v>
@@ -4676,16 +5522,16 @@
         <v>222</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G30">
         <v>221</v>
@@ -4695,16 +5541,16 @@
         <v>221</v>
       </c>
       <c r="P30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G31">
         <v>215</v>
@@ -4714,19 +5560,19 @@
         <v>215</v>
       </c>
       <c r="P31" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q31" t="s">
         <v>514</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>516</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>212</v>
@@ -4736,16 +5582,16 @@
         <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G33">
         <v>204</v>
@@ -4758,16 +5604,16 @@
         <v>204</v>
       </c>
       <c r="P33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E34">
         <v>22</v>
@@ -4780,19 +5626,19 @@
         <v>204</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Q34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E35">
         <v>12</v>
@@ -4808,16 +5654,16 @@
         <v>196</v>
       </c>
       <c r="P35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F36">
         <v>164</v>
@@ -4833,19 +5679,19 @@
         <v>164</v>
       </c>
       <c r="P36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G37">
         <v>162</v>
@@ -4858,19 +5704,19 @@
         <v>162</v>
       </c>
       <c r="P37" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q37" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G38">
         <v>154</v>
@@ -4880,19 +5726,19 @@
         <v>154</v>
       </c>
       <c r="P38" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G39">
         <v>146</v>
@@ -4902,19 +5748,19 @@
         <v>146</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="R39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F40">
         <v>146</v>
@@ -4930,19 +5776,19 @@
         <v>146</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Q40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F41">
         <v>143</v>
@@ -4955,19 +5801,19 @@
         <v>143</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q41" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C42">
         <v>5.0999999999999996</v>
@@ -4980,19 +5826,19 @@
         <v>142</v>
       </c>
       <c r="P42" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q42" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G43">
         <v>136</v>
@@ -5005,16 +5851,16 @@
         <v>136</v>
       </c>
       <c r="P43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G44">
         <v>126</v>
@@ -5027,16 +5873,16 @@
         <v>126</v>
       </c>
       <c r="P44" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>52</v>
@@ -5052,16 +5898,16 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G46">
         <v>114</v>
@@ -5071,16 +5917,16 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G47">
         <v>112</v>
@@ -5090,16 +5936,16 @@
         <v>112</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F48">
         <v>111</v>
@@ -5118,16 +5964,16 @@
         <v>111</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G49">
         <v>108</v>
@@ -5137,19 +5983,19 @@
         <v>108</v>
       </c>
       <c r="P49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F50">
         <v>5.7</v>
@@ -5165,16 +6011,16 @@
         <v>108</v>
       </c>
       <c r="P50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E51">
         <v>99</v>
@@ -5184,16 +6030,16 @@
         <v>99</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G52">
         <v>98</v>
@@ -5203,19 +6049,19 @@
         <v>98</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q52" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>97</v>
@@ -5225,16 +6071,16 @@
         <v>97</v>
       </c>
       <c r="R53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E54">
         <v>92</v>
@@ -5247,16 +6093,16 @@
         <v>92</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H55">
         <v>86</v>
@@ -5266,16 +6112,16 @@
         <v>86</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H56">
         <v>84</v>
@@ -5291,19 +6137,19 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Q56" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G57">
         <v>82</v>
@@ -5313,16 +6159,16 @@
         <v>82</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G58">
         <v>78</v>
@@ -5335,19 +6181,19 @@
         <v>78</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q58" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G59">
         <v>76</v>
@@ -5360,16 +6206,16 @@
         <v>76</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H60">
         <v>68</v>
@@ -5382,19 +6228,19 @@
         <v>68</v>
       </c>
       <c r="P60" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H61">
         <v>67</v>
@@ -5404,19 +6250,19 @@
         <v>67</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="R61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G62">
         <v>17</v>
@@ -5432,16 +6278,16 @@
         <v>66</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63">
         <v>41</v>
@@ -5466,16 +6312,16 @@
         <v>59</v>
       </c>
       <c r="P63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E64">
         <v>58</v>
@@ -5488,19 +6334,19 @@
         <v>58</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F65">
         <v>4.2</v>
@@ -5513,19 +6359,19 @@
         <v>56</v>
       </c>
       <c r="P65" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q65" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -5535,16 +6381,16 @@
         <v>55</v>
       </c>
       <c r="P66" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G67">
         <v>55</v>
@@ -5554,16 +6400,16 @@
         <v>55</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S130" si="3">COUNTA(B67:N67)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E68">
         <v>55</v>
@@ -5576,16 +6422,16 @@
         <v>55</v>
       </c>
       <c r="P68" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S68">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -5595,16 +6441,16 @@
         <v>54</v>
       </c>
       <c r="P69" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G70">
         <v>53</v>
@@ -5620,19 +6466,19 @@
         <v>53</v>
       </c>
       <c r="P70" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="S70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B71">
         <v>55</v>
@@ -5651,16 +6497,16 @@
         <v>64</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S71">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G72">
         <v>51</v>
@@ -5670,19 +6516,19 @@
         <v>51</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q72" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G73">
         <v>49</v>
@@ -5695,16 +6541,16 @@
         <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="S73">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E74">
         <v>17</v>
@@ -5717,16 +6563,16 @@
         <v>46</v>
       </c>
       <c r="P74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S74">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G75">
         <v>45</v>
@@ -5736,16 +6582,16 @@
         <v>45</v>
       </c>
       <c r="P75" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="S75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F76">
         <v>16</v>
@@ -5761,19 +6607,19 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q76" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S76">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D77">
         <v>43</v>
@@ -5783,16 +6629,16 @@
         <v>43</v>
       </c>
       <c r="P77" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="S77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G78">
         <v>42</v>
@@ -5805,16 +6651,16 @@
         <v>42</v>
       </c>
       <c r="P78" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -5830,19 +6676,19 @@
         <v>40</v>
       </c>
       <c r="P79" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R79" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="S79">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G80">
         <v>39</v>
@@ -5858,16 +6704,16 @@
         <v>39</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="S80">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G81">
         <v>39</v>
@@ -5877,16 +6723,16 @@
         <v>39</v>
       </c>
       <c r="P81" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S81">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82">
         <v>38</v>
@@ -5896,16 +6742,16 @@
         <v>38</v>
       </c>
       <c r="P82" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G83">
         <v>38</v>
@@ -5918,16 +6764,16 @@
         <v>38</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S83">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>34</v>
@@ -5937,19 +6783,19 @@
         <v>34</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q84" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S84">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85">
         <v>34</v>
@@ -5959,19 +6805,19 @@
         <v>34</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q85" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G86">
         <v>33</v>
@@ -5981,16 +6827,16 @@
         <v>33</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G87">
         <v>32</v>
@@ -6000,16 +6846,16 @@
         <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S87">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -6019,16 +6865,16 @@
         <v>30</v>
       </c>
       <c r="P88" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S88">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -6041,19 +6887,19 @@
         <v>28</v>
       </c>
       <c r="P89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R89" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S89">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G90">
         <v>27</v>
@@ -6066,16 +6912,16 @@
         <v>27</v>
       </c>
       <c r="P90" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S90">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F91">
         <v>6.4</v>
@@ -6088,19 +6934,19 @@
         <v>27</v>
       </c>
       <c r="P91" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="Q91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S91">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G92">
         <v>27</v>
@@ -6116,16 +6962,16 @@
         <v>27</v>
       </c>
       <c r="P92" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S92">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G93">
         <v>26</v>
@@ -6135,16 +6981,16 @@
         <v>26</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S93">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G94">
         <v>26</v>
@@ -6154,16 +7000,16 @@
         <v>26</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S94">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G95">
         <v>26</v>
@@ -6176,16 +7022,16 @@
         <v>26</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S95">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H96">
         <v>26</v>
@@ -6195,16 +7041,16 @@
         <v>26</v>
       </c>
       <c r="P96" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S96">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E97">
         <v>24</v>
@@ -6217,19 +7063,19 @@
         <v>24</v>
       </c>
       <c r="P97" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R97" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S97">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G98">
         <v>23</v>
@@ -6239,16 +7085,16 @@
         <v>23</v>
       </c>
       <c r="P98" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H99">
         <v>23</v>
@@ -6258,19 +7104,19 @@
         <v>23</v>
       </c>
       <c r="P99" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R99" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="S99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100">
         <v>7.3</v>
@@ -6286,16 +7132,16 @@
         <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S100">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E101">
         <v>22</v>
@@ -6305,19 +7151,19 @@
         <v>22</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G102">
         <v>21</v>
@@ -6327,16 +7173,16 @@
         <v>21</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="S102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G103">
         <v>21</v>
@@ -6349,22 +7195,22 @@
         <v>21</v>
       </c>
       <c r="P103" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q103" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R103" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S103">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G104">
         <v>21</v>
@@ -6374,16 +7220,16 @@
         <v>21</v>
       </c>
       <c r="P104" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S104">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -6396,16 +7242,16 @@
         <v>21</v>
       </c>
       <c r="P105" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S105">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106">
         <v>18</v>
@@ -6415,16 +7261,16 @@
         <v>18</v>
       </c>
       <c r="P106" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E107">
         <v>17</v>
@@ -6437,16 +7283,16 @@
         <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S107">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H108">
         <v>16</v>
@@ -6462,16 +7308,16 @@
         <v>16</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="S108">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G109">
         <v>15</v>
@@ -6481,19 +7327,19 @@
         <v>15</v>
       </c>
       <c r="P109" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q109" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S109">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G110">
         <v>14</v>
@@ -6506,19 +7352,19 @@
         <v>14</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Q110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S110">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -6528,22 +7374,22 @@
         <v>13</v>
       </c>
       <c r="P111" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q111" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R111" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="S111">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E112">
         <v>0.6</v>
@@ -6556,19 +7402,19 @@
         <v>13</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q112" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G113">
         <v>12</v>
@@ -6581,16 +7427,16 @@
         <v>12</v>
       </c>
       <c r="P113" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S113">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F114">
         <v>1.2</v>
@@ -6603,19 +7449,19 @@
         <v>12</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q114" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S114">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -6628,16 +7474,16 @@
         <v>12</v>
       </c>
       <c r="P115" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S115">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G116">
         <v>11</v>
@@ -6647,19 +7493,19 @@
         <v>11</v>
       </c>
       <c r="P116" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q116" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="S116">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G117">
         <v>11</v>
@@ -6669,22 +7515,22 @@
         <v>11</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q117" t="s">
+        <v>576</v>
+      </c>
+      <c r="R117" t="s">
         <v>578</v>
-      </c>
-      <c r="R117" t="s">
-        <v>580</v>
       </c>
       <c r="S117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G118">
         <v>11</v>
@@ -6697,16 +7543,16 @@
         <v>11</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S118">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -6719,16 +7565,16 @@
         <v>10</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S119">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -6738,19 +7584,19 @@
         <v>10</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R120" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S120">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G121">
         <v>9.9</v>
@@ -6763,16 +7609,16 @@
         <v>9.9</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="S121">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G122">
         <v>9.6999999999999993</v>
@@ -6782,16 +7628,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S122">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -6804,16 +7650,16 @@
         <v>9</v>
       </c>
       <c r="P123" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="S123">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G124">
         <v>8.6999999999999993</v>
@@ -6823,16 +7669,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S124">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G125">
         <v>8.6</v>
@@ -6848,16 +7694,16 @@
         <v>8.6</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="S125">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>8.5</v>
@@ -6867,19 +7713,19 @@
         <v>8.5</v>
       </c>
       <c r="P126" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q126" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S126">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G127">
         <v>7.9</v>
@@ -6889,16 +7735,16 @@
         <v>7.9</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E128">
         <v>7.4</v>
@@ -6908,16 +7754,16 @@
         <v>7.4</v>
       </c>
       <c r="P128" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="S128">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G129">
         <v>7.1</v>
@@ -6927,19 +7773,19 @@
         <v>7.1</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q129" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="S129">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -6949,16 +7795,16 @@
         <v>7</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="S130">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G131">
         <v>6.8</v>
@@ -6968,19 +7814,19 @@
         <v>6.8</v>
       </c>
       <c r="P131" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R131" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S194" si="5">COUNTA(B131:N131)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G132">
         <v>6.5</v>
@@ -6990,19 +7836,19 @@
         <v>6.5</v>
       </c>
       <c r="P132" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R132" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S132">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E133">
         <v>6.5</v>
@@ -7012,16 +7858,16 @@
         <v>6.5</v>
       </c>
       <c r="P133" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="S133">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G134">
         <v>6.4</v>
@@ -7031,16 +7877,16 @@
         <v>6.4</v>
       </c>
       <c r="R134" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S134">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G135">
         <v>5.9</v>
@@ -7050,16 +7896,16 @@
         <v>5.9</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="S135">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H136">
         <v>5.6</v>
@@ -7069,19 +7915,19 @@
         <v>5.6</v>
       </c>
       <c r="P136" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R136" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="S136">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B137">
         <v>5.5</v>
@@ -7097,16 +7943,16 @@
         <v>5.5</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S137">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G138">
         <v>5.3</v>
@@ -7119,16 +7965,16 @@
         <v>5.3</v>
       </c>
       <c r="P138" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="S138">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B139">
         <v>5.2</v>
@@ -7138,19 +7984,19 @@
         <v>5.2</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R139" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S139">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G140">
         <v>5.2</v>
@@ -7160,16 +8006,16 @@
         <v>5.2</v>
       </c>
       <c r="P140" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S140">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B141">
         <v>4.5</v>
@@ -7179,16 +8025,16 @@
         <v>4.5</v>
       </c>
       <c r="R141" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S141">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C142">
         <v>4.5</v>
@@ -7198,16 +8044,16 @@
         <v>4.5</v>
       </c>
       <c r="P142" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S142">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C143">
         <v>4.5</v>
@@ -7217,16 +8063,16 @@
         <v>4.5</v>
       </c>
       <c r="P143" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S143">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G144">
         <v>4.5</v>
@@ -7240,9 +8086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G145">
         <v>4.5</v>
@@ -7256,9 +8102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G146">
         <v>4.5</v>
@@ -7272,9 +8118,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B147">
         <v>4.3</v>
@@ -7284,16 +8130,16 @@
         <v>4.3</v>
       </c>
       <c r="R147" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S147">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H148">
         <v>4.3</v>
@@ -7307,9 +8153,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E149">
         <v>4.3</v>
@@ -7323,9 +8169,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B150">
         <v>4.0999999999999996</v>
@@ -7335,19 +8181,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="P150" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q150" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="S150">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G151">
         <v>3.9</v>
@@ -7361,9 +8207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G152">
         <v>3.9</v>
@@ -7377,9 +8223,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C153">
         <v>1.8</v>
@@ -7398,16 +8244,16 @@
         <v>3.9</v>
       </c>
       <c r="P153" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S153">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J154">
         <v>3.9</v>
@@ -7421,9 +8267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G155">
         <v>3.8</v>
@@ -7437,9 +8283,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D156">
         <v>3.7</v>
@@ -7449,19 +8295,19 @@
         <v>3.7</v>
       </c>
       <c r="P156" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q156" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S156">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B157">
         <v>3.6</v>
@@ -7471,19 +8317,19 @@
         <v>3.6</v>
       </c>
       <c r="P157" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q157" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S157">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G158">
         <v>3.5</v>
@@ -7497,9 +8343,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E159">
         <v>3.4</v>
@@ -7513,9 +8359,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -7529,9 +8375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -7545,9 +8391,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G162">
         <v>2.8</v>
@@ -7561,9 +8407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H163">
         <v>2.8</v>
@@ -7577,9 +8423,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G164">
         <v>2.7</v>
@@ -7593,9 +8439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G165">
         <v>2.7</v>
@@ -7609,9 +8455,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E166">
         <v>2.7</v>
@@ -7625,9 +8471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B167">
         <v>2.5</v>
@@ -7637,19 +8483,19 @@
         <v>2.5</v>
       </c>
       <c r="P167" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q167" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S167">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G168">
         <v>2.5</v>
@@ -7663,9 +8509,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G169">
         <v>2.5</v>
@@ -7679,9 +8525,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G170">
         <v>2.5</v>
@@ -7695,9 +8541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B171">
         <v>2.4</v>
@@ -7707,19 +8553,19 @@
         <v>2.4</v>
       </c>
       <c r="P171" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q171" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S171">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B172">
         <v>2.2999999999999998</v>
@@ -7729,16 +8575,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="P172" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S172">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G173">
         <v>2.2999999999999998</v>
@@ -7752,9 +8598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G174">
         <v>2.2000000000000002</v>
@@ -7768,9 +8614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -7784,9 +8630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E176">
         <v>1.7</v>
@@ -7802,16 +8648,16 @@
         <v>2</v>
       </c>
       <c r="Q176" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S176">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C177">
         <v>1.9</v>
@@ -7821,16 +8667,16 @@
         <v>1.9</v>
       </c>
       <c r="P177" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S177">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G178">
         <v>1.8</v>
@@ -7844,9 +8690,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G179">
         <v>1.8</v>
@@ -7860,9 +8706,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G180">
         <v>1.8</v>
@@ -7876,9 +8722,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E181">
         <v>1.8</v>
@@ -7892,9 +8738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G182">
         <v>1.7</v>
@@ -7908,9 +8754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G183">
         <v>1.7</v>
@@ -7924,9 +8770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E184">
         <v>1.6</v>
@@ -7940,9 +8786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E185">
         <v>1.6</v>
@@ -7956,9 +8802,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C186">
         <v>1.5</v>
@@ -7968,16 +8814,16 @@
         <v>1.5</v>
       </c>
       <c r="P186" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S186">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E187">
         <v>0.2</v>
@@ -7993,16 +8839,16 @@
         <v>1.5</v>
       </c>
       <c r="P187" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S187">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E188">
         <v>1.5</v>
@@ -8016,9 +8862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C189">
         <v>1.4</v>
@@ -8028,16 +8874,16 @@
         <v>1.4</v>
       </c>
       <c r="P189" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S189">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G190">
         <v>1.4</v>
@@ -8051,9 +8897,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G191">
         <v>1.4</v>
@@ -8067,9 +8913,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G192">
         <v>1.4</v>
@@ -8083,9 +8929,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G193">
         <v>1.4</v>
@@ -8099,9 +8945,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G194">
         <v>1.4</v>
@@ -8115,9 +8961,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G195">
         <v>1.4</v>
@@ -8131,9 +8977,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B196">
         <v>1.3</v>
@@ -8143,19 +8989,19 @@
         <v>1.3</v>
       </c>
       <c r="P196" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q196" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S196">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G197">
         <v>1.3</v>
@@ -8168,16 +9014,16 @@
         <v>1.3</v>
       </c>
       <c r="P197" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S197">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G198">
         <v>1.3</v>
@@ -8191,9 +9037,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B199">
         <v>1.2</v>
@@ -8203,19 +9049,19 @@
         <v>1.2</v>
       </c>
       <c r="P199" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q199" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S199">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C200">
         <v>1.2</v>
@@ -8225,19 +9071,19 @@
         <v>1.2</v>
       </c>
       <c r="P200" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q200" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="S200">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D201">
         <v>1.2</v>
@@ -8247,16 +9093,16 @@
         <v>1.2</v>
       </c>
       <c r="P201" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S201">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E202">
         <v>1.2</v>
@@ -8270,9 +9116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E203">
         <v>1.2</v>
@@ -8286,9 +9132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G204">
         <v>1.1000000000000001</v>
@@ -8302,9 +9148,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G205">
         <v>1.1000000000000001</v>
@@ -8318,9 +9164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G206">
         <v>1.1000000000000001</v>
@@ -8334,9 +9180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G207">
         <v>1.1000000000000001</v>
@@ -8350,9 +9196,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E208">
         <v>1.1000000000000001</v>
@@ -8366,9 +9212,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E209">
         <v>1.1000000000000001</v>
@@ -8382,9 +9228,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D210">
         <v>0.2</v>
@@ -8400,16 +9246,16 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S210">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -8423,9 +9269,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -8439,9 +9285,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8455,9 +9301,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C214">
         <v>0.9</v>
@@ -8470,19 +9316,19 @@
         <v>0.9</v>
       </c>
       <c r="P214" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Q214" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S214">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C215">
         <v>0.9</v>
@@ -8496,9 +9342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C216">
         <v>0.8</v>
@@ -8512,9 +9358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G217">
         <v>0.8</v>
@@ -8528,9 +9374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G218">
         <v>0.8</v>
@@ -8544,9 +9390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G219">
         <v>0.8</v>
@@ -8560,9 +9406,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G220">
         <v>0.8</v>
@@ -8576,9 +9422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H221">
         <v>0.8</v>
@@ -8592,9 +9438,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J222">
         <v>0.8</v>
@@ -8608,9 +9454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E223">
         <v>0.8</v>
@@ -8624,9 +9470,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C224">
         <v>0.7</v>
@@ -8640,9 +9486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C225">
         <v>0.7</v>
@@ -8656,9 +9502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G226">
         <v>0.7</v>
@@ -8672,9 +9518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G227">
         <v>0.7</v>
@@ -8688,9 +9534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G228">
         <v>0.7</v>
@@ -8704,9 +9550,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G229">
         <v>0.7</v>
@@ -8720,9 +9566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C230">
         <v>0.6</v>
@@ -8736,9 +9582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G231">
         <v>0.6</v>
@@ -8752,9 +9598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E232">
         <v>0.6</v>
@@ -8768,9 +9614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C233">
         <v>0.5</v>
@@ -8784,9 +9630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C234">
         <v>0.5</v>
@@ -8800,9 +9646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C235">
         <v>0.5</v>
@@ -8816,9 +9662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G236">
         <v>0.5</v>
@@ -8832,9 +9678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E237">
         <v>0.5</v>
@@ -8848,9 +9694,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B238">
         <v>0.4</v>
@@ -8864,9 +9710,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C239">
         <v>0.4</v>
@@ -8880,9 +9726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G240">
         <v>0.4</v>
@@ -8896,9 +9742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J241">
         <v>0.4</v>
@@ -8912,9 +9758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E242">
         <v>0.4</v>
@@ -8928,9 +9774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E243">
         <v>0.4</v>
@@ -8944,9 +9790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E244">
         <v>0.4</v>
@@ -8959,19 +9805,19 @@
         <v>0.4</v>
       </c>
       <c r="P244" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q244" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="S244">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G245">
         <v>0.3</v>
@@ -8985,9 +9831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G246">
         <v>0.3</v>
@@ -9001,9 +9847,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G247">
         <v>0.3</v>
@@ -9017,9 +9863,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G248">
         <v>0.3</v>
@@ -9033,9 +9879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G249">
         <v>0.3</v>
@@ -9049,9 +9895,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G250">
         <v>0.3</v>
@@ -9065,9 +9911,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G251">
         <v>0.3</v>
@@ -9081,9 +9927,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G252">
         <v>0.3</v>
@@ -9097,9 +9943,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G253">
         <v>0.3</v>
@@ -9113,9 +9959,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G254">
         <v>0.3</v>
@@ -9129,9 +9975,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J255">
         <v>0.3</v>
@@ -9145,9 +9991,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E256">
         <v>0.3</v>
@@ -9161,9 +10007,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E257">
         <v>0.3</v>
@@ -9177,9 +10023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E258">
         <v>0.3</v>
@@ -9193,9 +10039,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E259">
         <v>0.3</v>
@@ -9209,9 +10055,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E260">
         <v>0.3</v>
@@ -9225,9 +10071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E261">
         <v>0.3</v>
@@ -9241,9 +10087,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E262">
         <v>0.3</v>
@@ -9257,9 +10103,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E263">
         <v>0.247</v>
@@ -9273,9 +10119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B264">
         <v>0.2</v>
@@ -9289,9 +10135,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D265">
         <v>0.2</v>
@@ -9305,9 +10151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -9321,9 +10167,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -9337,9 +10183,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -9353,9 +10199,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -9369,9 +10215,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -9385,9 +10231,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H271">
         <v>0.2</v>
@@ -9401,9 +10247,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J272">
         <v>0.2</v>
@@ -9417,9 +10263,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J273">
         <v>0.2</v>
@@ -9433,9 +10279,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J274">
         <v>0.2</v>
@@ -9449,9 +10295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E275">
         <v>0.2</v>
@@ -9465,9 +10311,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E276">
         <v>0.2</v>
@@ -9481,9 +10327,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E277">
         <v>0.2</v>
@@ -9497,9 +10343,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E278">
         <v>0.2</v>
@@ -9513,9 +10359,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E279">
         <v>0.2</v>
@@ -9529,9 +10375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E280">
         <v>0.2</v>
@@ -9545,9 +10391,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E281">
         <v>0.2</v>
@@ -9561,9 +10407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E282">
         <v>0.2</v>
@@ -9577,9 +10423,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E283">
         <v>0.2</v>
@@ -9593,9 +10439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E284">
         <v>0.2</v>
@@ -9609,9 +10455,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E285">
         <v>0.2</v>
@@ -9625,9 +10471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E286">
         <v>0.2</v>
@@ -9641,9 +10487,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B287">
         <v>0.1</v>
@@ -9657,9 +10503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C288">
         <v>0.1</v>
@@ -9673,9 +10519,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C289">
         <v>0.1</v>
@@ -9689,9 +10535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C290">
         <v>0.1</v>
@@ -9705,9 +10551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C291">
         <v>0.1</v>
@@ -9721,9 +10567,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -9737,9 +10583,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -9753,9 +10599,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -9769,9 +10615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -9785,9 +10631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H296">
         <v>0.1</v>
@@ -9801,9 +10647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H297">
         <v>0.1</v>
@@ -9817,9 +10663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H298">
         <v>0.1</v>
@@ -9833,9 +10679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J299">
         <v>0.1</v>
@@ -9849,9 +10695,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J300">
         <v>0.1</v>
@@ -9865,9 +10711,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J301">
         <v>0.1</v>
@@ -9881,9 +10727,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E302">
         <v>0.1</v>
@@ -9897,9 +10743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E303">
         <v>0.1</v>
@@ -9913,9 +10759,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E304">
         <v>0.1</v>
@@ -9929,9 +10775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E305">
         <v>0.1</v>
@@ -9945,9 +10791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E306">
         <v>0.1</v>
@@ -9961,9 +10807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D307">
         <v>7.0000000000000007E-2</v>
@@ -9977,9 +10823,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M308">
         <v>2200</v>
@@ -9989,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="P308" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S308">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M309">
         <v>5.4</v>
@@ -10008,16 +10854,16 @@
         <v>0</v>
       </c>
       <c r="P309" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="S309">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K310">
         <v>237</v>
@@ -10030,16 +10876,16 @@
         <v>0</v>
       </c>
       <c r="P310" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S310">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M311">
         <v>14</v>
@@ -10049,19 +10895,19 @@
         <v>0</v>
       </c>
       <c r="P311" s="15" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q311" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S311">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M312">
         <v>15</v>
@@ -10071,19 +10917,19 @@
         <v>0</v>
       </c>
       <c r="P312" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q312" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="S312">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K313">
         <v>73</v>
@@ -10096,19 +10942,19 @@
         <v>0</v>
       </c>
       <c r="P313" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q313" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="S313">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M314">
         <v>2.1</v>
@@ -10118,19 +10964,19 @@
         <v>0</v>
       </c>
       <c r="P314" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R314" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S314">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M315">
         <v>79</v>
@@ -10140,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="P315" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="S315">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K316">
         <v>85</v>
@@ -10165,16 +11011,16 @@
         <v>0</v>
       </c>
       <c r="P316" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="S316">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G317">
         <v>7.4</v>
@@ -10187,16 +11033,16 @@
         <v>7.4</v>
       </c>
       <c r="P317" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="S317">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K318">
         <v>1900</v>
@@ -10209,16 +11055,16 @@
         <v>0</v>
       </c>
       <c r="P318" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="S318">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F319">
         <v>50</v>
@@ -10234,16 +11080,16 @@
         <v>50</v>
       </c>
       <c r="P319" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="S319">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M320">
         <v>148</v>
@@ -10253,16 +11099,16 @@
         <v>0</v>
       </c>
       <c r="P320" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="S320">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M321">
         <v>3</v>
@@ -10272,16 +11118,16 @@
         <v>0</v>
       </c>
       <c r="P321" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="S321">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M322">
         <v>45</v>
@@ -10291,16 +11137,16 @@
         <v>0</v>
       </c>
       <c r="P322" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="S322">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M323">
         <v>5.3</v>
@@ -10310,19 +11156,19 @@
         <v>0</v>
       </c>
       <c r="P323" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R323" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S323">
         <f t="shared" ref="S323:S354" si="11">COUNTA(B323:N323)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M324">
         <v>7.6</v>
@@ -10332,16 +11178,16 @@
         <v>0</v>
       </c>
       <c r="P324" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="S324">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K325">
         <v>305</v>
@@ -10354,16 +11200,16 @@
         <v>0</v>
       </c>
       <c r="P325" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="S325">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M326">
         <v>1.9</v>
@@ -10373,82 +11219,82 @@
         <v>0</v>
       </c>
       <c r="P326" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q326" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="S326">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M327">
         <v>1.9</v>
       </c>
       <c r="P327" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="S327">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M328">
         <v>3.3</v>
       </c>
       <c r="P328" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="S328">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M329">
         <v>2.7</v>
       </c>
       <c r="P329" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Q329" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="S329">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M330">
         <v>2</v>
       </c>
       <c r="P330" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="S330">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K331">
         <v>1.3</v>
@@ -10457,31 +11303,31 @@
         <v>2</v>
       </c>
       <c r="P331" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="S331">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M332">
         <v>3</v>
       </c>
       <c r="P332" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S332">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K333">
         <v>519</v>
@@ -10490,82 +11336,82 @@
         <v>130</v>
       </c>
       <c r="P333" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="S333">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M334">
         <v>3.7</v>
       </c>
       <c r="P334" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="S334">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M335">
         <v>1.9</v>
       </c>
       <c r="P335" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S335">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M336">
         <v>2.8</v>
       </c>
       <c r="P336" s="8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q336" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="S336">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M337">
         <v>1.2</v>
       </c>
       <c r="P337" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R337" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S337">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F338">
         <v>314</v>
@@ -10574,31 +11420,31 @@
         <v>93</v>
       </c>
       <c r="P338" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S338">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M339">
         <v>3.1</v>
       </c>
       <c r="P339" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S339">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F340">
         <v>116</v>
@@ -10607,79 +11453,79 @@
         <v>15</v>
       </c>
       <c r="P340" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Q340" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S340">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M341">
         <v>13</v>
       </c>
       <c r="P341" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="S341">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M342">
         <v>23</v>
       </c>
       <c r="P342" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S342">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M343">
         <v>5.3</v>
       </c>
       <c r="P343" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S343">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M344">
         <v>6.7</v>
       </c>
       <c r="R344" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="S344">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="K345">
         <v>302</v>
@@ -10688,34 +11534,34 @@
         <v>139</v>
       </c>
       <c r="P345" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="S345">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M346">
         <v>4</v>
       </c>
       <c r="P346" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q346" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S346">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F347">
         <v>2.6</v>
@@ -10727,46 +11573,46 @@
         <v>6.3</v>
       </c>
       <c r="P347" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="S347">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M348">
         <v>3.2</v>
       </c>
       <c r="P348" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S348">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M349">
         <v>5</v>
       </c>
       <c r="P349" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="S349">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="K350">
         <v>574</v>
@@ -10775,49 +11621,49 @@
         <v>666</v>
       </c>
       <c r="P350" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="S350">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M351">
         <v>4.0999999999999996</v>
       </c>
       <c r="P351" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="S351">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M352">
         <v>26</v>
       </c>
       <c r="P352" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R352" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S352">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K353">
         <v>0.1</v>
@@ -10826,16 +11672,16 @@
         <v>7.3</v>
       </c>
       <c r="P353" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="S353">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K354">
         <v>7.3</v>
@@ -10844,49 +11690,49 @@
         <v>10</v>
       </c>
       <c r="P354" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S354">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1">
-    <sortState ref="A2:R79">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R79">
       <sortCondition descending="1" ref="O1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:R308">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R308">
     <sortCondition descending="1" ref="O2:O308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
-    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
-    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
-    <hyperlink ref="P25" r:id="rId4"/>
-    <hyperlink ref="P26" r:id="rId5"/>
-    <hyperlink ref="P32" r:id="rId6"/>
-    <hyperlink ref="P85" r:id="rId7"/>
-    <hyperlink ref="P62" r:id="rId8"/>
-    <hyperlink ref="P112" r:id="rId9"/>
-    <hyperlink ref="P126" r:id="rId10"/>
-    <hyperlink ref="P142" r:id="rId11"/>
-    <hyperlink ref="R27" r:id="rId12"/>
-    <hyperlink ref="P157" r:id="rId13"/>
-    <hyperlink ref="P48" r:id="rId14"/>
-    <hyperlink ref="P59" r:id="rId15"/>
-    <hyperlink ref="P94" r:id="rId16"/>
-    <hyperlink ref="P95" r:id="rId17"/>
-    <hyperlink ref="P114" r:id="rId18"/>
-    <hyperlink ref="P51" r:id="rId19"/>
-    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
-    <hyperlink ref="P133" r:id="rId21"/>
-    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
-    <hyperlink ref="P342" r:id="rId23"/>
+    <hyperlink ref="P2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="P83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="P25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="P26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="P32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="P85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="P62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="P112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="P126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="P142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="R27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="P157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="P48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="P59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="P94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="P95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="P114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="P51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="P55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="P133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="P322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="P342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -10894,108 +11740,119 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>735</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>742</v>
-      </c>
-      <c r="B10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18382E5-A6AC-43D9-9BC1-B84B254E1B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6453F405-AE66-4A52-99F4-2DDBDEA18AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="877">
   <si>
     <t>Week</t>
   </si>
@@ -2680,7 +2680,25 @@
     <t>I have added flowers, bioluminescence and global warming to my spore inspired side project!</t>
   </si>
   <si>
-    <t>My ecosystem/evolution simulator is getting a lot prettier with flowers and bioluminescence</t>
+    <t>full trailer</t>
+  </si>
+  <si>
+    <t>long gif</t>
+  </si>
+  <si>
+    <t>Adding flowers and bioluminescence to my ecosystem/evolution sim</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>My ecosystem/evolution simulator now has flowers and bioluminescence</t>
+  </si>
+  <si>
+    <t>short gif</t>
+  </si>
+  <si>
+    <t>Adding flowers to my ecosystem game</t>
   </si>
 </sst>
 </file>
@@ -3615,42 +3633,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="C2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>742</v>
+      </c>
+      <c r="B4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -3662,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11821,10 +11857,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11832,26 +11868,35 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" t="s">
         <v>868</v>
       </c>
     </row>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DAA39-5DC1-4112-844D-5DD985DC4B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="901">
   <si>
     <t>Week</t>
   </si>
@@ -1117,9 +1118,6 @@
   </si>
   <si>
     <t>Sofia &amp; Dima</t>
-  </si>
-  <si>
-    <t>Gaming TV Plus</t>
   </si>
   <si>
     <t>Jimmy Dali</t>
@@ -2720,12 +2718,66 @@
   <si>
     <t>Creatura</t>
   </si>
+  <si>
+    <t>BonBonB</t>
+  </si>
+  <si>
+    <t>Sonoket Gaming</t>
+  </si>
+  <si>
+    <t>sonoketgaming@gmail.com</t>
+  </si>
+  <si>
+    <t>Nederlands</t>
+  </si>
+  <si>
+    <t>business@deladysigner.nl</t>
+  </si>
+  <si>
+    <t>DavincstyleGames</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Merowynger Gaming</t>
+  </si>
+  <si>
+    <t>AldemarHD</t>
+  </si>
+  <si>
+    <t>kontakt@aldemarhd.de</t>
+  </si>
+  <si>
+    <t>Aldemar</t>
+  </si>
+  <si>
+    <t>azzertyran@gmail.com</t>
+  </si>
+  <si>
+    <t>Gaming Plus TV</t>
+  </si>
+  <si>
+    <t>management@davincstyle.nl</t>
+  </si>
+  <si>
+    <t>romano-schmitt@hotmail.com</t>
+  </si>
+  <si>
+    <t>Romano</t>
+  </si>
+  <si>
+    <t>franxxx73yt@gmail.com</t>
+  </si>
+  <si>
+    <t>igentgaming@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2798,6 +2850,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF657786"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2832,7 +2890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2871,10 +2929,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3185,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3195,20 +3254,20 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1"/>
-    <col min="11" max="16" width="20.5703125" style="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="1"/>
-    <col min="21" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1"/>
+    <col min="11" max="16" width="20.5546875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" style="1"/>
+    <col min="21" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3273,7 +3332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3290,7 +3349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3309,7 +3368,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -3328,7 +3387,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3350,7 +3409,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -3369,7 +3428,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3388,7 +3447,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3410,7 +3469,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3466,7 +3525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3491,7 +3550,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3516,7 +3575,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3541,7 +3600,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -3569,7 +3628,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3625,7 +3684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3652,34 +3711,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B1">
         <v>21000</v>
       </c>
       <c r="C1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1" t="s">
         <v>866</v>
       </c>
-      <c r="D1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3687,52 +3746,52 @@
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" t="s">
         <v>866</v>
       </c>
-      <c r="D3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D4" t="s">
         <v>866</v>
       </c>
-      <c r="D4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B5">
         <v>1800</v>
       </c>
       <c r="C5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D5" t="s">
         <v>866</v>
-      </c>
-      <c r="D5" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -3741,25 +3800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3767,13 +3826,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3781,21 +3840,21 @@
         <v>800</v>
       </c>
       <c r="C3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D3" t="s">
         <v>869</v>
       </c>
-      <c r="D3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3809,323 +3868,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>819</v>
       </c>
-      <c r="B1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>820</v>
       </c>
-      <c r="B2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>821</v>
       </c>
-      <c r="B3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>822</v>
       </c>
-      <c r="B4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C5" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>823</v>
       </c>
-      <c r="B5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C6" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>824</v>
       </c>
-      <c r="B6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>825</v>
       </c>
-      <c r="B7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>805</v>
-      </c>
-      <c r="B8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C9" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>826</v>
       </c>
-      <c r="B9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C10" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>827</v>
       </c>
-      <c r="B10" t="s">
-        <v>809</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>808</v>
+      </c>
+      <c r="C11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>828</v>
       </c>
-      <c r="B11" t="s">
-        <v>809</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>829</v>
       </c>
-      <c r="B12" t="s">
-        <v>809</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>808</v>
+      </c>
+      <c r="C13" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>830</v>
       </c>
-      <c r="B13" t="s">
-        <v>809</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>808</v>
+      </c>
+      <c r="C14" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>831</v>
       </c>
-      <c r="B14" t="s">
-        <v>809</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>832</v>
       </c>
-      <c r="B15" t="s">
-        <v>809</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>808</v>
+      </c>
+      <c r="C16" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>833</v>
       </c>
-      <c r="B16" t="s">
-        <v>809</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C17" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>837</v>
+      </c>
+      <c r="B18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" t="s">
+        <v>765</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="B17" t="s">
-        <v>809</v>
-      </c>
-      <c r="C17" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>838</v>
-      </c>
-      <c r="B18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>837</v>
-      </c>
-      <c r="B19" t="s">
-        <v>766</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>839</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>840</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>841</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>842</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>843</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>844</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>845</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>846</v>
-      </c>
-      <c r="B8" t="s">
-        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -4134,261 +4193,261 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" t="s">
         <v>775</v>
       </c>
-      <c r="B1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C2" t="s">
         <v>777</v>
       </c>
-      <c r="B2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C3" t="s">
         <v>779</v>
       </c>
-      <c r="B3" t="s">
-        <v>766</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C4" t="s">
         <v>781</v>
       </c>
-      <c r="B4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C5" t="s">
         <v>783</v>
       </c>
-      <c r="B5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C6" t="s">
         <v>785</v>
       </c>
-      <c r="B6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" t="s">
         <v>788</v>
       </c>
-      <c r="B8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C9" t="s">
         <v>790</v>
       </c>
-      <c r="B9" t="s">
-        <v>766</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C10" t="s">
         <v>792</v>
       </c>
-      <c r="B10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C12" t="s">
         <v>795</v>
       </c>
-      <c r="B12" t="s">
-        <v>766</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C13" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" t="s">
-        <v>766</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C14" t="s">
         <v>798</v>
       </c>
-      <c r="B14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" t="s">
         <v>800</v>
       </c>
-      <c r="B15" t="s">
-        <v>766</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" t="s">
         <v>802</v>
       </c>
-      <c r="B16" t="s">
-        <v>766</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>804</v>
-      </c>
       <c r="B17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C17" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C18" t="s">
         <v>807</v>
       </c>
-      <c r="B18" t="s">
-        <v>766</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>854</v>
+      </c>
+      <c r="B19" t="s">
+        <v>765</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>858</v>
+      </c>
+      <c r="B20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>862</v>
+      </c>
+      <c r="B22" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>855</v>
-      </c>
-      <c r="B19" t="s">
-        <v>766</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>859</v>
-      </c>
-      <c r="B20" t="s">
-        <v>766</v>
-      </c>
-      <c r="C20" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>861</v>
-      </c>
-      <c r="B21" t="s">
-        <v>766</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>863</v>
-      </c>
-      <c r="B22" t="s">
-        <v>809</v>
-      </c>
-      <c r="C22" t="s">
-        <v>864</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4396,20 +4455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
@@ -4423,19 +4482,19 @@
         <v>95</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>753</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4446,16 +4505,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4466,19 +4525,19 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4489,16 +4548,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4509,16 +4568,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4529,19 +4588,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H6" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4552,13 +4611,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F7" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4569,19 +4628,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H8" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4595,10 +4654,10 @@
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4609,19 +4668,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4635,10 +4694,10 @@
         <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4649,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F12" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4666,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F13" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4683,13 +4742,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F14" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4700,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F15" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4717,19 +4776,19 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H16" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4740,13 +4799,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F17" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -4757,21 +4816,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D17">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4781,134 +4840,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -4919,35 +4978,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -4982,19 +5041,19 @@
         <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="P1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>157</v>
@@ -5006,13 +5065,13 @@
         <v>99</v>
       </c>
       <c r="T1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5027,17 +5086,17 @@
         <v>3300</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="S2" t="s">
         <v>439</v>
-      </c>
-      <c r="S2" t="s">
-        <v>440</v>
       </c>
       <c r="U2">
         <f>COUNTA(B2:N2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5052,17 +5111,17 @@
         <v>2000</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="1">COUNTA(B3:N3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5080,17 +5139,17 @@
         <v>1700</v>
       </c>
       <c r="R4" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" t="s">
         <v>443</v>
-      </c>
-      <c r="S4" t="s">
-        <v>444</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5105,20 +5164,20 @@
         <v>1600</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5133,16 +5192,16 @@
         <v>1500</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E7">
         <v>933</v>
@@ -5152,17 +5211,17 @@
         <v>933</v>
       </c>
       <c r="R7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5177,14 +5236,14 @@
         <v>774</v>
       </c>
       <c r="R8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5199,14 +5258,14 @@
         <v>762</v>
       </c>
       <c r="R9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5221,16 +5280,16 @@
         <v>658</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F11">
         <v>311</v>
@@ -5243,16 +5302,16 @@
         <v>584</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H12">
         <v>574</v>
@@ -5265,16 +5324,16 @@
         <v>574</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H13">
         <v>562</v>
@@ -5284,17 +5343,17 @@
         <v>562</v>
       </c>
       <c r="R13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5306,14 +5365,14 @@
         <v>495</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5328,14 +5387,14 @@
         <v>474</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -5353,14 +5412,14 @@
         <v>407</v>
       </c>
       <c r="R16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -5381,14 +5440,14 @@
         <v>372</v>
       </c>
       <c r="R17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5400,17 +5459,17 @@
         <v>310</v>
       </c>
       <c r="R18" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="T18" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5425,16 +5484,16 @@
         <v>305</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H20">
         <v>297</v>
@@ -5444,14 +5503,14 @@
         <v>297</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -5463,14 +5522,14 @@
         <v>295</v>
       </c>
       <c r="R21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5488,16 +5547,16 @@
         <v>290</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E23">
         <v>0.2</v>
@@ -5511,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -5523,20 +5582,20 @@
         <v>286</v>
       </c>
       <c r="R24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S24" t="s">
+        <v>478</v>
+      </c>
+      <c r="T24" t="s">
         <v>479</v>
-      </c>
-      <c r="T24" t="s">
-        <v>480</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5551,14 +5610,14 @@
         <v>262</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5576,17 +5635,17 @@
         <v>258</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5598,20 +5657,20 @@
         <v>249</v>
       </c>
       <c r="R27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S27" t="s">
         <v>172</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5626,14 +5685,14 @@
         <v>236</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5648,14 +5707,14 @@
         <v>222</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -5667,14 +5726,14 @@
         <v>221</v>
       </c>
       <c r="R30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -5686,17 +5745,17 @@
         <v>215</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5708,14 +5767,14 @@
         <v>212</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -5730,14 +5789,14 @@
         <v>204</v>
       </c>
       <c r="R33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5752,17 +5811,17 @@
         <v>204</v>
       </c>
       <c r="R34" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="S34" t="s">
         <v>452</v>
-      </c>
-      <c r="S34" t="s">
-        <v>453</v>
       </c>
       <c r="U34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>348</v>
       </c>
@@ -5780,14 +5839,14 @@
         <v>196</v>
       </c>
       <c r="R35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -5805,17 +5864,17 @@
         <v>164</v>
       </c>
       <c r="R36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5830,17 +5889,17 @@
         <v>162</v>
       </c>
       <c r="R37" t="s">
+        <v>511</v>
+      </c>
+      <c r="S37" t="s">
         <v>512</v>
-      </c>
-      <c r="S37" t="s">
-        <v>513</v>
       </c>
       <c r="U37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5852,17 +5911,17 @@
         <v>154</v>
       </c>
       <c r="R38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5874,17 +5933,17 @@
         <v>146</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -5902,17 +5961,17 @@
         <v>146</v>
       </c>
       <c r="R40" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="S40" t="s">
         <v>528</v>
-      </c>
-      <c r="S40" t="s">
-        <v>529</v>
       </c>
       <c r="U40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5927,17 +5986,17 @@
         <v>143</v>
       </c>
       <c r="R41" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="S41" t="s">
         <v>538</v>
-      </c>
-      <c r="S41" t="s">
-        <v>539</v>
       </c>
       <c r="U41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -5952,17 +6011,17 @@
         <v>142</v>
       </c>
       <c r="R42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -5977,16 +6036,16 @@
         <v>136</v>
       </c>
       <c r="R43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G44">
         <v>126</v>
@@ -5999,14 +6058,14 @@
         <v>126</v>
       </c>
       <c r="R44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -6024,14 +6083,14 @@
         <v>116</v>
       </c>
       <c r="R45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U45">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -6043,14 +6102,14 @@
         <v>114</v>
       </c>
       <c r="R46" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -6062,14 +6121,14 @@
         <v>112</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -6090,14 +6149,14 @@
         <v>111</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6109,17 +6168,17 @@
         <v>108</v>
       </c>
       <c r="R49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="U49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -6137,16 +6196,16 @@
         <v>108</v>
       </c>
       <c r="R50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51">
         <v>99</v>
@@ -6156,14 +6215,14 @@
         <v>99</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -6175,38 +6234,41 @@
         <v>98</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53">
         <v>97</v>
+      </c>
+      <c r="O53">
+        <v>13</v>
       </c>
       <c r="Q53" s="13">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="T53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E54">
         <v>92</v>
@@ -6219,14 +6281,14 @@
         <v>92</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>346</v>
       </c>
@@ -6238,16 +6300,16 @@
         <v>86</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H56">
         <v>84</v>
@@ -6263,17 +6325,17 @@
         <v>84</v>
       </c>
       <c r="R56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U56">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -6285,14 +6347,14 @@
         <v>82</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6307,17 +6369,17 @@
         <v>78</v>
       </c>
       <c r="R58" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="S58" t="s">
         <v>534</v>
-      </c>
-      <c r="S58" t="s">
-        <v>535</v>
       </c>
       <c r="U58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6332,16 +6394,16 @@
         <v>76</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U59">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H60">
         <v>68</v>
@@ -6354,19 +6416,19 @@
         <v>68</v>
       </c>
       <c r="R60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U60">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H61">
         <v>67</v>
@@ -6376,17 +6438,17 @@
         <v>67</v>
       </c>
       <c r="R61" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="T61" t="s">
         <v>597</v>
-      </c>
-      <c r="T61" t="s">
-        <v>598</v>
       </c>
       <c r="U61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -6404,14 +6466,14 @@
         <v>66</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6438,16 +6500,16 @@
         <v>59</v>
       </c>
       <c r="R63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U63">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E64">
         <v>58</v>
@@ -6460,17 +6522,17 @@
         <v>58</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S64" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U64">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -6485,17 +6547,17 @@
         <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -6507,14 +6569,14 @@
         <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -6526,16 +6588,16 @@
         <v>55</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U130" si="3">COUNTA(B67:N67)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E68">
         <v>55</v>
@@ -6548,14 +6610,14 @@
         <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U68">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -6567,14 +6629,14 @@
         <v>54</v>
       </c>
       <c r="R69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -6592,19 +6654,19 @@
         <v>53</v>
       </c>
       <c r="R70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71">
         <v>55</v>
@@ -6623,14 +6685,14 @@
         <v>64</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U71">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -6642,17 +6704,17 @@
         <v>51</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S72" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -6667,14 +6729,14 @@
         <v>49</v>
       </c>
       <c r="R73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U73">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -6689,14 +6751,14 @@
         <v>46</v>
       </c>
       <c r="R74" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U74">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -6708,14 +6770,14 @@
         <v>45</v>
       </c>
       <c r="R75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6733,17 +6795,17 @@
         <v>44</v>
       </c>
       <c r="R76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U76">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6755,14 +6817,14 @@
         <v>43</v>
       </c>
       <c r="R77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6777,14 +6839,14 @@
         <v>42</v>
       </c>
       <c r="R78" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -6802,17 +6864,17 @@
         <v>40</v>
       </c>
       <c r="R79" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U79">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -6830,14 +6892,14 @@
         <v>39</v>
       </c>
       <c r="R80" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="U80">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -6849,14 +6911,14 @@
         <v>39</v>
       </c>
       <c r="R81" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U81">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -6868,14 +6930,14 @@
         <v>38</v>
       </c>
       <c r="R82" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -6884,20 +6946,23 @@
       </c>
       <c r="H83">
         <v>13</v>
+      </c>
+      <c r="O83">
+        <v>14</v>
       </c>
       <c r="Q83" s="13">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U83">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -6909,17 +6974,17 @@
         <v>34</v>
       </c>
       <c r="R84" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="S84" t="s">
         <v>457</v>
-      </c>
-      <c r="S84" t="s">
-        <v>458</v>
       </c>
       <c r="U84">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -6931,17 +6996,17 @@
         <v>34</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -6953,14 +7018,14 @@
         <v>33</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -6972,16 +7037,16 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U87">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E88">
         <v>30</v>
@@ -6991,14 +7056,14 @@
         <v>30</v>
       </c>
       <c r="R88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U88">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7013,17 +7078,17 @@
         <v>28</v>
       </c>
       <c r="R89" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U89">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7038,14 +7103,14 @@
         <v>27</v>
       </c>
       <c r="R90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U90">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -7060,17 +7125,17 @@
         <v>27</v>
       </c>
       <c r="R91" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U91">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7088,14 +7153,14 @@
         <v>27</v>
       </c>
       <c r="R92" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U92">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -7107,14 +7172,14 @@
         <v>26</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U93">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7126,14 +7191,14 @@
         <v>26</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U94">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -7148,16 +7213,16 @@
         <v>26</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U95">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H96">
         <v>26</v>
@@ -7167,16 +7232,16 @@
         <v>26</v>
       </c>
       <c r="R96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U96">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E97">
         <v>24</v>
@@ -7189,17 +7254,17 @@
         <v>24</v>
       </c>
       <c r="R97" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T97" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U97">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -7211,14 +7276,14 @@
         <v>23</v>
       </c>
       <c r="R98" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7230,17 +7295,17 @@
         <v>23</v>
       </c>
       <c r="R99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T99" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -7258,16 +7323,16 @@
         <v>22</v>
       </c>
       <c r="R100" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U100">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E101">
         <v>22</v>
@@ -7277,17 +7342,17 @@
         <v>22</v>
       </c>
       <c r="R101" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7299,14 +7364,14 @@
         <v>21</v>
       </c>
       <c r="R102" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7321,20 +7386,20 @@
         <v>21</v>
       </c>
       <c r="R103" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S103" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T103" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U103">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7346,16 +7411,16 @@
         <v>21</v>
       </c>
       <c r="R104" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U104">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E105">
         <v>21</v>
@@ -7368,14 +7433,14 @@
         <v>21</v>
       </c>
       <c r="R105" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U105">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7387,14 +7452,14 @@
         <v>18</v>
       </c>
       <c r="R106" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U106">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -7409,14 +7474,14 @@
         <v>17</v>
       </c>
       <c r="R107" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U107">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -7434,14 +7499,14 @@
         <v>16</v>
       </c>
       <c r="R108" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U108">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -7453,17 +7518,17 @@
         <v>15</v>
       </c>
       <c r="R109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S109" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U109">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -7478,17 +7543,17 @@
         <v>14</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S110" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U110">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7500,20 +7565,20 @@
         <v>13</v>
       </c>
       <c r="R111" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S111" t="s">
+        <v>467</v>
+      </c>
+      <c r="T111" t="s">
         <v>468</v>
-      </c>
-      <c r="T111" t="s">
-        <v>469</v>
       </c>
       <c r="U111">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -7528,17 +7593,17 @@
         <v>13</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7553,14 +7618,14 @@
         <v>12</v>
       </c>
       <c r="R113" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U113">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7575,19 +7640,19 @@
         <v>12</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U114">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E115">
         <v>12</v>
@@ -7600,14 +7665,14 @@
         <v>12</v>
       </c>
       <c r="R115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U115">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7619,17 +7684,17 @@
         <v>11</v>
       </c>
       <c r="R116" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="S116" t="s">
         <v>571</v>
-      </c>
-      <c r="S116" t="s">
-        <v>572</v>
       </c>
       <c r="U116">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7641,20 +7706,20 @@
         <v>11</v>
       </c>
       <c r="R117" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="S117" t="s">
+        <v>572</v>
+      </c>
+      <c r="T117" t="s">
         <v>574</v>
-      </c>
-      <c r="S117" t="s">
-        <v>573</v>
-      </c>
-      <c r="T117" t="s">
-        <v>575</v>
       </c>
       <c r="U117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7669,14 +7734,14 @@
         <v>11</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U118">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7685,20 +7750,23 @@
       </c>
       <c r="K119">
         <v>6000</v>
+      </c>
+      <c r="O119">
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q119" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R119" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U119">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7710,17 +7778,17 @@
         <v>10</v>
       </c>
       <c r="R120" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U120">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7735,14 +7803,14 @@
         <v>9.9</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="U121">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7754,14 +7822,14 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="R122" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U122">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7776,14 +7844,14 @@
         <v>9</v>
       </c>
       <c r="R123" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U123">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7795,14 +7863,14 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="R124" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U124">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7820,14 +7888,14 @@
         <v>8.6</v>
       </c>
       <c r="R125" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U125">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7839,17 +7907,17 @@
         <v>8.5</v>
       </c>
       <c r="R126" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S126" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U126">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7861,16 +7929,16 @@
         <v>7.9</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E128">
         <v>7.4</v>
@@ -7880,14 +7948,14 @@
         <v>7.4</v>
       </c>
       <c r="R128" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U128">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -7899,19 +7967,19 @@
         <v>7.1</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="S129" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U129">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -7921,14 +7989,14 @@
         <v>7</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U130">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -7940,17 +8008,17 @@
         <v>6.8</v>
       </c>
       <c r="R131" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T131" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U131">
         <f t="shared" ref="U131:U194" si="5">COUNTA(B131:N131)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -7962,19 +8030,19 @@
         <v>6.5</v>
       </c>
       <c r="R132" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T132" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U132">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E133">
         <v>6.5</v>
@@ -7984,14 +8052,14 @@
         <v>6.5</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U133">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -8003,14 +8071,14 @@
         <v>6.4</v>
       </c>
       <c r="T134" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U134">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -8022,14 +8090,14 @@
         <v>5.9</v>
       </c>
       <c r="R135" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U135">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>351</v>
       </c>
@@ -8041,17 +8109,17 @@
         <v>5.6</v>
       </c>
       <c r="R136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T136" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U136">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -8069,14 +8137,14 @@
         <v>5.5</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U137">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -8091,14 +8159,14 @@
         <v>5.3</v>
       </c>
       <c r="R138" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U138">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -8110,17 +8178,17 @@
         <v>5.2</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U139">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -8132,14 +8200,14 @@
         <v>5.2</v>
       </c>
       <c r="R140" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U140">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -8151,14 +8219,14 @@
         <v>4.5</v>
       </c>
       <c r="T141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U141">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -8170,14 +8238,14 @@
         <v>4.5</v>
       </c>
       <c r="R142" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U142">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8189,30 +8257,39 @@
         <v>4.5</v>
       </c>
       <c r="R143" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U143">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>211</v>
       </c>
       <c r="G144">
         <v>4.5</v>
+      </c>
+      <c r="O144">
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q144" s="13">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
+      <c r="R144" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="T144" t="s">
+        <v>886</v>
+      </c>
       <c r="U144">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -8228,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -8244,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -8256,14 +8333,14 @@
         <v>4.3</v>
       </c>
       <c r="T147" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U147">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -8279,9 +8356,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E149">
         <v>4.3</v>
@@ -8295,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -8307,17 +8384,17 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="R150" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U150">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -8333,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -8349,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -8370,16 +8447,16 @@
         <v>3.9</v>
       </c>
       <c r="R153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U153">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J154">
         <v>3.9</v>
@@ -8393,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -8409,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8421,17 +8498,17 @@
         <v>3.7</v>
       </c>
       <c r="R156" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S156" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U156">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8443,17 +8520,17 @@
         <v>3.6</v>
       </c>
       <c r="R157" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="S157" t="s">
         <v>497</v>
-      </c>
-      <c r="S157" t="s">
-        <v>498</v>
       </c>
       <c r="U157">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8469,9 +8546,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E159">
         <v>3.4</v>
@@ -8485,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -8501,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -8517,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -8533,9 +8610,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H163">
         <v>2.8</v>
@@ -8549,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -8565,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>244</v>
       </c>
@@ -8581,9 +8658,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E166">
         <v>2.7</v>
@@ -8597,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -8609,17 +8686,17 @@
         <v>2.5</v>
       </c>
       <c r="R167" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S167" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U167">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -8635,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -8651,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8667,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -8679,17 +8756,17 @@
         <v>2.4</v>
       </c>
       <c r="R171" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S171" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U171">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -8701,14 +8778,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="R172" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U172">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8724,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -8740,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -8756,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -8768,20 +8845,23 @@
       </c>
       <c r="L176">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="O176">
+        <v>13</v>
       </c>
       <c r="Q176" s="13">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S176" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U176">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -8793,14 +8873,14 @@
         <v>1.9</v>
       </c>
       <c r="R177" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U177">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8816,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -8832,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -8848,9 +8928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E181">
         <v>1.8</v>
@@ -8864,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -8880,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -8896,9 +8976,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E184">
         <v>1.6</v>
@@ -8912,9 +8992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E185">
         <v>1.6</v>
@@ -8928,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -8940,14 +9020,14 @@
         <v>1.5</v>
       </c>
       <c r="R186" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U186">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>312</v>
       </c>
@@ -8959,22 +9039,25 @@
       </c>
       <c r="J187">
         <v>0.5</v>
+      </c>
+      <c r="O187">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q187" s="13">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="R187" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U187">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E188">
         <v>1.5</v>
@@ -8988,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9000,14 +9083,14 @@
         <v>1.4</v>
       </c>
       <c r="R189" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U189">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -9023,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9039,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -9055,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -9071,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -9087,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>319</v>
       </c>
@@ -9103,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -9115,17 +9198,17 @@
         <v>1.3</v>
       </c>
       <c r="R196" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S196" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U196">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -9140,14 +9223,14 @@
         <v>1.3</v>
       </c>
       <c r="R197" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U197">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -9163,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -9175,17 +9258,17 @@
         <v>1.2</v>
       </c>
       <c r="R199" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S199" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U199">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>143</v>
       </c>
@@ -9197,17 +9280,17 @@
         <v>1.2</v>
       </c>
       <c r="R200" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S200" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U200">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -9219,16 +9302,16 @@
         <v>1.2</v>
       </c>
       <c r="R201" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U201">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E202">
         <v>1.2</v>
@@ -9242,9 +9325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E203">
         <v>1.2</v>
@@ -9258,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -9274,7 +9357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -9290,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -9306,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -9322,9 +9405,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E208">
         <v>1.1000000000000001</v>
@@ -9338,9 +9421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E209">
         <v>1.1000000000000001</v>
@@ -9354,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -9372,14 +9455,14 @@
         <v>1</v>
       </c>
       <c r="R210" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="U210">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -9395,7 +9478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -9411,9 +9494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9427,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -9442,17 +9525,17 @@
         <v>0.9</v>
       </c>
       <c r="R214" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="S214" t="s">
         <v>726</v>
-      </c>
-      <c r="S214" t="s">
-        <v>727</v>
       </c>
       <c r="U214">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>149</v>
       </c>
@@ -9468,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -9484,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -9500,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>260</v>
       </c>
@@ -9516,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -9532,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -9548,9 +9631,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H221">
         <v>0.8</v>
@@ -9564,9 +9647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J222">
         <v>0.8</v>
@@ -9580,9 +9663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E223">
         <v>0.8</v>
@@ -9596,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -9612,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>142</v>
       </c>
@@ -9628,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -9644,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>283</v>
       </c>
@@ -9660,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -9676,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -9692,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -9708,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -9724,9 +9807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E232">
         <v>0.6</v>
@@ -9740,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9756,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9772,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9788,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -9804,9 +9887,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E237">
         <v>0.5</v>
@@ -9820,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>102</v>
       </c>
@@ -9836,23 +9919,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>146</v>
       </c>
       <c r="C239">
         <v>0.4</v>
       </c>
+      <c r="F239">
+        <v>19</v>
+      </c>
+      <c r="O239">
+        <v>1.2</v>
+      </c>
       <c r="Q239" s="13">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>19</v>
+      </c>
+      <c r="R239" s="9" t="s">
+        <v>894</v>
       </c>
       <c r="U239">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>303</v>
       </c>
@@ -9868,9 +9960,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J241">
         <v>0.4</v>
@@ -9884,9 +9976,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E242">
         <v>0.4</v>
@@ -9900,9 +9992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E243">
         <v>0.4</v>
@@ -9916,9 +10008,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E244">
         <v>0.4</v>
@@ -9931,17 +10023,17 @@
         <v>0.4</v>
       </c>
       <c r="R244" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S244" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U244">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -9957,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -9973,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -9989,7 +10081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -10005,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>234</v>
       </c>
@@ -10021,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10037,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10053,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -10069,7 +10161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -10085,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -10101,9 +10193,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J255">
         <v>0.3</v>
@@ -10117,9 +10209,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E256">
         <v>0.3</v>
@@ -10133,9 +10225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E257">
         <v>0.3</v>
@@ -10149,9 +10241,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E258">
         <v>0.3</v>
@@ -10165,9 +10257,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E259">
         <v>0.3</v>
@@ -10181,9 +10273,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E260">
         <v>0.3</v>
@@ -10197,9 +10289,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E261">
         <v>0.3</v>
@@ -10213,9 +10305,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E262">
         <v>0.3</v>
@@ -10229,9 +10321,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E263">
         <v>0.247</v>
@@ -10245,7 +10337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -10261,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -10277,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -10293,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -10309,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>245</v>
       </c>
@@ -10325,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>246</v>
       </c>
@@ -10341,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -10357,9 +10449,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H271">
         <v>0.2</v>
@@ -10373,9 +10465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J272">
         <v>0.2</v>
@@ -10389,9 +10481,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J273">
         <v>0.2</v>
@@ -10405,9 +10497,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J274">
         <v>0.2</v>
@@ -10421,9 +10513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E275">
         <v>0.2</v>
@@ -10437,9 +10529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E276">
         <v>0.2</v>
@@ -10453,9 +10545,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E277">
         <v>0.2</v>
@@ -10469,9 +10561,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E278">
         <v>0.2</v>
@@ -10485,9 +10577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E279">
         <v>0.2</v>
@@ -10501,9 +10593,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E280">
         <v>0.2</v>
@@ -10517,9 +10609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E281">
         <v>0.2</v>
@@ -10533,9 +10625,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E282">
         <v>0.2</v>
@@ -10549,9 +10641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E283">
         <v>0.2</v>
@@ -10565,9 +10657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E284">
         <v>0.2</v>
@@ -10581,9 +10673,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E285">
         <v>0.2</v>
@@ -10597,9 +10689,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E286">
         <v>0.2</v>
@@ -10613,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>109</v>
       </c>
@@ -10629,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>130</v>
       </c>
@@ -10645,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>137</v>
       </c>
@@ -10661,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>138</v>
       </c>
@@ -10677,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -10693,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>264</v>
       </c>
@@ -10709,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10725,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -10741,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -10757,25 +10849,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>357</v>
+        <v>895</v>
       </c>
       <c r="H296">
         <v>0.1</v>
+      </c>
+      <c r="O296">
+        <v>1.3</v>
       </c>
       <c r="Q296" s="13">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
+      <c r="R296" t="s">
+        <v>900</v>
+      </c>
       <c r="U296">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H297">
         <v>0.1</v>
@@ -10789,9 +10887,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H298">
         <v>0.1</v>
@@ -10805,9 +10903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J299">
         <v>0.1</v>
@@ -10821,9 +10919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J300">
         <v>0.1</v>
@@ -10837,9 +10935,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J301">
         <v>0.1</v>
@@ -10853,9 +10951,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E302">
         <v>0.1</v>
@@ -10869,9 +10967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E303">
         <v>0.1</v>
@@ -10885,9 +10983,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E304">
         <v>0.1</v>
@@ -10901,9 +10999,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E305">
         <v>0.1</v>
@@ -10917,9 +11015,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E306">
         <v>0.1</v>
@@ -10933,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>163</v>
       </c>
@@ -10949,9 +11047,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M308">
         <v>2200</v>
@@ -10961,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="R308" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U308">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M309">
         <v>5.4</v>
@@ -10980,16 +11078,16 @@
         <v>0</v>
       </c>
       <c r="R309" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="U309">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K310">
         <v>237</v>
@@ -11002,16 +11100,16 @@
         <v>0</v>
       </c>
       <c r="R310" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U310">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M311">
         <v>14</v>
@@ -11021,19 +11119,19 @@
         <v>0</v>
       </c>
       <c r="R311" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S311" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U311">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M312">
         <v>15</v>
@@ -11043,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="R312" t="s">
+        <v>634</v>
+      </c>
+      <c r="S312" t="s">
         <v>635</v>
-      </c>
-      <c r="S312" t="s">
-        <v>636</v>
       </c>
       <c r="U312">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K313">
         <v>73</v>
@@ -11068,19 +11166,19 @@
         <v>0</v>
       </c>
       <c r="R313" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S313" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="U313">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M314">
         <v>2.1</v>
@@ -11090,19 +11188,19 @@
         <v>0</v>
       </c>
       <c r="R314" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T314" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U314">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M315">
         <v>79</v>
@@ -11112,16 +11210,16 @@
         <v>0</v>
       </c>
       <c r="R315" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U315">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K316">
         <v>85</v>
@@ -11137,16 +11235,16 @@
         <v>0</v>
       </c>
       <c r="R316" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="U316">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G317">
         <v>7.4</v>
@@ -11159,38 +11257,41 @@
         <v>7.4</v>
       </c>
       <c r="R317" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U317">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K318">
         <v>1900</v>
       </c>
       <c r="M318">
         <v>235</v>
+      </c>
+      <c r="O318">
+        <v>11</v>
       </c>
       <c r="Q318" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R318" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U318">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F319">
         <v>50</v>
@@ -11206,16 +11307,16 @@
         <v>50</v>
       </c>
       <c r="R319" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U319">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M320">
         <v>148</v>
@@ -11225,16 +11326,16 @@
         <v>0</v>
       </c>
       <c r="R320" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U320">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M321">
         <v>3</v>
@@ -11244,16 +11345,16 @@
         <v>0</v>
       </c>
       <c r="R321" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U321">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M322">
         <v>45</v>
@@ -11263,16 +11364,16 @@
         <v>0</v>
       </c>
       <c r="R322" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U322">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M323">
         <v>5.3</v>
@@ -11282,19 +11383,19 @@
         <v>0</v>
       </c>
       <c r="R323" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T323" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U323">
         <f t="shared" ref="U323:U354" si="11">COUNTA(B323:N323)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M324">
         <v>7.6</v>
@@ -11304,16 +11405,16 @@
         <v>0</v>
       </c>
       <c r="R324" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U324">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K325">
         <v>305</v>
@@ -11326,16 +11427,16 @@
         <v>0</v>
       </c>
       <c r="R325" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="U325">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M326">
         <v>1.9</v>
@@ -11345,82 +11446,82 @@
         <v>0</v>
       </c>
       <c r="R326" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S326" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="U326">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M327">
         <v>1.9</v>
       </c>
       <c r="R327" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U327">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M328">
         <v>3.3</v>
       </c>
       <c r="R328" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U328">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M329">
         <v>2.7</v>
       </c>
       <c r="R329" t="s">
+        <v>671</v>
+      </c>
+      <c r="S329" t="s">
         <v>672</v>
-      </c>
-      <c r="S329" t="s">
-        <v>673</v>
       </c>
       <c r="U329">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M330">
         <v>2</v>
       </c>
       <c r="R330" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="U330">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K331">
         <v>1.3</v>
@@ -11429,31 +11530,31 @@
         <v>2</v>
       </c>
       <c r="R331" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="U331">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M332">
         <v>3</v>
       </c>
       <c r="R332" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U332">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K333">
         <v>519</v>
@@ -11462,82 +11563,82 @@
         <v>130</v>
       </c>
       <c r="R333" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U333">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M334">
         <v>3.7</v>
       </c>
       <c r="R334" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="U334">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M335">
         <v>1.9</v>
       </c>
       <c r="R335" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U335">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M336">
         <v>2.8</v>
       </c>
       <c r="R336" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="S336" t="s">
         <v>685</v>
-      </c>
-      <c r="S336" t="s">
-        <v>686</v>
       </c>
       <c r="U336">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M337">
         <v>1.2</v>
       </c>
       <c r="R337" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T337" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U337">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F338">
         <v>314</v>
@@ -11546,31 +11647,31 @@
         <v>93</v>
       </c>
       <c r="R338" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U338">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M339">
         <v>3.1</v>
       </c>
       <c r="R339" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U339">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F340">
         <v>116</v>
@@ -11579,79 +11680,79 @@
         <v>15</v>
       </c>
       <c r="R340" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="S340" t="s">
         <v>695</v>
-      </c>
-      <c r="S340" t="s">
-        <v>696</v>
       </c>
       <c r="U340">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M341">
         <v>13</v>
       </c>
       <c r="R341" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U341">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M342">
         <v>23</v>
       </c>
       <c r="R342" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U342">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M343">
         <v>5.3</v>
       </c>
       <c r="R343" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U343">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M344">
         <v>6.7</v>
       </c>
       <c r="T344" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U344">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K345">
         <v>302</v>
@@ -11660,34 +11761,34 @@
         <v>139</v>
       </c>
       <c r="R345" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U345">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M346">
         <v>4</v>
       </c>
       <c r="R346" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S346" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U346">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F347">
         <v>2.6</v>
@@ -11699,46 +11800,46 @@
         <v>6.3</v>
       </c>
       <c r="R347" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U347">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M348">
         <v>3.2</v>
       </c>
       <c r="R348" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U348">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M349">
         <v>5</v>
       </c>
       <c r="R349" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U349">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K350">
         <v>574</v>
@@ -11747,49 +11848,49 @@
         <v>666</v>
       </c>
       <c r="R350" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U350">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M351">
         <v>4.0999999999999996</v>
       </c>
       <c r="R351" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U351">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M352">
         <v>26</v>
       </c>
       <c r="R352" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T352" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U352">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K353">
         <v>0.1</v>
@@ -11798,16 +11899,16 @@
         <v>7.3</v>
       </c>
       <c r="R353" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U353">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K354">
         <v>7.3</v>
@@ -11816,49 +11917,136 @@
         <v>10</v>
       </c>
       <c r="R354" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U354">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A355" s="17"/>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A355" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="O355">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R355" t="s">
+        <v>491</v>
+      </c>
+      <c r="T355" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>884</v>
+      </c>
+      <c r="O356">
+        <v>1.5</v>
+      </c>
+      <c r="R356" s="20" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>888</v>
+      </c>
+      <c r="O357">
+        <v>3.3</v>
+      </c>
+      <c r="R357" t="s">
+        <v>896</v>
+      </c>
+      <c r="S357" t="s">
+        <v>889</v>
+      </c>
+      <c r="T357" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>890</v>
+      </c>
+      <c r="O358">
+        <v>1.6</v>
+      </c>
+      <c r="R358" t="s">
+        <v>897</v>
+      </c>
+      <c r="S358" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>891</v>
+      </c>
+      <c r="G359">
+        <v>5.5</v>
+      </c>
+      <c r="O359">
+        <v>4.2</v>
+      </c>
+      <c r="R359" t="s">
+        <v>892</v>
+      </c>
+      <c r="S359" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>236</v>
+      </c>
+      <c r="F360">
+        <v>29</v>
+      </c>
+      <c r="G360">
+        <v>3.3</v>
+      </c>
+      <c r="P360">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R360" t="s">
+        <v>899</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1">
-    <sortState ref="A2:T79">
+  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T79">
       <sortCondition descending="1" ref="Q1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:T308">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T308">
     <sortCondition descending="1" ref="Q2:Q308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
-    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
-    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
-    <hyperlink ref="R25" r:id="rId4"/>
-    <hyperlink ref="R26" r:id="rId5"/>
-    <hyperlink ref="R32" r:id="rId6"/>
-    <hyperlink ref="R85" r:id="rId7"/>
-    <hyperlink ref="R62" r:id="rId8"/>
-    <hyperlink ref="R112" r:id="rId9"/>
-    <hyperlink ref="R126" r:id="rId10"/>
-    <hyperlink ref="R142" r:id="rId11"/>
-    <hyperlink ref="T27" r:id="rId12"/>
-    <hyperlink ref="R157" r:id="rId13"/>
-    <hyperlink ref="R48" r:id="rId14"/>
-    <hyperlink ref="R59" r:id="rId15"/>
-    <hyperlink ref="R94" r:id="rId16"/>
-    <hyperlink ref="R95" r:id="rId17"/>
-    <hyperlink ref="R114" r:id="rId18"/>
-    <hyperlink ref="R51" r:id="rId19"/>
-    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
-    <hyperlink ref="R133" r:id="rId21"/>
-    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
-    <hyperlink ref="R342" r:id="rId23"/>
+    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="R25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="R26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="R32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="R85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="R62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="R112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="R126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="R142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="T27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="R157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="R48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="R59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="R94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="R95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="R114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="R51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="R133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="R342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -11866,125 +12054,125 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>737</v>
       </c>
-      <c r="B10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>879</v>
+      </c>
+      <c r="B12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C12" t="s">
         <v>880</v>
-      </c>
-      <c r="B12" t="s">
-        <v>882</v>
-      </c>
-      <c r="C12" t="s">
-        <v>881</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B1">
         <v>1000</v>
       </c>
       <c r="C1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -11992,18 +12180,18 @@
         <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DAA39-5DC1-4112-844D-5DD985DC4B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074F032-41EE-4AB5-AABE-E0666B4BA298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -4458,8 +4458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4553,8 +4553,8 @@
       <c r="F4" t="s">
         <v>755</v>
       </c>
-      <c r="G4" t="s">
-        <v>523</v>
+      <c r="G4" s="19" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074F032-41EE-4AB5-AABE-E0666B4BA298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="901">
   <si>
     <t>Week</t>
   </si>
@@ -2593,15 +2592,9 @@
     <t>https://www.polygon.com/contact#tip</t>
   </si>
   <si>
-    <t>https://www.gamingonlinux.com/email-us/</t>
-  </si>
-  <si>
     <t>https://nanogamingnews.com/contact/</t>
   </si>
   <si>
-    <t>https://ind13.com/contact-us/</t>
-  </si>
-  <si>
     <t>https://indie-credible.com/get-in-touch/</t>
   </si>
   <si>
@@ -2617,9 +2610,6 @@
     <t>Polygon</t>
   </si>
   <si>
-    <t>Gaming On Linux</t>
-  </si>
-  <si>
     <t>Nano Gaming News</t>
   </si>
   <si>
@@ -2771,12 +2761,21 @@
   </si>
   <si>
     <t>igentgaming@gmail.com</t>
+  </si>
+  <si>
+    <t>Gaming on Linux</t>
+  </si>
+  <si>
+    <t>contact@gamingonlinux.com</t>
+  </si>
+  <si>
+    <t>https://www.ind13.com/get-in-touch-with-ind13/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2933,7 +2932,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3244,30 +3243,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1"/>
-    <col min="11" max="16" width="20.5546875" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" style="1"/>
-    <col min="21" max="16384" width="20.5546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1"/>
+    <col min="11" max="16" width="20.5703125" style="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="1"/>
+    <col min="21" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -3387,7 +3386,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3409,7 +3408,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -3428,7 +3427,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3447,7 +3446,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3469,7 +3468,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3550,7 +3549,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3575,7 +3574,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3600,7 +3599,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -3628,7 +3627,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3711,20 +3710,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>738</v>
       </c>
@@ -3732,13 +3731,13 @@
         <v>21000</v>
       </c>
       <c r="C1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3746,52 +3745,52 @@
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D3" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B5">
         <v>1800</v>
       </c>
       <c r="C5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -3800,25 +3799,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3826,13 +3825,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3840,21 +3839,21 @@
         <v>800</v>
       </c>
       <c r="C3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D3" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3868,19 +3867,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>818</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>819</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>821</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>822</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>823</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>824</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>825</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>826</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>827</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>828</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>830</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>832</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>833</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>837</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>836</v>
       </c>
@@ -4089,120 +4088,127 @@
         <v>834</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B20" t="s">
         <v>765</v>
       </c>
       <c r="C20" t="s">
-        <v>856</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>898</v>
+      </c>
+      <c r="B21" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>838</v>
       </c>
       <c r="B1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>839</v>
       </c>
       <c r="B2" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>840</v>
       </c>
       <c r="B3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>842</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>843</v>
+      </c>
+      <c r="B8" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>843</v>
-      </c>
-      <c r="B6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>844</v>
-      </c>
-      <c r="B7" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>845</v>
-      </c>
-      <c r="B8" t="s">
-        <v>853</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>774</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>782</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>784</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>787</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>791</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>478</v>
       </c>
@@ -4345,7 +4351,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>797</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>799</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>801</v>
       </c>
@@ -4378,7 +4384,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>803</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -4400,54 +4406,54 @@
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B19" t="s">
         <v>765</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>858</v>
       </c>
       <c r="B20" t="s">
         <v>765</v>
       </c>
       <c r="C20" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B21" t="s">
         <v>765</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B22" t="s">
         <v>808</v>
       </c>
       <c r="C22" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4455,20 +4461,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -4829,8 +4835,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4840,134 +4846,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -4978,7 +4984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4988,25 +4994,25 @@
       <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5050,10 +5056,10 @@
         <v>554</v>
       </c>
       <c r="O1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="P1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>157</v>
@@ -5071,7 +5077,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5199,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5372,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5645,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -5733,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>348</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -6021,7 +6027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>519</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -6090,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>395</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -6244,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>417</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>346</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6401,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -6426,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>359</v>
       </c>
@@ -6448,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6532,7 +6538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -6576,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -6636,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>382</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6846,7 +6852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -6874,7 +6880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -6962,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7110,7 +7116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7198,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7418,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -7506,7 +7512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -7553,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7650,7 +7656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7851,7 +7857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -8018,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -8097,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>351</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -8188,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -8279,17 +8285,17 @@
         <v>4.5</v>
       </c>
       <c r="R144" s="8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="T144" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="U144">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -8305,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>408</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -8394,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>377</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -8486,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>399</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>367</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -8642,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>244</v>
       </c>
@@ -8658,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>390</v>
       </c>
@@ -8674,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -8696,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8801,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -8833,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8896,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>406</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -8960,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>425</v>
       </c>
@@ -9008,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>312</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9090,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -9106,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9122,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -9138,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>319</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -9208,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -9230,7 +9236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -9246,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>143</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -9309,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>427</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>384</v>
       </c>
@@ -9421,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -9437,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -9462,7 +9468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>149</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>260</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -9615,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>364</v>
       </c>
@@ -9647,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>376</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -9695,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>142</v>
       </c>
@@ -9711,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -9727,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>283</v>
       </c>
@@ -9743,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -9775,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>394</v>
       </c>
@@ -9823,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9855,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9871,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>396</v>
       </c>
@@ -9903,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>102</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>146</v>
       </c>
@@ -9937,14 +9943,14 @@
         <v>19</v>
       </c>
       <c r="R239" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="U239">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>303</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>375</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>388</v>
       </c>
@@ -9992,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>404</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>407</v>
       </c>
@@ -10033,7 +10039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -10049,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -10065,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -10097,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>234</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10145,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -10161,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -10177,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -10193,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -10209,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>385</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>400</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>405</v>
       </c>
@@ -10257,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>410</v>
       </c>
@@ -10273,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>415</v>
       </c>
@@ -10289,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>422</v>
       </c>
@@ -10305,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>433</v>
       </c>
@@ -10321,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -10337,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -10369,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -10401,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>245</v>
       </c>
@@ -10417,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>246</v>
       </c>
@@ -10433,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -10449,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>370</v>
       </c>
@@ -10481,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>373</v>
       </c>
@@ -10497,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>378</v>
       </c>
@@ -10513,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>386</v>
       </c>
@@ -10529,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>392</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>411</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>412</v>
       </c>
@@ -10577,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>414</v>
       </c>
@@ -10593,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>416</v>
       </c>
@@ -10609,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>421</v>
       </c>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>431</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>432</v>
       </c>
@@ -10657,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>435</v>
       </c>
@@ -10673,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>436</v>
       </c>
@@ -10689,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>437</v>
       </c>
@@ -10705,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>109</v>
       </c>
@@ -10721,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>130</v>
       </c>
@@ -10737,7 +10743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>137</v>
       </c>
@@ -10753,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>138</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -10785,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>264</v>
       </c>
@@ -10801,7 +10807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10817,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -10833,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -10849,9 +10855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="H296">
         <v>0.1</v>
@@ -10864,14 +10870,14 @@
         <v>0.1</v>
       </c>
       <c r="R296" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="U296">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>363</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>368</v>
       </c>
@@ -10903,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>371</v>
       </c>
@@ -10919,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>374</v>
       </c>
@@ -10935,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>379</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>419</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>424</v>
       </c>
@@ -10983,7 +10989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>426</v>
       </c>
@@ -10999,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>429</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>434</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>163</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>625</v>
       </c>
@@ -11066,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>626</v>
       </c>
@@ -11085,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>628</v>
       </c>
@@ -11107,7 +11113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>633</v>
       </c>
@@ -11151,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>636</v>
       </c>
@@ -11176,7 +11182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>642</v>
       </c>
@@ -11217,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>644</v>
       </c>
@@ -11242,7 +11248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>646</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>648</v>
       </c>
@@ -11289,7 +11295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>650</v>
       </c>
@@ -11314,7 +11320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>652</v>
       </c>
@@ -11333,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>654</v>
       </c>
@@ -11352,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>656</v>
       </c>
@@ -11371,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>658</v>
       </c>
@@ -11393,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>659</v>
       </c>
@@ -11412,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>661</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>663</v>
       </c>
@@ -11456,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>666</v>
       </c>
@@ -11471,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>668</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>670</v>
       </c>
@@ -11504,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>673</v>
       </c>
@@ -11519,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>675</v>
       </c>
@@ -11537,7 +11543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>677</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>679</v>
       </c>
@@ -11570,7 +11576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>681</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>683</v>
       </c>
@@ -11600,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>686</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -11654,7 +11660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>692</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>696</v>
       </c>
@@ -11705,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>698</v>
       </c>
@@ -11720,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>699</v>
       </c>
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>702</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>704</v>
       </c>
@@ -11768,7 +11774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>706</v>
       </c>
@@ -11786,7 +11792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>709</v>
       </c>
@@ -11807,7 +11813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>712</v>
       </c>
@@ -11822,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>714</v>
       </c>
@@ -11837,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>716</v>
       </c>
@@ -11855,7 +11861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>718</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>719</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>720</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>721</v>
       </c>
@@ -11924,9 +11930,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="O355">
         <v>4.0999999999999996</v>
@@ -11938,51 +11944,51 @@
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O356">
         <v>1.5</v>
       </c>
       <c r="R356" s="20" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>885</v>
-      </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>888</v>
       </c>
       <c r="O357">
         <v>3.3</v>
       </c>
       <c r="R357" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="S357" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="T357" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O358">
         <v>1.6</v>
       </c>
       <c r="R358" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="S358" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G359">
         <v>5.5</v>
@@ -11991,13 +11997,13 @@
         <v>4.2</v>
       </c>
       <c r="R359" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="S359" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>236</v>
       </c>
@@ -12011,42 +12017,42 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R360" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T79">
+  <autoFilter ref="A1:T1">
+    <sortState ref="A2:T79">
       <sortCondition descending="1" ref="Q1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T308">
+  <sortState ref="A2:T308">
     <sortCondition descending="1" ref="Q2:Q308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="R25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="R26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="R32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="R85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="R62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="R112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="R126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="R142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="T27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="R157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="R48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="R59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="R94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="R95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="R114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="R51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="R133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="R342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
+    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
+    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
+    <hyperlink ref="R25" r:id="rId4"/>
+    <hyperlink ref="R26" r:id="rId5"/>
+    <hyperlink ref="R32" r:id="rId6"/>
+    <hyperlink ref="R85" r:id="rId7"/>
+    <hyperlink ref="R62" r:id="rId8"/>
+    <hyperlink ref="R112" r:id="rId9"/>
+    <hyperlink ref="R126" r:id="rId10"/>
+    <hyperlink ref="R142" r:id="rId11"/>
+    <hyperlink ref="T27" r:id="rId12"/>
+    <hyperlink ref="R157" r:id="rId13"/>
+    <hyperlink ref="R48" r:id="rId14"/>
+    <hyperlink ref="R59" r:id="rId15"/>
+    <hyperlink ref="R94" r:id="rId16"/>
+    <hyperlink ref="R95" r:id="rId17"/>
+    <hyperlink ref="R114" r:id="rId18"/>
+    <hyperlink ref="R51" r:id="rId19"/>
+    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
+    <hyperlink ref="R133" r:id="rId21"/>
+    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
+    <hyperlink ref="R342" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -12054,33 +12060,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>729</v>
       </c>
@@ -12088,32 +12094,32 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>736</v>
       </c>
@@ -12121,58 +12127,58 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B12" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C12" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B1">
         <v>1000</v>
       </c>
       <c r="C1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12180,18 +12186,18 @@
         <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE9983-5F3F-4B81-BE5C-209842073511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="902">
   <si>
     <t>Week</t>
   </si>
@@ -2771,11 +2772,14 @@
   <si>
     <t>https://www.ind13.com/get-in-touch-with-ind13/</t>
   </si>
+  <si>
+    <t>My Spore-inspired ecology sim: now with flowers and bioluminescence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2932,7 +2936,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3243,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,20 +3257,20 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1"/>
-    <col min="11" max="16" width="20.5703125" style="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="1"/>
-    <col min="21" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1"/>
+    <col min="11" max="16" width="20.5546875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" style="1"/>
+    <col min="21" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3367,7 +3371,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -3386,7 +3390,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3408,7 +3412,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -3427,7 +3431,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3468,7 +3472,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3549,7 +3553,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3574,7 +3578,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3599,7 +3603,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -3627,7 +3631,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3710,20 +3714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>738</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3751,7 +3755,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>874</v>
       </c>
@@ -3762,10 +3766,10 @@
         <v>862</v>
       </c>
       <c r="D3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>873</v>
       </c>
@@ -3776,10 +3780,10 @@
         <v>862</v>
       </c>
       <c r="D4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>874</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>862</v>
       </c>
       <c r="D5" t="s">
-        <v>863</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -3799,25 +3803,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>870</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3867,19 +3871,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>818</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>819</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>821</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>822</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>823</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>824</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>825</v>
       </c>
@@ -3978,7 +3982,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>826</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>827</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>828</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>830</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>832</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>833</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>837</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>836</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>854</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -4112,29 +4116,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C19" r:id="rId2"/>
-    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>839</v>
       </c>
@@ -4150,7 +4154,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>840</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>841</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>900</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>842</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -4192,23 +4196,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>774</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -4252,7 +4256,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>782</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>784</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>787</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>791</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>478</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>797</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>799</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>801</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>803</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>851</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>855</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>857</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>859</v>
       </c>
@@ -4452,8 +4456,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4461,20 +4465,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -4835,8 +4839,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D17">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4846,134 +4850,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -4984,7 +4988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,25 +4998,25 @@
       <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5271,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5378,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -5425,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5623,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -5761,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>348</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5905,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -6049,7 +6053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>519</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>395</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>417</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>346</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>359</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>382</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -6742,7 +6746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6811,7 +6815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6852,7 +6856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -6905,7 +6909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -7336,7 +7340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7405,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -7534,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7656,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7772,7 +7776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7857,7 +7861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>351</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -8346,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>408</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>377</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>399</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>367</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>244</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>390</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -8718,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -8734,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -8823,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8902,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>406</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -8982,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>425</v>
       </c>
@@ -9014,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9033,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>312</v>
       </c>
@@ -9061,7 +9065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>319</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -9236,7 +9240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -9252,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>143</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>427</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -9395,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -9411,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>384</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -9484,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -9516,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -9541,7 +9545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>149</v>
       </c>
@@ -9557,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>260</v>
       </c>
@@ -9605,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -9621,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>364</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>376</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -9701,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>142</v>
       </c>
@@ -9717,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -9733,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>283</v>
       </c>
@@ -9749,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -9765,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -9781,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -9797,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>394</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9861,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9877,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>396</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>102</v>
       </c>
@@ -9925,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>146</v>
       </c>
@@ -9950,7 +9954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>303</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>375</v>
       </c>
@@ -9982,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>388</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>404</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>407</v>
       </c>
@@ -10039,7 +10043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -10055,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -10087,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>234</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10151,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -10183,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>385</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>400</v>
       </c>
@@ -10247,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>405</v>
       </c>
@@ -10263,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>410</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>415</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>422</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>433</v>
       </c>
@@ -10327,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -10359,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -10375,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>245</v>
       </c>
@@ -10423,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>246</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>370</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>373</v>
       </c>
@@ -10503,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>378</v>
       </c>
@@ -10519,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>386</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>392</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>411</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>412</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>414</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>416</v>
       </c>
@@ -10615,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>421</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>431</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>432</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>435</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>436</v>
       </c>
@@ -10695,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>437</v>
       </c>
@@ -10711,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>109</v>
       </c>
@@ -10727,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>130</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>137</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>138</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>264</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10823,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -10839,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>892</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>363</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>368</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>371</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>374</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>379</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>419</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>424</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>426</v>
       </c>
@@ -11005,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>429</v>
       </c>
@@ -11021,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>434</v>
       </c>
@@ -11037,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>163</v>
       </c>
@@ -11053,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>625</v>
       </c>
@@ -11072,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>626</v>
       </c>
@@ -11091,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>628</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -11135,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>633</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>636</v>
       </c>
@@ -11182,7 +11186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>642</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>644</v>
       </c>
@@ -11248,7 +11252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>646</v>
       </c>
@@ -11270,7 +11274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>648</v>
       </c>
@@ -11295,7 +11299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>650</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>652</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>654</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>656</v>
       </c>
@@ -11377,7 +11381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>658</v>
       </c>
@@ -11399,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>659</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>661</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>663</v>
       </c>
@@ -11462,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>666</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>668</v>
       </c>
@@ -11492,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>670</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>673</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>675</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>677</v>
       </c>
@@ -11558,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>679</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>681</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>683</v>
       </c>
@@ -11606,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>686</v>
       </c>
@@ -11624,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -11642,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>692</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -11696,7 +11700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>696</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>698</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>699</v>
       </c>
@@ -11741,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>702</v>
       </c>
@@ -11756,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>704</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>706</v>
       </c>
@@ -11792,7 +11796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>709</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>712</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>714</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>716</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>718</v>
       </c>
@@ -11876,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>719</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>720</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>721</v>
       </c>
@@ -11930,7 +11934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" s="17" t="s">
         <v>880</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>881</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>885</v>
       </c>
@@ -11972,7 +11976,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>887</v>
       </c>
@@ -11986,7 +11990,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>888</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>236</v>
       </c>
@@ -12021,38 +12025,38 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1">
-    <sortState ref="A2:T79">
+  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T79">
       <sortCondition descending="1" ref="Q1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:T308">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T308">
     <sortCondition descending="1" ref="Q2:Q308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
-    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
-    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
-    <hyperlink ref="R25" r:id="rId4"/>
-    <hyperlink ref="R26" r:id="rId5"/>
-    <hyperlink ref="R32" r:id="rId6"/>
-    <hyperlink ref="R85" r:id="rId7"/>
-    <hyperlink ref="R62" r:id="rId8"/>
-    <hyperlink ref="R112" r:id="rId9"/>
-    <hyperlink ref="R126" r:id="rId10"/>
-    <hyperlink ref="R142" r:id="rId11"/>
-    <hyperlink ref="T27" r:id="rId12"/>
-    <hyperlink ref="R157" r:id="rId13"/>
-    <hyperlink ref="R48" r:id="rId14"/>
-    <hyperlink ref="R59" r:id="rId15"/>
-    <hyperlink ref="R94" r:id="rId16"/>
-    <hyperlink ref="R95" r:id="rId17"/>
-    <hyperlink ref="R114" r:id="rId18"/>
-    <hyperlink ref="R51" r:id="rId19"/>
-    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
-    <hyperlink ref="R133" r:id="rId21"/>
-    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
-    <hyperlink ref="R342" r:id="rId23"/>
+    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="R25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="R26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="R32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="R85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="R62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="R112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="R126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="R142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="T27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="R157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="R48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="R59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="R94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="R95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="R114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="R51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="R133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="R342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -12060,33 +12064,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>729</v>
       </c>
@@ -12094,32 +12098,32 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>736</v>
       </c>
@@ -12127,12 +12131,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>876</v>
       </c>
@@ -12145,26 +12149,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>872</v>
       </c>
@@ -12178,7 +12182,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12192,12 +12196,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE9983-5F3F-4B81-BE5C-209842073511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC5DE7-54FD-4ABA-B9A0-CECB7D205C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="905">
   <si>
     <t>Week</t>
   </si>
@@ -2774,6 +2774,15 @@
   </si>
   <si>
     <t>My Spore-inspired ecology sim: now with flowers and bioluminescence</t>
+  </si>
+  <si>
+    <t>Reactie</t>
+  </si>
+  <si>
+    <t>aardig, maar niet actief</t>
+  </si>
+  <si>
+    <t>gamedev</t>
   </si>
 </sst>
 </file>
@@ -3717,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4989,13 +4998,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:U360"/>
+  <dimension ref="A1:V360"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I280" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R296" sqref="R296"/>
+      <selection pane="bottomRight" activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,7 +5025,7 @@
     <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5080,8 +5089,11 @@
       <c r="U1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5106,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5131,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5159,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5231,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5253,7 +5265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5275,7 +5287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5341,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -7613,7 +7625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7635,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7659,8 +7671,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V114" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -7682,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7704,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7729,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7751,7 +7766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7776,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7798,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7820,7 +7835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7839,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7861,7 +7876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7905,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7927,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7946,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -11628,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -11646,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -11664,7 +11679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>692</v>
       </c>
@@ -11679,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -11700,7 +11715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>696</v>
       </c>
@@ -11715,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>698</v>
       </c>
@@ -11730,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>699</v>
       </c>
@@ -11745,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>702</v>
       </c>
@@ -11760,7 +11775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>704</v>
       </c>
@@ -11778,7 +11793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>706</v>
       </c>
@@ -11796,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>709</v>
       </c>
@@ -11816,8 +11831,11 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V347" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>712</v>
       </c>
@@ -11832,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>714</v>
       </c>
@@ -11847,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>716</v>
       </c>
@@ -11865,7 +11883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>718</v>
       </c>
@@ -11880,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>719</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DC5DE7-54FD-4ABA-B9A0-CECB7D205C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="907">
   <si>
     <t>Week</t>
   </si>
@@ -2784,11 +2783,17 @@
   <si>
     <t>gamedev</t>
   </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>raar engels, positef</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2945,7 +2950,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3256,7 +3261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,20 +3271,20 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5546875" style="1"/>
-    <col min="8" max="8" width="20.5546875" style="1"/>
-    <col min="11" max="16" width="20.5546875" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" style="1"/>
-    <col min="21" max="16384" width="20.5546875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5703125" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1"/>
+    <col min="11" max="16" width="20.5703125" style="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="1"/>
+    <col min="21" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3380,7 +3385,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -3399,7 +3404,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3421,7 +3426,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -3440,7 +3445,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3459,7 +3464,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3486,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3562,7 +3567,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3587,7 +3592,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3612,7 +3617,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -3640,7 +3645,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3723,20 +3728,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>738</v>
       </c>
@@ -3750,7 +3755,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>874</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>873</v>
       </c>
@@ -3792,7 +3797,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>874</v>
       </c>
@@ -3812,25 +3817,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>870</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3880,19 +3885,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>818</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>819</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -3925,7 +3930,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>821</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>822</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>823</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>824</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>825</v>
       </c>
@@ -3991,7 +3996,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>826</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>827</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>828</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>830</v>
       </c>
@@ -4046,7 +4051,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -4057,7 +4062,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>832</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>833</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>837</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>836</v>
       </c>
@@ -4101,7 +4106,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>854</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -4125,29 +4130,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>839</v>
       </c>
@@ -4163,7 +4168,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>840</v>
       </c>
@@ -4171,7 +4176,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>841</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>900</v>
       </c>
@@ -4187,7 +4192,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>842</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -4205,23 +4210,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>774</v>
       </c>
@@ -4232,7 +4237,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -4254,7 +4259,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -4265,7 +4270,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>782</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>784</v>
       </c>
@@ -4287,7 +4292,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>787</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>791</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>478</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>797</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>799</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>801</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>803</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>851</v>
       </c>
@@ -4430,7 +4435,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>855</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>857</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>859</v>
       </c>
@@ -4465,8 +4470,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4474,20 +4479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
@@ -4513,7 +4518,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4596,7 +4601,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4699,7 +4704,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4750,7 +4755,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4767,7 +4772,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +4789,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4824,7 +4829,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -4848,8 +4853,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4859,134 +4864,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -4997,35 +5002,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A317" sqref="A317"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5093,7 +5098,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5118,7 +5123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5220,8 +5225,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5243,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5353,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5394,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -5441,7 +5449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -5469,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5692,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -5755,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -5777,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -5818,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5843,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>348</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -5993,7 +6001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -6043,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -6065,7 +6073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>519</v>
       </c>
@@ -6087,7 +6095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -6225,7 +6233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>395</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6288,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>417</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>346</v>
       </c>
@@ -6329,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>359</v>
       </c>
@@ -6470,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -6495,7 +6503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6529,7 +6537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -6579,7 +6587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -6598,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -6617,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -6639,7 +6647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -6658,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>382</v>
       </c>
@@ -6714,7 +6722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -6736,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -6758,7 +6766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -6779,8 +6787,11 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -6799,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6827,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6846,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6868,7 +6879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -6896,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -6921,7 +6932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -6940,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -6959,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -6984,7 +6995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -7006,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -7028,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -7047,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -7066,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -7085,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7110,7 +7121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7132,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -7157,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7182,7 +7193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7220,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -7242,7 +7253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -7261,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -7286,7 +7297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -7305,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7327,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -7352,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -7374,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7393,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7440,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7481,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -7503,7 +7514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -7528,7 +7539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -7575,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7600,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -7625,7 +7636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7647,7 +7658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7675,7 +7686,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7719,7 +7730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7744,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7766,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7791,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7813,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7835,7 +7846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7854,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7876,7 +7887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7895,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7920,7 +7931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7942,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7961,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -7980,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -8021,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -8043,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -8065,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -8084,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -8103,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -8122,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>351</v>
       </c>
@@ -8144,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -8169,7 +8180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -8191,7 +8202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -8213,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -8232,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -8270,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8289,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -8314,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -8330,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -8365,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -8381,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>408</v>
       </c>
@@ -8397,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -8419,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -8435,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -8451,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>377</v>
       </c>
@@ -8495,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -8511,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8533,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8555,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8571,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>399</v>
       </c>
@@ -8587,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -8603,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -8619,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -8635,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>367</v>
       </c>
@@ -8651,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>244</v>
       </c>
@@ -8683,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>390</v>
       </c>
@@ -8699,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -8721,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -8737,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -8753,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8769,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -8791,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -8810,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -8842,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -8858,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -8886,7 +8897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -8905,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8921,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -8937,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -8953,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>406</v>
       </c>
@@ -8969,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -8985,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -9001,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -9017,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>425</v>
       </c>
@@ -9033,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9052,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>312</v>
       </c>
@@ -9080,7 +9091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9115,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -9131,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9147,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -9163,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -9179,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -9195,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>319</v>
       </c>
@@ -9211,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -9233,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -9255,7 +9266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -9271,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -9293,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>143</v>
       </c>
@@ -9315,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -9334,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -9350,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>427</v>
       </c>
@@ -9366,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -9382,7 +9393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -9398,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -9414,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -9430,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>384</v>
       </c>
@@ -9446,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -9462,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -9487,7 +9498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -9503,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -9519,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -9535,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -9560,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>149</v>
       </c>
@@ -9576,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -9592,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -9608,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>260</v>
       </c>
@@ -9624,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -9640,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -9656,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>364</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>376</v>
       </c>
@@ -9688,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -9704,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -9720,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>142</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -9752,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>283</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -9784,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -9800,7 +9811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -9816,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -9832,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>394</v>
       </c>
@@ -9848,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9864,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9880,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9896,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -9912,7 +9923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>396</v>
       </c>
@@ -9928,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>102</v>
       </c>
@@ -9944,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>146</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>303</v>
       </c>
@@ -9985,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>375</v>
       </c>
@@ -10001,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>388</v>
       </c>
@@ -10017,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>404</v>
       </c>
@@ -10033,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>407</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -10074,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -10090,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -10106,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -10122,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>234</v>
       </c>
@@ -10138,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10154,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10170,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -10186,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -10202,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -10218,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -10234,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>385</v>
       </c>
@@ -10250,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>400</v>
       </c>
@@ -10266,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>405</v>
       </c>
@@ -10282,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>410</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>415</v>
       </c>
@@ -10314,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>422</v>
       </c>
@@ -10330,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>433</v>
       </c>
@@ -10346,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -10362,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -10378,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -10394,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -10426,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>245</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>246</v>
       </c>
@@ -10458,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -10474,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -10490,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>370</v>
       </c>
@@ -10506,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>373</v>
       </c>
@@ -10522,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>378</v>
       </c>
@@ -10538,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>386</v>
       </c>
@@ -10554,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>392</v>
       </c>
@@ -10570,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>411</v>
       </c>
@@ -10586,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>412</v>
       </c>
@@ -10602,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>414</v>
       </c>
@@ -10618,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>416</v>
       </c>
@@ -10634,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>421</v>
       </c>
@@ -10650,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>431</v>
       </c>
@@ -10666,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>432</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>435</v>
       </c>
@@ -10698,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>436</v>
       </c>
@@ -10714,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>437</v>
       </c>
@@ -10730,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>109</v>
       </c>
@@ -10746,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>130</v>
       </c>
@@ -10762,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>137</v>
       </c>
@@ -10778,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>138</v>
       </c>
@@ -10794,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -10810,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>264</v>
       </c>
@@ -10826,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10842,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -10858,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>892</v>
       </c>
@@ -10896,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>363</v>
       </c>
@@ -10912,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>368</v>
       </c>
@@ -10928,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>371</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>374</v>
       </c>
@@ -10960,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>379</v>
       </c>
@@ -10976,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>419</v>
       </c>
@@ -10992,7 +11003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>424</v>
       </c>
@@ -11008,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>426</v>
       </c>
@@ -11024,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>429</v>
       </c>
@@ -11040,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>434</v>
       </c>
@@ -11056,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>163</v>
       </c>
@@ -11072,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>625</v>
       </c>
@@ -11091,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>626</v>
       </c>
@@ -11110,7 +11121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>628</v>
       </c>
@@ -11132,7 +11143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>631</v>
       </c>
@@ -11154,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>633</v>
       </c>
@@ -11176,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>636</v>
       </c>
@@ -11201,7 +11212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -11223,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>642</v>
       </c>
@@ -11242,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>644</v>
       </c>
@@ -11267,7 +11278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>646</v>
       </c>
@@ -11289,7 +11300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>648</v>
       </c>
@@ -11314,7 +11325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>650</v>
       </c>
@@ -11339,7 +11350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>652</v>
       </c>
@@ -11358,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>654</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>656</v>
       </c>
@@ -11396,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>658</v>
       </c>
@@ -11418,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>659</v>
       </c>
@@ -11437,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>661</v>
       </c>
@@ -11459,7 +11470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>663</v>
       </c>
@@ -11481,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>666</v>
       </c>
@@ -11496,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>668</v>
       </c>
@@ -11511,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>670</v>
       </c>
@@ -11529,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>673</v>
       </c>
@@ -11544,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>675</v>
       </c>
@@ -11562,7 +11573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>677</v>
       </c>
@@ -11577,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>679</v>
       </c>
@@ -11595,7 +11606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>681</v>
       </c>
@@ -11610,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>683</v>
       </c>
@@ -11625,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>686</v>
       </c>
@@ -11643,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -11661,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -11679,7 +11690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>692</v>
       </c>
@@ -11694,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -11715,7 +11726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>696</v>
       </c>
@@ -11730,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>698</v>
       </c>
@@ -11745,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>699</v>
       </c>
@@ -11760,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>702</v>
       </c>
@@ -11775,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>704</v>
       </c>
@@ -11793,7 +11804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>706</v>
       </c>
@@ -11811,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>709</v>
       </c>
@@ -11835,7 +11846,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>712</v>
       </c>
@@ -11850,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>714</v>
       </c>
@@ -11865,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>716</v>
       </c>
@@ -11883,7 +11894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>718</v>
       </c>
@@ -11898,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>719</v>
       </c>
@@ -11916,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>720</v>
       </c>
@@ -11934,7 +11945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>721</v>
       </c>
@@ -11952,7 +11963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
         <v>880</v>
       </c>
@@ -11966,7 +11977,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>881</v>
       </c>
@@ -11977,7 +11988,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>885</v>
       </c>
@@ -11994,7 +12005,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>887</v>
       </c>
@@ -12008,7 +12019,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>888</v>
       </c>
@@ -12025,7 +12036,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>236</v>
       </c>
@@ -12043,38 +12054,38 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T79">
+  <autoFilter ref="A1:T1">
+    <sortState ref="A2:T79">
       <sortCondition descending="1" ref="Q1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T308">
+  <sortState ref="A2:T308">
     <sortCondition descending="1" ref="Q2:Q308"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="R25" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="R26" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="R32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="R85" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="R62" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="R112" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="R126" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="R142" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="T27" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="R157" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="R48" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="R59" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="R94" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="R95" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="R114" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="R51" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="R133" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="R342" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="R2" r:id="rId1" display="mailto:jacksepticeye7@gmail.com"/>
+    <hyperlink ref="R3" r:id="rId2" display="mailto:markiplierbusiness@gmail.com"/>
+    <hyperlink ref="R83" r:id="rId3" display="http://www.afromask.com/afro0mask@gmail.com"/>
+    <hyperlink ref="R25" r:id="rId4"/>
+    <hyperlink ref="R26" r:id="rId5"/>
+    <hyperlink ref="R32" r:id="rId6"/>
+    <hyperlink ref="R85" r:id="rId7"/>
+    <hyperlink ref="R62" r:id="rId8"/>
+    <hyperlink ref="R112" r:id="rId9"/>
+    <hyperlink ref="R126" r:id="rId10"/>
+    <hyperlink ref="R142" r:id="rId11"/>
+    <hyperlink ref="T27" r:id="rId12"/>
+    <hyperlink ref="R157" r:id="rId13"/>
+    <hyperlink ref="R48" r:id="rId14"/>
+    <hyperlink ref="R59" r:id="rId15"/>
+    <hyperlink ref="R94" r:id="rId16"/>
+    <hyperlink ref="R95" r:id="rId17"/>
+    <hyperlink ref="R114" r:id="rId18"/>
+    <hyperlink ref="R51" r:id="rId19"/>
+    <hyperlink ref="R55" r:id="rId20" display="mailto:gilathiss.biznes@gmail.com"/>
+    <hyperlink ref="R133" r:id="rId21"/>
+    <hyperlink ref="R322" r:id="rId22" display="mailto:jpad17officialchannel@gmail.com"/>
+    <hyperlink ref="R342" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
@@ -12082,33 +12093,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>729</v>
       </c>
@@ -12116,32 +12127,32 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>736</v>
       </c>
@@ -12149,12 +12160,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>876</v>
       </c>
@@ -12167,26 +12178,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>872</v>
       </c>
@@ -12200,7 +12211,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12214,12 +12225,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>

--- a/Marketing planning.xlsx
+++ b/Marketing planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wessel\Desktop\thesapling-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wstoop\Documents\thesapling-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E33D9F-E793-42EB-BAC7-8CB0EAAF2DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="782" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Filmpjesmakers!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Nieuwe Youtubers'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="920">
   <si>
     <t>Week</t>
   </si>
@@ -2789,11 +2790,50 @@
   <si>
     <t>raar engels, positef</t>
   </si>
+  <si>
+    <t>AnyaEVostinar</t>
+  </si>
+  <si>
+    <t>emilyldolson</t>
+  </si>
+  <si>
+    <t>luiszaman</t>
+  </si>
+  <si>
+    <t>JamesMBorg</t>
+  </si>
+  <si>
+    <t>DrMikeWiser</t>
+  </si>
+  <si>
+    <t>BertChakovsky</t>
+  </si>
+  <si>
+    <t>sina_lana</t>
+  </si>
+  <si>
+    <t>err_more</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Al gedaan</t>
+  </si>
+  <si>
+    <t>Brad McDavitt</t>
+  </si>
+  <si>
+    <t>Equilinox-achtig spel</t>
+  </si>
+  <si>
+    <t>alexeidrummond</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2950,7 +2990,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3261,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,20 +3311,20 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1"/>
-    <col min="11" max="16" width="20.5703125" style="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="1"/>
-    <col min="21" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5546875" style="1"/>
+    <col min="8" max="8" width="20.5546875" style="1"/>
+    <col min="11" max="16" width="20.5546875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" style="1"/>
+    <col min="21" max="16384" width="20.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3349,7 +3389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3366,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -3385,7 +3425,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3444,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3426,7 +3466,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -3445,7 +3485,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3464,7 +3504,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3486,7 +3526,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3542,7 +3582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -3567,7 +3607,7 @@
       <c r="J10" s="1"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -3592,7 +3632,7 @@
       <c r="J11" s="1"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3617,7 +3657,7 @@
       <c r="J12" s="1"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -3645,7 +3685,7 @@
       <c r="J13" s="1"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -3701,7 +3741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -3728,20 +3768,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>738</v>
       </c>
@@ -3755,7 +3795,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -3769,7 +3809,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>874</v>
       </c>
@@ -3783,7 +3823,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>873</v>
       </c>
@@ -3797,7 +3837,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>874</v>
       </c>
@@ -3817,25 +3857,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3849,7 +3889,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3863,7 +3903,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>870</v>
       </c>
@@ -3871,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3885,19 +3925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>818</v>
       </c>
@@ -3908,7 +3948,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>819</v>
       </c>
@@ -3919,7 +3959,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -3930,7 +3970,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>821</v>
       </c>
@@ -3941,7 +3981,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>822</v>
       </c>
@@ -3952,7 +3992,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>823</v>
       </c>
@@ -3963,7 +4003,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>824</v>
       </c>
@@ -3974,7 +4014,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -3985,7 +4025,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>825</v>
       </c>
@@ -3996,7 +4036,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>826</v>
       </c>
@@ -4007,7 +4047,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>827</v>
       </c>
@@ -4018,7 +4058,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>828</v>
       </c>
@@ -4029,7 +4069,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -4040,7 +4080,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>830</v>
       </c>
@@ -4051,7 +4091,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>831</v>
       </c>
@@ -4062,7 +4102,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>832</v>
       </c>
@@ -4073,7 +4113,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>833</v>
       </c>
@@ -4084,7 +4124,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>837</v>
       </c>
@@ -4095,7 +4135,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>836</v>
       </c>
@@ -4106,7 +4146,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>854</v>
       </c>
@@ -4117,7 +4157,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -4130,29 +4170,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C19" r:id="rId2"/>
-    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -4160,7 +4200,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>839</v>
       </c>
@@ -4168,7 +4208,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>840</v>
       </c>
@@ -4176,7 +4216,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>841</v>
       </c>
@@ -4184,7 +4224,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>900</v>
       </c>
@@ -4192,7 +4232,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>842</v>
       </c>
@@ -4200,7 +4240,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -4210,23 +4250,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>774</v>
       </c>
@@ -4237,7 +4277,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4248,7 +4288,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -4259,7 +4299,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -4270,7 +4310,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>782</v>
       </c>
@@ -4281,7 +4321,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>784</v>
       </c>
@@ -4292,7 +4332,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -4303,7 +4343,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>787</v>
       </c>
@@ -4314,7 +4354,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>789</v>
       </c>
@@ -4325,7 +4365,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>791</v>
       </c>
@@ -4336,7 +4376,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -4347,7 +4387,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>794</v>
       </c>
@@ -4358,7 +4398,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>478</v>
       </c>
@@ -4369,7 +4409,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>797</v>
       </c>
@@ -4380,7 +4420,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>799</v>
       </c>
@@ -4391,7 +4431,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>801</v>
       </c>
@@ -4402,7 +4442,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>803</v>
       </c>
@@ -4413,7 +4453,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>806</v>
       </c>
@@ -4424,7 +4464,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>851</v>
       </c>
@@ -4435,7 +4475,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>855</v>
       </c>
@@ -4446,7 +4486,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>857</v>
       </c>
@@ -4457,7 +4497,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>859</v>
       </c>
@@ -4470,8 +4510,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4479,20 +4519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
@@ -4518,7 +4558,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -4538,7 +4578,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -4561,7 +4601,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4601,7 +4641,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4624,7 +4664,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4641,7 +4681,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4664,7 +4704,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -4681,7 +4721,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4704,7 +4744,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4721,7 +4761,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4738,7 +4778,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4755,7 +4795,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4772,7 +4812,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4789,7 +4829,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4812,7 +4852,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4829,7 +4869,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -4853,8 +4893,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D17">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4864,134 +4904,134 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -5002,35 +5042,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -5098,7 +5138,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -5123,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5148,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -5176,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -5204,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -5229,7 +5269,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>409</v>
       </c>
@@ -5251,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5273,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5295,7 +5335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5317,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>360</v>
       </c>
@@ -5339,7 +5379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5361,7 +5401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -5383,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>354</v>
       </c>
@@ -5402,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -5424,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -5449,7 +5489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -5477,7 +5517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -5499,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -5521,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -5540,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -5559,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5584,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -5600,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -5625,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5647,7 +5687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5675,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -5700,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>350</v>
       </c>
@@ -5722,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5744,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -5763,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -5785,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -5804,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -5826,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5851,7 +5891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>348</v>
       </c>
@@ -5876,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -5904,7 +5944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>287</v>
       </c>
@@ -5929,7 +5969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>190</v>
       </c>
@@ -5951,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -5973,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -6001,7 +6041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -6026,7 +6066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -6051,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -6073,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>519</v>
       </c>
@@ -6095,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -6120,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -6139,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -6158,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -6186,7 +6226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6208,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -6233,7 +6273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>395</v>
       </c>
@@ -6252,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -6274,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6296,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>417</v>
       </c>
@@ -6318,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>346</v>
       </c>
@@ -6337,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>358</v>
       </c>
@@ -6365,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -6384,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6409,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6431,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -6456,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>359</v>
       </c>
@@ -6478,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -6503,7 +6543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6537,7 +6577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -6562,7 +6602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>261</v>
       </c>
@@ -6587,7 +6627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -6606,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -6625,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>428</v>
       </c>
@@ -6647,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -6666,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -6694,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>382</v>
       </c>
@@ -6722,7 +6762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -6744,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -6766,7 +6806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -6791,7 +6831,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -6810,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6838,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -6857,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -6879,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>285</v>
       </c>
@@ -6907,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -6932,7 +6972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -6951,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -6970,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>206</v>
       </c>
@@ -6995,7 +7035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -7017,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -7039,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -7058,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -7077,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>380</v>
       </c>
@@ -7096,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -7121,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>193</v>
       </c>
@@ -7143,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -7168,7 +7208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -7193,7 +7233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -7212,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>185</v>
       </c>
@@ -7231,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -7253,7 +7293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -7272,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -7297,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>225</v>
       </c>
@@ -7316,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7338,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -7363,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -7385,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>215</v>
       </c>
@@ -7404,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -7432,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -7451,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -7473,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -7492,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -7514,7 +7554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -7539,7 +7579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -7561,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -7586,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -7611,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -7636,7 +7676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -7658,7 +7698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>279</v>
       </c>
@@ -7686,7 +7726,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -7708,7 +7748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -7730,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7755,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -7777,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -7802,7 +7842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -7824,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -7846,7 +7886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>195</v>
       </c>
@@ -7865,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -7887,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>299</v>
       </c>
@@ -7906,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>229</v>
       </c>
@@ -7931,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -7953,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7972,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>397</v>
       </c>
@@ -7991,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -8013,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>423</v>
       </c>
@@ -8032,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -8054,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>315</v>
       </c>
@@ -8076,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -8095,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -8114,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
@@ -8133,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>351</v>
       </c>
@@ -8155,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -8180,7 +8220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -8202,7 +8242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -8224,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>198</v>
       </c>
@@ -8243,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -8262,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>125</v>
       </c>
@@ -8281,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8300,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -8325,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -8341,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -8357,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>105</v>
       </c>
@@ -8376,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -8392,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>408</v>
       </c>
@@ -8408,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>108</v>
       </c>
@@ -8430,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -8446,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>311</v>
       </c>
@@ -8462,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>145</v>
       </c>
@@ -8490,7 +8530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>377</v>
       </c>
@@ -8506,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -8522,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -8544,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8566,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>263</v>
       </c>
@@ -8582,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>399</v>
       </c>
@@ -8598,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>250</v>
       </c>
@@ -8614,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -8630,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -8646,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>367</v>
       </c>
@@ -8662,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>186</v>
       </c>
@@ -8678,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>244</v>
       </c>
@@ -8694,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>390</v>
       </c>
@@ -8710,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -8732,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -8748,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>238</v>
       </c>
@@ -8764,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>302</v>
       </c>
@@ -8780,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -8802,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>117</v>
       </c>
@@ -8821,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -8837,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>197</v>
       </c>
@@ -8853,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -8869,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>281</v>
       </c>
@@ -8897,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -8916,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>188</v>
       </c>
@@ -8932,7 +8972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -8948,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -8964,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>406</v>
       </c>
@@ -8980,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -8996,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>220</v>
       </c>
@@ -9012,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -9028,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>425</v>
       </c>
@@ -9044,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9063,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>312</v>
       </c>
@@ -9091,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>381</v>
       </c>
@@ -9107,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -9126,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -9142,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -9158,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>314</v>
       </c>
@@ -9174,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -9190,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -9206,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>319</v>
       </c>
@@ -9222,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>111</v>
       </c>
@@ -9244,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>219</v>
       </c>
@@ -9266,7 +9306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -9282,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -9304,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>143</v>
       </c>
@@ -9326,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
@@ -9345,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -9361,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>427</v>
       </c>
@@ -9377,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -9393,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>270</v>
       </c>
@@ -9409,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>276</v>
       </c>
@@ -9425,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -9441,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>384</v>
       </c>
@@ -9457,7 +9497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -9473,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>161</v>
       </c>
@@ -9498,7 +9538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>296</v>
       </c>
@@ -9514,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>306</v>
       </c>
@@ -9530,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -9546,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -9571,7 +9611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>149</v>
       </c>
@@ -9587,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -9603,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>89</v>
       </c>
@@ -9619,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>260</v>
       </c>
@@ -9635,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>295</v>
       </c>
@@ -9651,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>309</v>
       </c>
@@ -9667,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>364</v>
       </c>
@@ -9683,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>376</v>
       </c>
@@ -9699,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>391</v>
       </c>
@@ -9715,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>139</v>
       </c>
@@ -9731,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>142</v>
       </c>
@@ -9747,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -9763,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>283</v>
       </c>
@@ -9779,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>298</v>
       </c>
@@ -9795,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -9811,7 +9851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>147</v>
       </c>
@@ -9827,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>304</v>
       </c>
@@ -9843,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>394</v>
       </c>
@@ -9859,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>124</v>
       </c>
@@ -9875,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -9891,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>144</v>
       </c>
@@ -9907,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>274</v>
       </c>
@@ -9923,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>396</v>
       </c>
@@ -9939,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>102</v>
       </c>
@@ -9955,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>146</v>
       </c>
@@ -9980,7 +10020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>303</v>
       </c>
@@ -9996,7 +10036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>375</v>
       </c>
@@ -10012,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>388</v>
       </c>
@@ -10028,7 +10068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>404</v>
       </c>
@@ -10044,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>407</v>
       </c>
@@ -10069,7 +10109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -10085,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -10101,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>212</v>
       </c>
@@ -10117,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -10133,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>234</v>
       </c>
@@ -10149,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10165,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -10181,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>288</v>
       </c>
@@ -10197,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>300</v>
       </c>
@@ -10213,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>301</v>
       </c>
@@ -10229,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -10245,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>385</v>
       </c>
@@ -10261,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>400</v>
       </c>
@@ -10277,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>405</v>
       </c>
@@ -10293,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>410</v>
       </c>
@@ -10309,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>415</v>
       </c>
@@ -10325,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>422</v>
       </c>
@@ -10341,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>433</v>
       </c>
@@ -10357,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -10373,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -10389,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -10405,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>168</v>
       </c>
@@ -10421,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>200</v>
       </c>
@@ -10437,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>245</v>
       </c>
@@ -10453,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>246</v>
       </c>
@@ -10469,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -10485,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -10501,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>370</v>
       </c>
@@ -10517,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>373</v>
       </c>
@@ -10533,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>378</v>
       </c>
@@ -10549,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>386</v>
       </c>
@@ -10565,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>392</v>
       </c>
@@ -10581,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>411</v>
       </c>
@@ -10597,7 +10637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans